--- a/COVID19.xlsx
+++ b/COVID19.xlsx
@@ -461,58 +461,58 @@
                   <c:v>1564</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1564</c:v>
+                  <c:v>1819</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1564</c:v>
+                  <c:v>1819</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1564</c:v>
+                  <c:v>1819</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1564</c:v>
+                  <c:v>1819</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1564</c:v>
+                  <c:v>1819</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1564</c:v>
+                  <c:v>1819</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1564</c:v>
+                  <c:v>1819</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1564</c:v>
+                  <c:v>1819</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1564</c:v>
+                  <c:v>1819</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1564</c:v>
+                  <c:v>1819</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1564</c:v>
+                  <c:v>1819</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1564</c:v>
+                  <c:v>1819</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1564</c:v>
+                  <c:v>1819</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1564</c:v>
+                  <c:v>1819</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1564</c:v>
+                  <c:v>1819</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1564</c:v>
+                  <c:v>1819</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1564</c:v>
+                  <c:v>1819</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1564</c:v>
+                  <c:v>1819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -621,58 +621,58 @@
                   <c:v>1550</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1550</c:v>
+                  <c:v>1795</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1550</c:v>
+                  <c:v>1795</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1550</c:v>
+                  <c:v>1795</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1550</c:v>
+                  <c:v>1795</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1550</c:v>
+                  <c:v>1795</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1550</c:v>
+                  <c:v>1795</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1550</c:v>
+                  <c:v>1795</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1550</c:v>
+                  <c:v>1795</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1550</c:v>
+                  <c:v>1795</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1550</c:v>
+                  <c:v>1795</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1550</c:v>
+                  <c:v>1795</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1550</c:v>
+                  <c:v>1795</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1550</c:v>
+                  <c:v>1795</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1550</c:v>
+                  <c:v>1795</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1550</c:v>
+                  <c:v>1795</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1550</c:v>
+                  <c:v>1795</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1550</c:v>
+                  <c:v>1795</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1550</c:v>
+                  <c:v>1795</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -689,11 +689,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75497472"/>
-        <c:axId val="75499008"/>
+        <c:axId val="64987520"/>
+        <c:axId val="64989056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="75497472"/>
+        <c:axId val="64987520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -703,14 +703,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75499008"/>
+        <c:crossAx val="64989056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="75499008"/>
+        <c:axId val="64989056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -740,7 +740,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75497472"/>
+        <c:crossAx val="64987520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1041,11 +1041,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78204288"/>
-        <c:axId val="78548992"/>
+        <c:axId val="68700032"/>
+        <c:axId val="68701568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="78204288"/>
+        <c:axId val="68700032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1055,14 +1055,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78548992"/>
+        <c:crossAx val="68701568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="78548992"/>
+        <c:axId val="68701568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1078,7 +1078,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="78204288"/>
+        <c:crossAx val="68700032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1385,58 +1385,58 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1689,7 +1689,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
@@ -2365,11 +2365,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79065472"/>
-        <c:axId val="79067008"/>
+        <c:axId val="124748928"/>
+        <c:axId val="124750464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="79065472"/>
+        <c:axId val="124748928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2379,14 +2379,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79067008"/>
+        <c:crossAx val="124750464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="79067008"/>
+        <c:axId val="124750464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2402,7 +2402,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="79065472"/>
+        <c:crossAx val="124748928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2994,10 +2994,10 @@
                   <c:v>66.666666666666657</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>133.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>-200</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
@@ -3298,10 +3298,10 @@
                   <c:v>14.123006833712983</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>8.1632653061224492</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>-200</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
@@ -3366,11 +3366,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="66986752"/>
-        <c:axId val="75527680"/>
+        <c:axId val="125127296"/>
+        <c:axId val="125133184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="66986752"/>
+        <c:axId val="125127296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3380,14 +3380,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75527680"/>
+        <c:crossAx val="125133184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="75527680"/>
+        <c:axId val="125133184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3397,7 +3397,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66986752"/>
+        <c:crossAx val="125127296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3834,10 +3834,10 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
+      <selection pane="bottomRight" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5161,28 +5161,26 @@
         <v>43916</v>
       </c>
       <c r="C30">
-        <f>C29</f>
-        <v>1564</v>
+        <v>1819</v>
       </c>
       <c r="D30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="E30">
         <f t="shared" si="7"/>
-        <v>-200</v>
+        <v>8.1632653061224492</v>
       </c>
       <c r="F30">
-        <f t="shared" ref="F30:F47" si="8">F29</f>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G30">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H30">
         <f t="shared" si="4"/>
-        <v>-200</v>
+        <v>133.33333333333331</v>
       </c>
       <c r="I30">
         <f t="shared" si="5"/>
@@ -5197,7 +5195,7 @@
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>1550</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -5209,28 +5207,28 @@
         <v>43917</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:C47" si="9">C30</f>
-        <v>1564</v>
+        <f t="shared" ref="C31:C47" si="8">C30</f>
+        <v>1819</v>
       </c>
       <c r="D31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E31" t="e">
+      <c r="E31">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-200</v>
       </c>
       <c r="F31">
-        <f t="shared" si="8"/>
-        <v>9</v>
+        <f t="shared" ref="F30:F47" si="9">F30</f>
+        <v>19</v>
       </c>
       <c r="G31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H31" t="e">
+      <c r="H31">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>-200</v>
       </c>
       <c r="I31">
         <f t="shared" si="5"/>
@@ -5245,7 +5243,7 @@
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>1550</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -5257,8 +5255,8 @@
         <v>43918</v>
       </c>
       <c r="C32">
-        <f t="shared" si="9"/>
-        <v>1564</v>
+        <f t="shared" si="8"/>
+        <v>1819</v>
       </c>
       <c r="D32">
         <f t="shared" si="2"/>
@@ -5269,8 +5267,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F32">
-        <f t="shared" si="8"/>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>19</v>
       </c>
       <c r="G32">
         <f t="shared" si="3"/>
@@ -5293,7 +5291,7 @@
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>1550</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -5305,8 +5303,8 @@
         <v>43919</v>
       </c>
       <c r="C33">
-        <f t="shared" si="9"/>
-        <v>1564</v>
+        <f t="shared" si="8"/>
+        <v>1819</v>
       </c>
       <c r="D33">
         <f t="shared" si="2"/>
@@ -5317,8 +5315,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F33">
-        <f t="shared" si="8"/>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>19</v>
       </c>
       <c r="G33">
         <f t="shared" si="3"/>
@@ -5341,7 +5339,7 @@
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>1550</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -5353,8 +5351,8 @@
         <v>43920</v>
       </c>
       <c r="C34">
-        <f t="shared" si="9"/>
-        <v>1564</v>
+        <f t="shared" si="8"/>
+        <v>1819</v>
       </c>
       <c r="D34">
         <f t="shared" si="2"/>
@@ -5365,8 +5363,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F34">
-        <f t="shared" si="8"/>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>19</v>
       </c>
       <c r="G34">
         <f t="shared" si="3"/>
@@ -5389,7 +5387,7 @@
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>1550</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -5401,8 +5399,8 @@
         <v>43921</v>
       </c>
       <c r="C35">
-        <f t="shared" si="9"/>
-        <v>1564</v>
+        <f t="shared" si="8"/>
+        <v>1819</v>
       </c>
       <c r="D35">
         <f t="shared" si="2"/>
@@ -5413,8 +5411,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F35">
-        <f t="shared" si="8"/>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>19</v>
       </c>
       <c r="G35">
         <f t="shared" si="3"/>
@@ -5437,7 +5435,7 @@
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>1550</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -5449,8 +5447,8 @@
         <v>43922</v>
       </c>
       <c r="C36">
-        <f t="shared" si="9"/>
-        <v>1564</v>
+        <f t="shared" si="8"/>
+        <v>1819</v>
       </c>
       <c r="D36">
         <f t="shared" si="2"/>
@@ -5461,8 +5459,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F36">
-        <f t="shared" si="8"/>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>19</v>
       </c>
       <c r="G36">
         <f t="shared" si="3"/>
@@ -5485,7 +5483,7 @@
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
-        <v>1550</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -5497,8 +5495,8 @@
         <v>43923</v>
       </c>
       <c r="C37">
-        <f t="shared" si="9"/>
-        <v>1564</v>
+        <f t="shared" si="8"/>
+        <v>1819</v>
       </c>
       <c r="D37">
         <f t="shared" si="2"/>
@@ -5509,8 +5507,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F37">
-        <f t="shared" si="8"/>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>19</v>
       </c>
       <c r="G37">
         <f t="shared" si="3"/>
@@ -5533,7 +5531,7 @@
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>1550</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -5545,8 +5543,8 @@
         <v>43924</v>
       </c>
       <c r="C38">
-        <f t="shared" si="9"/>
-        <v>1564</v>
+        <f t="shared" si="8"/>
+        <v>1819</v>
       </c>
       <c r="D38">
         <f t="shared" si="2"/>
@@ -5557,8 +5555,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F38">
-        <f t="shared" si="8"/>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>19</v>
       </c>
       <c r="G38">
         <f t="shared" si="3"/>
@@ -5581,7 +5579,7 @@
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>1550</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -5593,8 +5591,8 @@
         <v>43925</v>
       </c>
       <c r="C39">
-        <f t="shared" si="9"/>
-        <v>1564</v>
+        <f t="shared" si="8"/>
+        <v>1819</v>
       </c>
       <c r="D39">
         <f t="shared" si="2"/>
@@ -5605,8 +5603,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F39">
-        <f t="shared" si="8"/>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>19</v>
       </c>
       <c r="G39">
         <f t="shared" si="3"/>
@@ -5629,7 +5627,7 @@
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>1550</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -5641,8 +5639,8 @@
         <v>43926</v>
       </c>
       <c r="C40">
-        <f t="shared" si="9"/>
-        <v>1564</v>
+        <f t="shared" si="8"/>
+        <v>1819</v>
       </c>
       <c r="D40">
         <f t="shared" si="2"/>
@@ -5653,8 +5651,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F40">
-        <f t="shared" si="8"/>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>19</v>
       </c>
       <c r="G40">
         <f t="shared" si="3"/>
@@ -5677,7 +5675,7 @@
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>1550</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -5689,8 +5687,8 @@
         <v>43927</v>
       </c>
       <c r="C41">
-        <f t="shared" si="9"/>
-        <v>1564</v>
+        <f t="shared" si="8"/>
+        <v>1819</v>
       </c>
       <c r="D41">
         <f t="shared" si="2"/>
@@ -5701,8 +5699,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F41">
-        <f t="shared" si="8"/>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>19</v>
       </c>
       <c r="G41">
         <f t="shared" si="3"/>
@@ -5725,7 +5723,7 @@
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>1550</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -5737,8 +5735,8 @@
         <v>43928</v>
       </c>
       <c r="C42">
-        <f t="shared" si="9"/>
-        <v>1564</v>
+        <f t="shared" si="8"/>
+        <v>1819</v>
       </c>
       <c r="D42">
         <f t="shared" si="2"/>
@@ -5749,8 +5747,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F42">
-        <f t="shared" si="8"/>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>19</v>
       </c>
       <c r="G42">
         <f t="shared" si="3"/>
@@ -5773,7 +5771,7 @@
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>1550</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -5785,8 +5783,8 @@
         <v>43929</v>
       </c>
       <c r="C43">
-        <f t="shared" si="9"/>
-        <v>1564</v>
+        <f t="shared" si="8"/>
+        <v>1819</v>
       </c>
       <c r="D43">
         <f t="shared" si="2"/>
@@ -5797,8 +5795,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F43">
-        <f t="shared" si="8"/>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>19</v>
       </c>
       <c r="G43">
         <f t="shared" si="3"/>
@@ -5821,7 +5819,7 @@
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>1550</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -5833,8 +5831,8 @@
         <v>43930</v>
       </c>
       <c r="C44">
-        <f t="shared" si="9"/>
-        <v>1564</v>
+        <f t="shared" si="8"/>
+        <v>1819</v>
       </c>
       <c r="D44">
         <f t="shared" si="2"/>
@@ -5845,8 +5843,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F44">
-        <f t="shared" si="8"/>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>19</v>
       </c>
       <c r="G44">
         <f t="shared" si="3"/>
@@ -5869,7 +5867,7 @@
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>1550</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -5881,8 +5879,8 @@
         <v>43931</v>
       </c>
       <c r="C45">
-        <f t="shared" si="9"/>
-        <v>1564</v>
+        <f t="shared" si="8"/>
+        <v>1819</v>
       </c>
       <c r="D45">
         <f t="shared" si="2"/>
@@ -5893,8 +5891,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F45">
-        <f t="shared" si="8"/>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>19</v>
       </c>
       <c r="G45">
         <f t="shared" si="3"/>
@@ -5917,7 +5915,7 @@
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>1550</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -5929,8 +5927,8 @@
         <v>43932</v>
       </c>
       <c r="C46">
-        <f t="shared" si="9"/>
-        <v>1564</v>
+        <f t="shared" si="8"/>
+        <v>1819</v>
       </c>
       <c r="D46">
         <f t="shared" si="2"/>
@@ -5941,8 +5939,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F46">
-        <f t="shared" si="8"/>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>19</v>
       </c>
       <c r="G46">
         <f t="shared" si="3"/>
@@ -5965,7 +5963,7 @@
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>1550</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -5977,8 +5975,8 @@
         <v>43933</v>
       </c>
       <c r="C47">
-        <f t="shared" si="9"/>
-        <v>1564</v>
+        <f t="shared" si="8"/>
+        <v>1819</v>
       </c>
       <c r="D47">
         <f t="shared" si="2"/>
@@ -5989,8 +5987,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F47">
-        <f t="shared" si="8"/>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>19</v>
       </c>
       <c r="G47">
         <f t="shared" si="3"/>
@@ -6013,7 +6011,7 @@
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
-        <v>1550</v>
+        <v>1795</v>
       </c>
     </row>
   </sheetData>

--- a/COVID19.xlsx
+++ b/COVID19.xlsx
@@ -580,55 +580,55 @@
                   <c:v>1819</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1819</c:v>
+                  <c:v>2121</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1819</c:v>
+                  <c:v>2415</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1819</c:v>
+                  <c:v>2615</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1819</c:v>
+                  <c:v>2615</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1819</c:v>
+                  <c:v>2615</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1819</c:v>
+                  <c:v>2615</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1819</c:v>
+                  <c:v>2615</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1819</c:v>
+                  <c:v>2615</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1819</c:v>
+                  <c:v>2615</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1819</c:v>
+                  <c:v>2615</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1819</c:v>
+                  <c:v>2615</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1819</c:v>
+                  <c:v>2615</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1819</c:v>
+                  <c:v>2615</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1819</c:v>
+                  <c:v>2615</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1819</c:v>
+                  <c:v>2615</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1819</c:v>
+                  <c:v>2615</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1819</c:v>
+                  <c:v>2615</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -740,55 +740,55 @@
                   <c:v>1795</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1795</c:v>
+                  <c:v>2094</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1795</c:v>
+                  <c:v>2374</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1795</c:v>
+                  <c:v>2564</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1795</c:v>
+                  <c:v>2564</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1795</c:v>
+                  <c:v>2564</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1795</c:v>
+                  <c:v>2564</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1795</c:v>
+                  <c:v>2564</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1795</c:v>
+                  <c:v>2564</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1795</c:v>
+                  <c:v>2564</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1795</c:v>
+                  <c:v>2564</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1795</c:v>
+                  <c:v>2564</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1795</c:v>
+                  <c:v>2564</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1795</c:v>
+                  <c:v>2564</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1795</c:v>
+                  <c:v>2564</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1795</c:v>
+                  <c:v>2564</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1795</c:v>
+                  <c:v>2564</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1795</c:v>
+                  <c:v>2564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1146,13 +1146,13 @@
                   <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>302</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
@@ -1559,55 +1559,55 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>19</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>19</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>19</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>19</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>19</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>19</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>19</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>19</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>19</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>19</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>19</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>19</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>19</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>19</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>19</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>19</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>19</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1863,13 +1863,13 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
@@ -3168,16 +3168,16 @@
                   <c:v>133.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>-107.69230769230769</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>129.41176470588235</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-33.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>-200</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0</c:v>
@@ -3472,16 +3472,16 @@
                   <c:v>8.1632653061224492</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>16.87612208258528</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.6845637583892619</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-38.056680161943319</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>-200</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0</c:v>
@@ -4005,10 +4005,10 @@
   <dimension ref="A1:L293"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="F34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4052,7 +4052,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="6">
         <f ca="1">TODAY()</f>
-        <v>43917</v>
+        <v>43920</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -5390,28 +5390,26 @@
         <v>43917</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:C95" si="8">C31</f>
-        <v>1819</v>
+        <v>2121</v>
       </c>
       <c r="D32">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="E32">
         <f t="shared" si="7"/>
-        <v>-200</v>
+        <v>16.87612208258528</v>
       </c>
       <c r="F32">
-        <f t="shared" ref="F32:F95" si="9">F31</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G32">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H32">
         <f t="shared" si="4"/>
-        <v>-200</v>
+        <v>-107.69230769230769</v>
       </c>
       <c r="I32">
         <f t="shared" si="5"/>
@@ -5426,7 +5424,7 @@
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>1795</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -5438,28 +5436,26 @@
         <v>43918</v>
       </c>
       <c r="C33">
-        <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2415</v>
       </c>
       <c r="D33">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E33" t="e">
+        <v>294</v>
+      </c>
+      <c r="E33">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-2.6845637583892619</v>
       </c>
       <c r="F33">
-        <f t="shared" si="9"/>
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G33">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H33" t="e">
+        <v>14</v>
+      </c>
+      <c r="H33">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>129.41176470588235</v>
       </c>
       <c r="I33">
         <f t="shared" si="5"/>
@@ -5474,7 +5470,7 @@
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>1795</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -5486,28 +5482,26 @@
         <v>43919</v>
       </c>
       <c r="C34">
-        <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D34">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E34" t="e">
+        <v>200</v>
+      </c>
+      <c r="E34">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-38.056680161943319</v>
       </c>
       <c r="F34">
-        <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G34">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H34" t="e">
+        <v>10</v>
+      </c>
+      <c r="H34">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>-33.333333333333329</v>
       </c>
       <c r="I34">
         <f t="shared" si="5"/>
@@ -5522,7 +5516,7 @@
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -5534,28 +5528,28 @@
         <v>43920</v>
       </c>
       <c r="C35">
-        <f t="shared" si="8"/>
-        <v>1819</v>
+        <f t="shared" ref="C32:C95" si="8">C34</f>
+        <v>2615</v>
       </c>
       <c r="D35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E35" t="e">
+      <c r="E35">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-200</v>
       </c>
       <c r="F35">
-        <f t="shared" si="9"/>
-        <v>19</v>
+        <f t="shared" ref="F32:F95" si="9">F34</f>
+        <v>46</v>
       </c>
       <c r="G35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H35" t="e">
+      <c r="H35">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>-200</v>
       </c>
       <c r="I35">
         <f t="shared" si="5"/>
@@ -5570,7 +5564,7 @@
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -5583,7 +5577,7 @@
       </c>
       <c r="C36">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D36">
         <f t="shared" si="2"/>
@@ -5595,7 +5589,7 @@
       </c>
       <c r="F36">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G36">
         <f t="shared" si="3"/>
@@ -5618,7 +5612,7 @@
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -5631,7 +5625,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D37">
         <f t="shared" si="2"/>
@@ -5643,7 +5637,7 @@
       </c>
       <c r="F37">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G37">
         <f t="shared" si="3"/>
@@ -5666,7 +5660,7 @@
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -5679,7 +5673,7 @@
       </c>
       <c r="C38">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D38">
         <f t="shared" si="2"/>
@@ -5691,7 +5685,7 @@
       </c>
       <c r="F38">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G38">
         <f t="shared" si="3"/>
@@ -5714,7 +5708,7 @@
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -5727,7 +5721,7 @@
       </c>
       <c r="C39">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D39">
         <f t="shared" si="2"/>
@@ -5739,7 +5733,7 @@
       </c>
       <c r="F39">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G39">
         <f t="shared" si="3"/>
@@ -5762,7 +5756,7 @@
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -5775,7 +5769,7 @@
       </c>
       <c r="C40">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D40">
         <f t="shared" si="2"/>
@@ -5787,7 +5781,7 @@
       </c>
       <c r="F40">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G40">
         <f t="shared" si="3"/>
@@ -5810,7 +5804,7 @@
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -5823,7 +5817,7 @@
       </c>
       <c r="C41">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D41">
         <f t="shared" si="2"/>
@@ -5835,7 +5829,7 @@
       </c>
       <c r="F41">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G41">
         <f t="shared" si="3"/>
@@ -5858,7 +5852,7 @@
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -5871,7 +5865,7 @@
       </c>
       <c r="C42">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D42">
         <f t="shared" si="2"/>
@@ -5883,7 +5877,7 @@
       </c>
       <c r="F42">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G42">
         <f t="shared" si="3"/>
@@ -5906,7 +5900,7 @@
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -5919,7 +5913,7 @@
       </c>
       <c r="C43">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D43">
         <f t="shared" si="2"/>
@@ -5931,7 +5925,7 @@
       </c>
       <c r="F43">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G43">
         <f t="shared" si="3"/>
@@ -5954,7 +5948,7 @@
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -5967,7 +5961,7 @@
       </c>
       <c r="C44">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D44">
         <f t="shared" si="2"/>
@@ -5979,7 +5973,7 @@
       </c>
       <c r="F44">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G44">
         <f t="shared" si="3"/>
@@ -6002,7 +5996,7 @@
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -6015,7 +6009,7 @@
       </c>
       <c r="C45">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D45">
         <f t="shared" si="2"/>
@@ -6027,7 +6021,7 @@
       </c>
       <c r="F45">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G45">
         <f t="shared" si="3"/>
@@ -6050,7 +6044,7 @@
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -6063,7 +6057,7 @@
       </c>
       <c r="C46">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D46">
         <f t="shared" si="2"/>
@@ -6075,7 +6069,7 @@
       </c>
       <c r="F46">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G46">
         <f t="shared" si="3"/>
@@ -6098,7 +6092,7 @@
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -6111,7 +6105,7 @@
       </c>
       <c r="C47">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D47">
         <f t="shared" si="2"/>
@@ -6123,7 +6117,7 @@
       </c>
       <c r="F47">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G47">
         <f t="shared" si="3"/>
@@ -6146,7 +6140,7 @@
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -6159,7 +6153,7 @@
       </c>
       <c r="C48">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D48">
         <f t="shared" si="2"/>
@@ -6171,7 +6165,7 @@
       </c>
       <c r="F48">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G48">
         <f t="shared" si="3"/>
@@ -6194,7 +6188,7 @@
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -6207,7 +6201,7 @@
       </c>
       <c r="C49">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D49">
         <f t="shared" ref="D49:D59" si="11">C49-C48</f>
@@ -6219,7 +6213,7 @@
       </c>
       <c r="F49">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G49">
         <f t="shared" ref="G49:G59" si="13">F49-F48</f>
@@ -6242,7 +6236,7 @@
       </c>
       <c r="L49">
         <f t="shared" ref="L49:L59" si="17">C49-F49-I49</f>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -6255,7 +6249,7 @@
       </c>
       <c r="C50">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D50">
         <f t="shared" si="11"/>
@@ -6267,7 +6261,7 @@
       </c>
       <c r="F50">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G50">
         <f t="shared" si="13"/>
@@ -6290,7 +6284,7 @@
       </c>
       <c r="L50">
         <f t="shared" si="17"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -6303,7 +6297,7 @@
       </c>
       <c r="C51">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D51">
         <f t="shared" si="11"/>
@@ -6315,7 +6309,7 @@
       </c>
       <c r="F51">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G51">
         <f t="shared" si="13"/>
@@ -6338,7 +6332,7 @@
       </c>
       <c r="L51">
         <f t="shared" si="17"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -6351,7 +6345,7 @@
       </c>
       <c r="C52">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D52">
         <f t="shared" si="11"/>
@@ -6363,7 +6357,7 @@
       </c>
       <c r="F52">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G52">
         <f t="shared" si="13"/>
@@ -6386,7 +6380,7 @@
       </c>
       <c r="L52">
         <f t="shared" si="17"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -6399,7 +6393,7 @@
       </c>
       <c r="C53">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D53">
         <f t="shared" si="11"/>
@@ -6411,7 +6405,7 @@
       </c>
       <c r="F53">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G53">
         <f t="shared" si="13"/>
@@ -6434,7 +6428,7 @@
       </c>
       <c r="L53">
         <f t="shared" si="17"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -6447,7 +6441,7 @@
       </c>
       <c r="C54">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D54">
         <f t="shared" si="11"/>
@@ -6459,7 +6453,7 @@
       </c>
       <c r="F54">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G54">
         <f t="shared" si="13"/>
@@ -6482,7 +6476,7 @@
       </c>
       <c r="L54">
         <f t="shared" si="17"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -6495,7 +6489,7 @@
       </c>
       <c r="C55">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D55">
         <f t="shared" si="11"/>
@@ -6507,7 +6501,7 @@
       </c>
       <c r="F55">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G55">
         <f t="shared" si="13"/>
@@ -6530,7 +6524,7 @@
       </c>
       <c r="L55">
         <f t="shared" si="17"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -6543,7 +6537,7 @@
       </c>
       <c r="C56">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D56">
         <f t="shared" si="11"/>
@@ -6555,7 +6549,7 @@
       </c>
       <c r="F56">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G56">
         <f t="shared" si="13"/>
@@ -6578,7 +6572,7 @@
       </c>
       <c r="L56">
         <f t="shared" si="17"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -6591,7 +6585,7 @@
       </c>
       <c r="C57">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D57">
         <f t="shared" si="11"/>
@@ -6603,7 +6597,7 @@
       </c>
       <c r="F57">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G57">
         <f t="shared" si="13"/>
@@ -6626,7 +6620,7 @@
       </c>
       <c r="L57">
         <f t="shared" si="17"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -6639,7 +6633,7 @@
       </c>
       <c r="C58">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D58">
         <f t="shared" si="11"/>
@@ -6651,7 +6645,7 @@
       </c>
       <c r="F58">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G58">
         <f t="shared" si="13"/>
@@ -6674,7 +6668,7 @@
       </c>
       <c r="L58">
         <f t="shared" si="17"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -6687,7 +6681,7 @@
       </c>
       <c r="C59">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D59">
         <f t="shared" si="11"/>
@@ -6699,7 +6693,7 @@
       </c>
       <c r="F59">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G59">
         <f t="shared" si="13"/>
@@ -6722,7 +6716,7 @@
       </c>
       <c r="L59">
         <f t="shared" si="17"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -6735,7 +6729,7 @@
       </c>
       <c r="C60">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D60">
         <f t="shared" ref="D60:D123" si="19">C60-C59</f>
@@ -6747,7 +6741,7 @@
       </c>
       <c r="F60">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G60">
         <f t="shared" ref="G60:G123" si="21">F60-F59</f>
@@ -6770,7 +6764,7 @@
       </c>
       <c r="L60">
         <f t="shared" ref="L60:L123" si="25">C60-F60-I60</f>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -6783,7 +6777,7 @@
       </c>
       <c r="C61">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D61">
         <f t="shared" si="19"/>
@@ -6795,7 +6789,7 @@
       </c>
       <c r="F61">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G61">
         <f t="shared" si="21"/>
@@ -6818,7 +6812,7 @@
       </c>
       <c r="L61">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -6831,7 +6825,7 @@
       </c>
       <c r="C62">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D62">
         <f t="shared" si="19"/>
@@ -6843,7 +6837,7 @@
       </c>
       <c r="F62">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G62">
         <f t="shared" si="21"/>
@@ -6866,7 +6860,7 @@
       </c>
       <c r="L62">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -6879,7 +6873,7 @@
       </c>
       <c r="C63">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D63">
         <f t="shared" si="19"/>
@@ -6891,7 +6885,7 @@
       </c>
       <c r="F63">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G63">
         <f t="shared" si="21"/>
@@ -6914,7 +6908,7 @@
       </c>
       <c r="L63">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -6927,7 +6921,7 @@
       </c>
       <c r="C64">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D64">
         <f t="shared" si="19"/>
@@ -6939,7 +6933,7 @@
       </c>
       <c r="F64">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G64">
         <f t="shared" si="21"/>
@@ -6962,7 +6956,7 @@
       </c>
       <c r="L64">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -6975,7 +6969,7 @@
       </c>
       <c r="C65">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D65">
         <f t="shared" si="19"/>
@@ -6987,7 +6981,7 @@
       </c>
       <c r="F65">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G65">
         <f t="shared" si="21"/>
@@ -7010,7 +7004,7 @@
       </c>
       <c r="L65">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -7023,7 +7017,7 @@
       </c>
       <c r="C66">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D66">
         <f t="shared" si="19"/>
@@ -7035,7 +7029,7 @@
       </c>
       <c r="F66">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G66">
         <f t="shared" si="21"/>
@@ -7058,7 +7052,7 @@
       </c>
       <c r="L66">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -7071,7 +7065,7 @@
       </c>
       <c r="C67">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D67">
         <f t="shared" si="19"/>
@@ -7083,7 +7077,7 @@
       </c>
       <c r="F67">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G67">
         <f t="shared" si="21"/>
@@ -7106,7 +7100,7 @@
       </c>
       <c r="L67">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -7119,7 +7113,7 @@
       </c>
       <c r="C68">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D68">
         <f t="shared" si="19"/>
@@ -7131,7 +7125,7 @@
       </c>
       <c r="F68">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G68">
         <f t="shared" si="21"/>
@@ -7154,7 +7148,7 @@
       </c>
       <c r="L68">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -7167,7 +7161,7 @@
       </c>
       <c r="C69">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D69">
         <f t="shared" si="19"/>
@@ -7179,7 +7173,7 @@
       </c>
       <c r="F69">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G69">
         <f t="shared" si="21"/>
@@ -7202,7 +7196,7 @@
       </c>
       <c r="L69">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -7215,7 +7209,7 @@
       </c>
       <c r="C70">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D70">
         <f t="shared" si="19"/>
@@ -7227,7 +7221,7 @@
       </c>
       <c r="F70">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G70">
         <f t="shared" si="21"/>
@@ -7250,7 +7244,7 @@
       </c>
       <c r="L70">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -7263,7 +7257,7 @@
       </c>
       <c r="C71">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D71">
         <f t="shared" si="19"/>
@@ -7275,7 +7269,7 @@
       </c>
       <c r="F71">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G71">
         <f t="shared" si="21"/>
@@ -7298,7 +7292,7 @@
       </c>
       <c r="L71">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -7311,7 +7305,7 @@
       </c>
       <c r="C72">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D72">
         <f t="shared" si="19"/>
@@ -7323,7 +7317,7 @@
       </c>
       <c r="F72">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G72">
         <f t="shared" si="21"/>
@@ -7346,7 +7340,7 @@
       </c>
       <c r="L72">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -7359,7 +7353,7 @@
       </c>
       <c r="C73">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D73">
         <f t="shared" si="19"/>
@@ -7371,7 +7365,7 @@
       </c>
       <c r="F73">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G73">
         <f t="shared" si="21"/>
@@ -7394,7 +7388,7 @@
       </c>
       <c r="L73">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -7407,7 +7401,7 @@
       </c>
       <c r="C74">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D74">
         <f t="shared" si="19"/>
@@ -7419,7 +7413,7 @@
       </c>
       <c r="F74">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G74">
         <f t="shared" si="21"/>
@@ -7442,7 +7436,7 @@
       </c>
       <c r="L74">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -7455,7 +7449,7 @@
       </c>
       <c r="C75">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D75">
         <f t="shared" si="19"/>
@@ -7467,7 +7461,7 @@
       </c>
       <c r="F75">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G75">
         <f t="shared" si="21"/>
@@ -7490,7 +7484,7 @@
       </c>
       <c r="L75">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -7503,7 +7497,7 @@
       </c>
       <c r="C76">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D76">
         <f t="shared" si="19"/>
@@ -7515,7 +7509,7 @@
       </c>
       <c r="F76">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G76">
         <f t="shared" si="21"/>
@@ -7538,7 +7532,7 @@
       </c>
       <c r="L76">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -7551,7 +7545,7 @@
       </c>
       <c r="C77">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D77">
         <f t="shared" si="19"/>
@@ -7563,7 +7557,7 @@
       </c>
       <c r="F77">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G77">
         <f t="shared" si="21"/>
@@ -7586,7 +7580,7 @@
       </c>
       <c r="L77">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -7599,7 +7593,7 @@
       </c>
       <c r="C78">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D78">
         <f t="shared" si="19"/>
@@ -7611,7 +7605,7 @@
       </c>
       <c r="F78">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G78">
         <f t="shared" si="21"/>
@@ -7634,7 +7628,7 @@
       </c>
       <c r="L78">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -7647,7 +7641,7 @@
       </c>
       <c r="C79">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D79">
         <f t="shared" si="19"/>
@@ -7659,7 +7653,7 @@
       </c>
       <c r="F79">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G79">
         <f t="shared" si="21"/>
@@ -7682,7 +7676,7 @@
       </c>
       <c r="L79">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -7695,7 +7689,7 @@
       </c>
       <c r="C80">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D80">
         <f t="shared" si="19"/>
@@ -7707,7 +7701,7 @@
       </c>
       <c r="F80">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G80">
         <f t="shared" si="21"/>
@@ -7730,7 +7724,7 @@
       </c>
       <c r="L80">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -7743,7 +7737,7 @@
       </c>
       <c r="C81">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D81">
         <f t="shared" si="19"/>
@@ -7755,7 +7749,7 @@
       </c>
       <c r="F81">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G81">
         <f t="shared" si="21"/>
@@ -7778,7 +7772,7 @@
       </c>
       <c r="L81">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -7791,7 +7785,7 @@
       </c>
       <c r="C82">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D82">
         <f t="shared" si="19"/>
@@ -7803,7 +7797,7 @@
       </c>
       <c r="F82">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G82">
         <f t="shared" si="21"/>
@@ -7826,7 +7820,7 @@
       </c>
       <c r="L82">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -7839,7 +7833,7 @@
       </c>
       <c r="C83">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D83">
         <f t="shared" si="19"/>
@@ -7851,7 +7845,7 @@
       </c>
       <c r="F83">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G83">
         <f t="shared" si="21"/>
@@ -7874,7 +7868,7 @@
       </c>
       <c r="L83">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -7887,7 +7881,7 @@
       </c>
       <c r="C84">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D84">
         <f t="shared" si="19"/>
@@ -7899,7 +7893,7 @@
       </c>
       <c r="F84">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G84">
         <f t="shared" si="21"/>
@@ -7922,7 +7916,7 @@
       </c>
       <c r="L84">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -7935,7 +7929,7 @@
       </c>
       <c r="C85">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D85">
         <f t="shared" si="19"/>
@@ -7947,7 +7941,7 @@
       </c>
       <c r="F85">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G85">
         <f t="shared" si="21"/>
@@ -7970,7 +7964,7 @@
       </c>
       <c r="L85">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -7983,7 +7977,7 @@
       </c>
       <c r="C86">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D86">
         <f t="shared" si="19"/>
@@ -7995,7 +7989,7 @@
       </c>
       <c r="F86">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G86">
         <f t="shared" si="21"/>
@@ -8018,7 +8012,7 @@
       </c>
       <c r="L86">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -8031,7 +8025,7 @@
       </c>
       <c r="C87">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D87">
         <f t="shared" si="19"/>
@@ -8043,7 +8037,7 @@
       </c>
       <c r="F87">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G87">
         <f t="shared" si="21"/>
@@ -8066,7 +8060,7 @@
       </c>
       <c r="L87">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -8079,7 +8073,7 @@
       </c>
       <c r="C88">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D88">
         <f t="shared" si="19"/>
@@ -8091,7 +8085,7 @@
       </c>
       <c r="F88">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G88">
         <f t="shared" si="21"/>
@@ -8114,7 +8108,7 @@
       </c>
       <c r="L88">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -8127,7 +8121,7 @@
       </c>
       <c r="C89">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D89">
         <f t="shared" si="19"/>
@@ -8139,7 +8133,7 @@
       </c>
       <c r="F89">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G89">
         <f t="shared" si="21"/>
@@ -8162,7 +8156,7 @@
       </c>
       <c r="L89">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -8175,7 +8169,7 @@
       </c>
       <c r="C90">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D90">
         <f t="shared" si="19"/>
@@ -8187,7 +8181,7 @@
       </c>
       <c r="F90">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G90">
         <f t="shared" si="21"/>
@@ -8210,7 +8204,7 @@
       </c>
       <c r="L90">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -8223,7 +8217,7 @@
       </c>
       <c r="C91">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D91">
         <f t="shared" si="19"/>
@@ -8235,7 +8229,7 @@
       </c>
       <c r="F91">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G91">
         <f t="shared" si="21"/>
@@ -8258,7 +8252,7 @@
       </c>
       <c r="L91">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -8271,7 +8265,7 @@
       </c>
       <c r="C92">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D92">
         <f t="shared" si="19"/>
@@ -8283,7 +8277,7 @@
       </c>
       <c r="F92">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G92">
         <f t="shared" si="21"/>
@@ -8306,7 +8300,7 @@
       </c>
       <c r="L92">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -8319,7 +8313,7 @@
       </c>
       <c r="C93">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D93">
         <f t="shared" si="19"/>
@@ -8331,7 +8325,7 @@
       </c>
       <c r="F93">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G93">
         <f t="shared" si="21"/>
@@ -8354,7 +8348,7 @@
       </c>
       <c r="L93">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -8367,7 +8361,7 @@
       </c>
       <c r="C94">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D94">
         <f t="shared" si="19"/>
@@ -8379,7 +8373,7 @@
       </c>
       <c r="F94">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G94">
         <f t="shared" si="21"/>
@@ -8402,7 +8396,7 @@
       </c>
       <c r="L94">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -8415,7 +8409,7 @@
       </c>
       <c r="C95">
         <f t="shared" si="8"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D95">
         <f t="shared" si="19"/>
@@ -8427,7 +8421,7 @@
       </c>
       <c r="F95">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G95">
         <f t="shared" si="21"/>
@@ -8450,7 +8444,7 @@
       </c>
       <c r="L95">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -8463,7 +8457,7 @@
       </c>
       <c r="C96">
         <f t="shared" ref="C96:C159" si="26">C95</f>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D96">
         <f t="shared" si="19"/>
@@ -8475,7 +8469,7 @@
       </c>
       <c r="F96">
         <f t="shared" ref="F96:F159" si="27">F95</f>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G96">
         <f t="shared" si="21"/>
@@ -8498,7 +8492,7 @@
       </c>
       <c r="L96">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -8511,7 +8505,7 @@
       </c>
       <c r="C97">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D97">
         <f t="shared" si="19"/>
@@ -8523,7 +8517,7 @@
       </c>
       <c r="F97">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G97">
         <f t="shared" si="21"/>
@@ -8546,7 +8540,7 @@
       </c>
       <c r="L97">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -8559,7 +8553,7 @@
       </c>
       <c r="C98">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D98">
         <f t="shared" si="19"/>
@@ -8571,7 +8565,7 @@
       </c>
       <c r="F98">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G98">
         <f t="shared" si="21"/>
@@ -8594,7 +8588,7 @@
       </c>
       <c r="L98">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -8607,7 +8601,7 @@
       </c>
       <c r="C99">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D99">
         <f t="shared" si="19"/>
@@ -8619,7 +8613,7 @@
       </c>
       <c r="F99">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G99">
         <f t="shared" si="21"/>
@@ -8642,7 +8636,7 @@
       </c>
       <c r="L99">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -8655,7 +8649,7 @@
       </c>
       <c r="C100">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D100">
         <f t="shared" si="19"/>
@@ -8667,7 +8661,7 @@
       </c>
       <c r="F100">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G100">
         <f t="shared" si="21"/>
@@ -8690,7 +8684,7 @@
       </c>
       <c r="L100">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -8703,7 +8697,7 @@
       </c>
       <c r="C101">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D101">
         <f t="shared" si="19"/>
@@ -8715,7 +8709,7 @@
       </c>
       <c r="F101">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G101">
         <f t="shared" si="21"/>
@@ -8738,7 +8732,7 @@
       </c>
       <c r="L101">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -8751,7 +8745,7 @@
       </c>
       <c r="C102">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D102">
         <f t="shared" si="19"/>
@@ -8763,7 +8757,7 @@
       </c>
       <c r="F102">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G102">
         <f t="shared" si="21"/>
@@ -8786,7 +8780,7 @@
       </c>
       <c r="L102">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -8799,7 +8793,7 @@
       </c>
       <c r="C103">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D103">
         <f t="shared" si="19"/>
@@ -8811,7 +8805,7 @@
       </c>
       <c r="F103">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G103">
         <f t="shared" si="21"/>
@@ -8834,7 +8828,7 @@
       </c>
       <c r="L103">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -8847,7 +8841,7 @@
       </c>
       <c r="C104">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D104">
         <f t="shared" si="19"/>
@@ -8859,7 +8853,7 @@
       </c>
       <c r="F104">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G104">
         <f t="shared" si="21"/>
@@ -8882,7 +8876,7 @@
       </c>
       <c r="L104">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -8895,7 +8889,7 @@
       </c>
       <c r="C105">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D105">
         <f t="shared" si="19"/>
@@ -8907,7 +8901,7 @@
       </c>
       <c r="F105">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G105">
         <f t="shared" si="21"/>
@@ -8930,7 +8924,7 @@
       </c>
       <c r="L105">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -8943,7 +8937,7 @@
       </c>
       <c r="C106">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D106">
         <f t="shared" si="19"/>
@@ -8955,7 +8949,7 @@
       </c>
       <c r="F106">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G106">
         <f t="shared" si="21"/>
@@ -8978,7 +8972,7 @@
       </c>
       <c r="L106">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -8991,7 +8985,7 @@
       </c>
       <c r="C107">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D107">
         <f t="shared" si="19"/>
@@ -9003,7 +8997,7 @@
       </c>
       <c r="F107">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G107">
         <f t="shared" si="21"/>
@@ -9026,7 +9020,7 @@
       </c>
       <c r="L107">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -9039,7 +9033,7 @@
       </c>
       <c r="C108">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D108">
         <f t="shared" si="19"/>
@@ -9051,7 +9045,7 @@
       </c>
       <c r="F108">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G108">
         <f t="shared" si="21"/>
@@ -9074,7 +9068,7 @@
       </c>
       <c r="L108">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -9087,7 +9081,7 @@
       </c>
       <c r="C109">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D109">
         <f t="shared" si="19"/>
@@ -9099,7 +9093,7 @@
       </c>
       <c r="F109">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G109">
         <f t="shared" si="21"/>
@@ -9122,7 +9116,7 @@
       </c>
       <c r="L109">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -9135,7 +9129,7 @@
       </c>
       <c r="C110">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D110">
         <f t="shared" si="19"/>
@@ -9147,7 +9141,7 @@
       </c>
       <c r="F110">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G110">
         <f t="shared" si="21"/>
@@ -9170,7 +9164,7 @@
       </c>
       <c r="L110">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -9183,7 +9177,7 @@
       </c>
       <c r="C111">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D111">
         <f t="shared" si="19"/>
@@ -9195,7 +9189,7 @@
       </c>
       <c r="F111">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G111">
         <f t="shared" si="21"/>
@@ -9218,7 +9212,7 @@
       </c>
       <c r="L111">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -9231,7 +9225,7 @@
       </c>
       <c r="C112">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D112">
         <f t="shared" si="19"/>
@@ -9243,7 +9237,7 @@
       </c>
       <c r="F112">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G112">
         <f t="shared" si="21"/>
@@ -9266,7 +9260,7 @@
       </c>
       <c r="L112">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -9279,7 +9273,7 @@
       </c>
       <c r="C113">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D113">
         <f t="shared" si="19"/>
@@ -9291,7 +9285,7 @@
       </c>
       <c r="F113">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G113">
         <f t="shared" si="21"/>
@@ -9314,7 +9308,7 @@
       </c>
       <c r="L113">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -9327,7 +9321,7 @@
       </c>
       <c r="C114">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D114">
         <f t="shared" si="19"/>
@@ -9339,7 +9333,7 @@
       </c>
       <c r="F114">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G114">
         <f t="shared" si="21"/>
@@ -9362,7 +9356,7 @@
       </c>
       <c r="L114">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -9375,7 +9369,7 @@
       </c>
       <c r="C115">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D115">
         <f t="shared" si="19"/>
@@ -9387,7 +9381,7 @@
       </c>
       <c r="F115">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G115">
         <f t="shared" si="21"/>
@@ -9410,7 +9404,7 @@
       </c>
       <c r="L115">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -9423,7 +9417,7 @@
       </c>
       <c r="C116">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D116">
         <f t="shared" si="19"/>
@@ -9435,7 +9429,7 @@
       </c>
       <c r="F116">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G116">
         <f t="shared" si="21"/>
@@ -9458,7 +9452,7 @@
       </c>
       <c r="L116">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -9471,7 +9465,7 @@
       </c>
       <c r="C117">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D117">
         <f t="shared" si="19"/>
@@ -9483,7 +9477,7 @@
       </c>
       <c r="F117">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G117">
         <f t="shared" si="21"/>
@@ -9506,7 +9500,7 @@
       </c>
       <c r="L117">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -9519,7 +9513,7 @@
       </c>
       <c r="C118">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D118">
         <f t="shared" si="19"/>
@@ -9531,7 +9525,7 @@
       </c>
       <c r="F118">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G118">
         <f t="shared" si="21"/>
@@ -9554,7 +9548,7 @@
       </c>
       <c r="L118">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -9567,7 +9561,7 @@
       </c>
       <c r="C119">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D119">
         <f t="shared" si="19"/>
@@ -9579,7 +9573,7 @@
       </c>
       <c r="F119">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G119">
         <f t="shared" si="21"/>
@@ -9602,7 +9596,7 @@
       </c>
       <c r="L119">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -9615,7 +9609,7 @@
       </c>
       <c r="C120">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D120">
         <f t="shared" si="19"/>
@@ -9627,7 +9621,7 @@
       </c>
       <c r="F120">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G120">
         <f t="shared" si="21"/>
@@ -9650,7 +9644,7 @@
       </c>
       <c r="L120">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -9663,7 +9657,7 @@
       </c>
       <c r="C121">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D121">
         <f t="shared" si="19"/>
@@ -9675,7 +9669,7 @@
       </c>
       <c r="F121">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G121">
         <f t="shared" si="21"/>
@@ -9698,7 +9692,7 @@
       </c>
       <c r="L121">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -9711,7 +9705,7 @@
       </c>
       <c r="C122">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D122">
         <f t="shared" si="19"/>
@@ -9723,7 +9717,7 @@
       </c>
       <c r="F122">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G122">
         <f t="shared" si="21"/>
@@ -9746,7 +9740,7 @@
       </c>
       <c r="L122">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -9759,7 +9753,7 @@
       </c>
       <c r="C123">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D123">
         <f t="shared" si="19"/>
@@ -9771,7 +9765,7 @@
       </c>
       <c r="F123">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G123">
         <f t="shared" si="21"/>
@@ -9794,7 +9788,7 @@
       </c>
       <c r="L123">
         <f t="shared" si="25"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -9807,7 +9801,7 @@
       </c>
       <c r="C124">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D124">
         <f t="shared" ref="D124:D187" si="29">C124-C123</f>
@@ -9819,7 +9813,7 @@
       </c>
       <c r="F124">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G124">
         <f t="shared" ref="G124:G187" si="31">F124-F123</f>
@@ -9842,7 +9836,7 @@
       </c>
       <c r="L124">
         <f t="shared" ref="L124:L187" si="35">C124-F124-I124</f>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -9855,7 +9849,7 @@
       </c>
       <c r="C125">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D125">
         <f t="shared" si="29"/>
@@ -9867,7 +9861,7 @@
       </c>
       <c r="F125">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G125">
         <f t="shared" si="31"/>
@@ -9890,7 +9884,7 @@
       </c>
       <c r="L125">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -9903,7 +9897,7 @@
       </c>
       <c r="C126">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D126">
         <f t="shared" si="29"/>
@@ -9915,7 +9909,7 @@
       </c>
       <c r="F126">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G126">
         <f t="shared" si="31"/>
@@ -9938,7 +9932,7 @@
       </c>
       <c r="L126">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -9951,7 +9945,7 @@
       </c>
       <c r="C127">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D127">
         <f t="shared" si="29"/>
@@ -9963,7 +9957,7 @@
       </c>
       <c r="F127">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G127">
         <f t="shared" si="31"/>
@@ -9986,7 +9980,7 @@
       </c>
       <c r="L127">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -9999,7 +9993,7 @@
       </c>
       <c r="C128">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D128">
         <f t="shared" si="29"/>
@@ -10011,7 +10005,7 @@
       </c>
       <c r="F128">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G128">
         <f t="shared" si="31"/>
@@ -10034,7 +10028,7 @@
       </c>
       <c r="L128">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
@@ -10047,7 +10041,7 @@
       </c>
       <c r="C129">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D129">
         <f t="shared" si="29"/>
@@ -10059,7 +10053,7 @@
       </c>
       <c r="F129">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G129">
         <f t="shared" si="31"/>
@@ -10082,7 +10076,7 @@
       </c>
       <c r="L129">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
@@ -10095,7 +10089,7 @@
       </c>
       <c r="C130">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D130">
         <f t="shared" si="29"/>
@@ -10107,7 +10101,7 @@
       </c>
       <c r="F130">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G130">
         <f t="shared" si="31"/>
@@ -10130,7 +10124,7 @@
       </c>
       <c r="L130">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
@@ -10143,7 +10137,7 @@
       </c>
       <c r="C131">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D131">
         <f t="shared" si="29"/>
@@ -10155,7 +10149,7 @@
       </c>
       <c r="F131">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G131">
         <f t="shared" si="31"/>
@@ -10178,7 +10172,7 @@
       </c>
       <c r="L131">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
@@ -10191,7 +10185,7 @@
       </c>
       <c r="C132">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D132">
         <f t="shared" si="29"/>
@@ -10203,7 +10197,7 @@
       </c>
       <c r="F132">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G132">
         <f t="shared" si="31"/>
@@ -10226,7 +10220,7 @@
       </c>
       <c r="L132">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
@@ -10239,7 +10233,7 @@
       </c>
       <c r="C133">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D133">
         <f t="shared" si="29"/>
@@ -10251,7 +10245,7 @@
       </c>
       <c r="F133">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G133">
         <f t="shared" si="31"/>
@@ -10274,7 +10268,7 @@
       </c>
       <c r="L133">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
@@ -10287,7 +10281,7 @@
       </c>
       <c r="C134">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D134">
         <f t="shared" si="29"/>
@@ -10299,7 +10293,7 @@
       </c>
       <c r="F134">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G134">
         <f t="shared" si="31"/>
@@ -10322,7 +10316,7 @@
       </c>
       <c r="L134">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
@@ -10335,7 +10329,7 @@
       </c>
       <c r="C135">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D135">
         <f t="shared" si="29"/>
@@ -10347,7 +10341,7 @@
       </c>
       <c r="F135">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G135">
         <f t="shared" si="31"/>
@@ -10370,7 +10364,7 @@
       </c>
       <c r="L135">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
@@ -10383,7 +10377,7 @@
       </c>
       <c r="C136">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D136">
         <f t="shared" si="29"/>
@@ -10395,7 +10389,7 @@
       </c>
       <c r="F136">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G136">
         <f t="shared" si="31"/>
@@ -10418,7 +10412,7 @@
       </c>
       <c r="L136">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
@@ -10431,7 +10425,7 @@
       </c>
       <c r="C137">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D137">
         <f t="shared" si="29"/>
@@ -10443,7 +10437,7 @@
       </c>
       <c r="F137">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G137">
         <f t="shared" si="31"/>
@@ -10466,7 +10460,7 @@
       </c>
       <c r="L137">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
@@ -10479,7 +10473,7 @@
       </c>
       <c r="C138">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D138">
         <f t="shared" si="29"/>
@@ -10491,7 +10485,7 @@
       </c>
       <c r="F138">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G138">
         <f t="shared" si="31"/>
@@ -10514,7 +10508,7 @@
       </c>
       <c r="L138">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
@@ -10527,7 +10521,7 @@
       </c>
       <c r="C139">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D139">
         <f t="shared" si="29"/>
@@ -10539,7 +10533,7 @@
       </c>
       <c r="F139">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G139">
         <f t="shared" si="31"/>
@@ -10562,7 +10556,7 @@
       </c>
       <c r="L139">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
@@ -10575,7 +10569,7 @@
       </c>
       <c r="C140">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D140">
         <f t="shared" si="29"/>
@@ -10587,7 +10581,7 @@
       </c>
       <c r="F140">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G140">
         <f t="shared" si="31"/>
@@ -10610,7 +10604,7 @@
       </c>
       <c r="L140">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
@@ -10623,7 +10617,7 @@
       </c>
       <c r="C141">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D141">
         <f t="shared" si="29"/>
@@ -10635,7 +10629,7 @@
       </c>
       <c r="F141">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G141">
         <f t="shared" si="31"/>
@@ -10658,7 +10652,7 @@
       </c>
       <c r="L141">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
@@ -10671,7 +10665,7 @@
       </c>
       <c r="C142">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D142">
         <f t="shared" si="29"/>
@@ -10683,7 +10677,7 @@
       </c>
       <c r="F142">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G142">
         <f t="shared" si="31"/>
@@ -10706,7 +10700,7 @@
       </c>
       <c r="L142">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
@@ -10719,7 +10713,7 @@
       </c>
       <c r="C143">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D143">
         <f t="shared" si="29"/>
@@ -10731,7 +10725,7 @@
       </c>
       <c r="F143">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G143">
         <f t="shared" si="31"/>
@@ -10754,7 +10748,7 @@
       </c>
       <c r="L143">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
@@ -10767,7 +10761,7 @@
       </c>
       <c r="C144">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D144">
         <f t="shared" si="29"/>
@@ -10779,7 +10773,7 @@
       </c>
       <c r="F144">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G144">
         <f t="shared" si="31"/>
@@ -10802,7 +10796,7 @@
       </c>
       <c r="L144">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -10815,7 +10809,7 @@
       </c>
       <c r="C145">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D145">
         <f t="shared" si="29"/>
@@ -10827,7 +10821,7 @@
       </c>
       <c r="F145">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G145">
         <f t="shared" si="31"/>
@@ -10850,7 +10844,7 @@
       </c>
       <c r="L145">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -10863,7 +10857,7 @@
       </c>
       <c r="C146">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D146">
         <f t="shared" si="29"/>
@@ -10875,7 +10869,7 @@
       </c>
       <c r="F146">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G146">
         <f t="shared" si="31"/>
@@ -10898,7 +10892,7 @@
       </c>
       <c r="L146">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
@@ -10911,7 +10905,7 @@
       </c>
       <c r="C147">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D147">
         <f t="shared" si="29"/>
@@ -10923,7 +10917,7 @@
       </c>
       <c r="F147">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G147">
         <f t="shared" si="31"/>
@@ -10946,7 +10940,7 @@
       </c>
       <c r="L147">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
@@ -10959,7 +10953,7 @@
       </c>
       <c r="C148">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D148">
         <f t="shared" si="29"/>
@@ -10971,7 +10965,7 @@
       </c>
       <c r="F148">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G148">
         <f t="shared" si="31"/>
@@ -10994,7 +10988,7 @@
       </c>
       <c r="L148">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
@@ -11007,7 +11001,7 @@
       </c>
       <c r="C149">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D149">
         <f t="shared" si="29"/>
@@ -11019,7 +11013,7 @@
       </c>
       <c r="F149">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G149">
         <f t="shared" si="31"/>
@@ -11042,7 +11036,7 @@
       </c>
       <c r="L149">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
@@ -11055,7 +11049,7 @@
       </c>
       <c r="C150">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D150">
         <f t="shared" si="29"/>
@@ -11067,7 +11061,7 @@
       </c>
       <c r="F150">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G150">
         <f t="shared" si="31"/>
@@ -11090,7 +11084,7 @@
       </c>
       <c r="L150">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
@@ -11103,7 +11097,7 @@
       </c>
       <c r="C151">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D151">
         <f t="shared" si="29"/>
@@ -11115,7 +11109,7 @@
       </c>
       <c r="F151">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G151">
         <f t="shared" si="31"/>
@@ -11138,7 +11132,7 @@
       </c>
       <c r="L151">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
@@ -11151,7 +11145,7 @@
       </c>
       <c r="C152">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D152">
         <f t="shared" si="29"/>
@@ -11163,7 +11157,7 @@
       </c>
       <c r="F152">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G152">
         <f t="shared" si="31"/>
@@ -11186,7 +11180,7 @@
       </c>
       <c r="L152">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
@@ -11199,7 +11193,7 @@
       </c>
       <c r="C153">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D153">
         <f t="shared" si="29"/>
@@ -11211,7 +11205,7 @@
       </c>
       <c r="F153">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G153">
         <f t="shared" si="31"/>
@@ -11234,7 +11228,7 @@
       </c>
       <c r="L153">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
@@ -11247,7 +11241,7 @@
       </c>
       <c r="C154">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D154">
         <f t="shared" si="29"/>
@@ -11259,7 +11253,7 @@
       </c>
       <c r="F154">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G154">
         <f t="shared" si="31"/>
@@ -11282,7 +11276,7 @@
       </c>
       <c r="L154">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
@@ -11295,7 +11289,7 @@
       </c>
       <c r="C155">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D155">
         <f t="shared" si="29"/>
@@ -11307,7 +11301,7 @@
       </c>
       <c r="F155">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G155">
         <f t="shared" si="31"/>
@@ -11330,7 +11324,7 @@
       </c>
       <c r="L155">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -11343,7 +11337,7 @@
       </c>
       <c r="C156">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D156">
         <f t="shared" si="29"/>
@@ -11355,7 +11349,7 @@
       </c>
       <c r="F156">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G156">
         <f t="shared" si="31"/>
@@ -11378,7 +11372,7 @@
       </c>
       <c r="L156">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
@@ -11391,7 +11385,7 @@
       </c>
       <c r="C157">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D157">
         <f t="shared" si="29"/>
@@ -11403,7 +11397,7 @@
       </c>
       <c r="F157">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G157">
         <f t="shared" si="31"/>
@@ -11426,7 +11420,7 @@
       </c>
       <c r="L157">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
@@ -11439,7 +11433,7 @@
       </c>
       <c r="C158">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D158">
         <f t="shared" si="29"/>
@@ -11451,7 +11445,7 @@
       </c>
       <c r="F158">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G158">
         <f t="shared" si="31"/>
@@ -11474,7 +11468,7 @@
       </c>
       <c r="L158">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
@@ -11487,7 +11481,7 @@
       </c>
       <c r="C159">
         <f t="shared" si="26"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D159">
         <f t="shared" si="29"/>
@@ -11499,7 +11493,7 @@
       </c>
       <c r="F159">
         <f t="shared" si="27"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G159">
         <f t="shared" si="31"/>
@@ -11522,7 +11516,7 @@
       </c>
       <c r="L159">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
@@ -11535,7 +11529,7 @@
       </c>
       <c r="C160">
         <f t="shared" ref="C160:C223" si="36">C159</f>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D160">
         <f t="shared" si="29"/>
@@ -11547,7 +11541,7 @@
       </c>
       <c r="F160">
         <f t="shared" ref="F160:F223" si="37">F159</f>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G160">
         <f t="shared" si="31"/>
@@ -11570,7 +11564,7 @@
       </c>
       <c r="L160">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
@@ -11583,7 +11577,7 @@
       </c>
       <c r="C161">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D161">
         <f t="shared" si="29"/>
@@ -11595,7 +11589,7 @@
       </c>
       <c r="F161">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G161">
         <f t="shared" si="31"/>
@@ -11618,7 +11612,7 @@
       </c>
       <c r="L161">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
@@ -11631,7 +11625,7 @@
       </c>
       <c r="C162">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D162">
         <f t="shared" si="29"/>
@@ -11643,7 +11637,7 @@
       </c>
       <c r="F162">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G162">
         <f t="shared" si="31"/>
@@ -11666,7 +11660,7 @@
       </c>
       <c r="L162">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
@@ -11679,7 +11673,7 @@
       </c>
       <c r="C163">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D163">
         <f t="shared" si="29"/>
@@ -11691,7 +11685,7 @@
       </c>
       <c r="F163">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G163">
         <f t="shared" si="31"/>
@@ -11714,7 +11708,7 @@
       </c>
       <c r="L163">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
@@ -11727,7 +11721,7 @@
       </c>
       <c r="C164">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D164">
         <f t="shared" si="29"/>
@@ -11739,7 +11733,7 @@
       </c>
       <c r="F164">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G164">
         <f t="shared" si="31"/>
@@ -11762,7 +11756,7 @@
       </c>
       <c r="L164">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
@@ -11775,7 +11769,7 @@
       </c>
       <c r="C165">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D165">
         <f t="shared" si="29"/>
@@ -11787,7 +11781,7 @@
       </c>
       <c r="F165">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G165">
         <f t="shared" si="31"/>
@@ -11810,7 +11804,7 @@
       </c>
       <c r="L165">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
@@ -11823,7 +11817,7 @@
       </c>
       <c r="C166">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D166">
         <f t="shared" si="29"/>
@@ -11835,7 +11829,7 @@
       </c>
       <c r="F166">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G166">
         <f t="shared" si="31"/>
@@ -11858,7 +11852,7 @@
       </c>
       <c r="L166">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
@@ -11871,7 +11865,7 @@
       </c>
       <c r="C167">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D167">
         <f t="shared" si="29"/>
@@ -11883,7 +11877,7 @@
       </c>
       <c r="F167">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G167">
         <f t="shared" si="31"/>
@@ -11906,7 +11900,7 @@
       </c>
       <c r="L167">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
@@ -11919,7 +11913,7 @@
       </c>
       <c r="C168">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D168">
         <f t="shared" si="29"/>
@@ -11931,7 +11925,7 @@
       </c>
       <c r="F168">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G168">
         <f t="shared" si="31"/>
@@ -11954,7 +11948,7 @@
       </c>
       <c r="L168">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
@@ -11967,7 +11961,7 @@
       </c>
       <c r="C169">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D169">
         <f t="shared" si="29"/>
@@ -11979,7 +11973,7 @@
       </c>
       <c r="F169">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G169">
         <f t="shared" si="31"/>
@@ -12002,7 +11996,7 @@
       </c>
       <c r="L169">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
@@ -12015,7 +12009,7 @@
       </c>
       <c r="C170">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D170">
         <f t="shared" si="29"/>
@@ -12027,7 +12021,7 @@
       </c>
       <c r="F170">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G170">
         <f t="shared" si="31"/>
@@ -12050,7 +12044,7 @@
       </c>
       <c r="L170">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
@@ -12063,7 +12057,7 @@
       </c>
       <c r="C171">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D171">
         <f t="shared" si="29"/>
@@ -12075,7 +12069,7 @@
       </c>
       <c r="F171">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G171">
         <f t="shared" si="31"/>
@@ -12098,7 +12092,7 @@
       </c>
       <c r="L171">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
@@ -12111,7 +12105,7 @@
       </c>
       <c r="C172">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D172">
         <f t="shared" si="29"/>
@@ -12123,7 +12117,7 @@
       </c>
       <c r="F172">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G172">
         <f t="shared" si="31"/>
@@ -12146,7 +12140,7 @@
       </c>
       <c r="L172">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
@@ -12159,7 +12153,7 @@
       </c>
       <c r="C173">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D173">
         <f t="shared" si="29"/>
@@ -12171,7 +12165,7 @@
       </c>
       <c r="F173">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G173">
         <f t="shared" si="31"/>
@@ -12194,7 +12188,7 @@
       </c>
       <c r="L173">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
@@ -12207,7 +12201,7 @@
       </c>
       <c r="C174">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D174">
         <f t="shared" si="29"/>
@@ -12219,7 +12213,7 @@
       </c>
       <c r="F174">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G174">
         <f t="shared" si="31"/>
@@ -12242,7 +12236,7 @@
       </c>
       <c r="L174">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
@@ -12255,7 +12249,7 @@
       </c>
       <c r="C175">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D175">
         <f t="shared" si="29"/>
@@ -12267,7 +12261,7 @@
       </c>
       <c r="F175">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G175">
         <f t="shared" si="31"/>
@@ -12290,7 +12284,7 @@
       </c>
       <c r="L175">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
@@ -12303,7 +12297,7 @@
       </c>
       <c r="C176">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D176">
         <f t="shared" si="29"/>
@@ -12315,7 +12309,7 @@
       </c>
       <c r="F176">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G176">
         <f t="shared" si="31"/>
@@ -12338,7 +12332,7 @@
       </c>
       <c r="L176">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
@@ -12351,7 +12345,7 @@
       </c>
       <c r="C177">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D177">
         <f t="shared" si="29"/>
@@ -12363,7 +12357,7 @@
       </c>
       <c r="F177">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G177">
         <f t="shared" si="31"/>
@@ -12386,7 +12380,7 @@
       </c>
       <c r="L177">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
@@ -12399,7 +12393,7 @@
       </c>
       <c r="C178">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D178">
         <f t="shared" si="29"/>
@@ -12411,7 +12405,7 @@
       </c>
       <c r="F178">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G178">
         <f t="shared" si="31"/>
@@ -12434,7 +12428,7 @@
       </c>
       <c r="L178">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
@@ -12447,7 +12441,7 @@
       </c>
       <c r="C179">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D179">
         <f t="shared" si="29"/>
@@ -12459,7 +12453,7 @@
       </c>
       <c r="F179">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G179">
         <f t="shared" si="31"/>
@@ -12482,7 +12476,7 @@
       </c>
       <c r="L179">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
@@ -12495,7 +12489,7 @@
       </c>
       <c r="C180">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D180">
         <f t="shared" si="29"/>
@@ -12507,7 +12501,7 @@
       </c>
       <c r="F180">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G180">
         <f t="shared" si="31"/>
@@ -12530,7 +12524,7 @@
       </c>
       <c r="L180">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
@@ -12543,7 +12537,7 @@
       </c>
       <c r="C181">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D181">
         <f t="shared" si="29"/>
@@ -12555,7 +12549,7 @@
       </c>
       <c r="F181">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G181">
         <f t="shared" si="31"/>
@@ -12578,7 +12572,7 @@
       </c>
       <c r="L181">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
@@ -12591,7 +12585,7 @@
       </c>
       <c r="C182">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D182">
         <f t="shared" si="29"/>
@@ -12603,7 +12597,7 @@
       </c>
       <c r="F182">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G182">
         <f t="shared" si="31"/>
@@ -12626,7 +12620,7 @@
       </c>
       <c r="L182">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
@@ -12639,7 +12633,7 @@
       </c>
       <c r="C183">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D183">
         <f t="shared" si="29"/>
@@ -12651,7 +12645,7 @@
       </c>
       <c r="F183">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G183">
         <f t="shared" si="31"/>
@@ -12674,7 +12668,7 @@
       </c>
       <c r="L183">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
@@ -12687,7 +12681,7 @@
       </c>
       <c r="C184">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D184">
         <f t="shared" si="29"/>
@@ -12699,7 +12693,7 @@
       </c>
       <c r="F184">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G184">
         <f t="shared" si="31"/>
@@ -12722,7 +12716,7 @@
       </c>
       <c r="L184">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
@@ -12735,7 +12729,7 @@
       </c>
       <c r="C185">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D185">
         <f t="shared" si="29"/>
@@ -12747,7 +12741,7 @@
       </c>
       <c r="F185">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G185">
         <f t="shared" si="31"/>
@@ -12770,7 +12764,7 @@
       </c>
       <c r="L185">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
@@ -12783,7 +12777,7 @@
       </c>
       <c r="C186">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D186">
         <f t="shared" si="29"/>
@@ -12795,7 +12789,7 @@
       </c>
       <c r="F186">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G186">
         <f t="shared" si="31"/>
@@ -12818,7 +12812,7 @@
       </c>
       <c r="L186">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
@@ -12831,7 +12825,7 @@
       </c>
       <c r="C187">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D187">
         <f t="shared" si="29"/>
@@ -12843,7 +12837,7 @@
       </c>
       <c r="F187">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G187">
         <f t="shared" si="31"/>
@@ -12866,7 +12860,7 @@
       </c>
       <c r="L187">
         <f t="shared" si="35"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
@@ -12879,7 +12873,7 @@
       </c>
       <c r="C188">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D188">
         <f t="shared" ref="D188:D251" si="39">C188-C187</f>
@@ -12891,7 +12885,7 @@
       </c>
       <c r="F188">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G188">
         <f t="shared" ref="G188:G251" si="41">F188-F187</f>
@@ -12914,7 +12908,7 @@
       </c>
       <c r="L188">
         <f t="shared" ref="L188:L251" si="45">C188-F188-I188</f>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
@@ -12927,7 +12921,7 @@
       </c>
       <c r="C189">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D189">
         <f t="shared" si="39"/>
@@ -12939,7 +12933,7 @@
       </c>
       <c r="F189">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G189">
         <f t="shared" si="41"/>
@@ -12962,7 +12956,7 @@
       </c>
       <c r="L189">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
@@ -12975,7 +12969,7 @@
       </c>
       <c r="C190">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D190">
         <f t="shared" si="39"/>
@@ -12987,7 +12981,7 @@
       </c>
       <c r="F190">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G190">
         <f t="shared" si="41"/>
@@ -13010,7 +13004,7 @@
       </c>
       <c r="L190">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
@@ -13023,7 +13017,7 @@
       </c>
       <c r="C191">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D191">
         <f t="shared" si="39"/>
@@ -13035,7 +13029,7 @@
       </c>
       <c r="F191">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G191">
         <f t="shared" si="41"/>
@@ -13058,7 +13052,7 @@
       </c>
       <c r="L191">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
@@ -13071,7 +13065,7 @@
       </c>
       <c r="C192">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D192">
         <f t="shared" si="39"/>
@@ -13083,7 +13077,7 @@
       </c>
       <c r="F192">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G192">
         <f t="shared" si="41"/>
@@ -13106,7 +13100,7 @@
       </c>
       <c r="L192">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
@@ -13119,7 +13113,7 @@
       </c>
       <c r="C193">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D193">
         <f t="shared" si="39"/>
@@ -13131,7 +13125,7 @@
       </c>
       <c r="F193">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G193">
         <f t="shared" si="41"/>
@@ -13154,7 +13148,7 @@
       </c>
       <c r="L193">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
@@ -13167,7 +13161,7 @@
       </c>
       <c r="C194">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D194">
         <f t="shared" si="39"/>
@@ -13179,7 +13173,7 @@
       </c>
       <c r="F194">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G194">
         <f t="shared" si="41"/>
@@ -13202,7 +13196,7 @@
       </c>
       <c r="L194">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
@@ -13215,7 +13209,7 @@
       </c>
       <c r="C195">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D195">
         <f t="shared" si="39"/>
@@ -13227,7 +13221,7 @@
       </c>
       <c r="F195">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G195">
         <f t="shared" si="41"/>
@@ -13250,7 +13244,7 @@
       </c>
       <c r="L195">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
@@ -13263,7 +13257,7 @@
       </c>
       <c r="C196">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D196">
         <f t="shared" si="39"/>
@@ -13275,7 +13269,7 @@
       </c>
       <c r="F196">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G196">
         <f t="shared" si="41"/>
@@ -13298,7 +13292,7 @@
       </c>
       <c r="L196">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
@@ -13311,7 +13305,7 @@
       </c>
       <c r="C197">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D197">
         <f t="shared" si="39"/>
@@ -13323,7 +13317,7 @@
       </c>
       <c r="F197">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G197">
         <f t="shared" si="41"/>
@@ -13346,7 +13340,7 @@
       </c>
       <c r="L197">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
@@ -13359,7 +13353,7 @@
       </c>
       <c r="C198">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D198">
         <f t="shared" si="39"/>
@@ -13371,7 +13365,7 @@
       </c>
       <c r="F198">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G198">
         <f t="shared" si="41"/>
@@ -13394,7 +13388,7 @@
       </c>
       <c r="L198">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
@@ -13407,7 +13401,7 @@
       </c>
       <c r="C199">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D199">
         <f t="shared" si="39"/>
@@ -13419,7 +13413,7 @@
       </c>
       <c r="F199">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G199">
         <f t="shared" si="41"/>
@@ -13442,7 +13436,7 @@
       </c>
       <c r="L199">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
@@ -13455,7 +13449,7 @@
       </c>
       <c r="C200">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D200">
         <f t="shared" si="39"/>
@@ -13467,7 +13461,7 @@
       </c>
       <c r="F200">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G200">
         <f t="shared" si="41"/>
@@ -13490,7 +13484,7 @@
       </c>
       <c r="L200">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
@@ -13503,7 +13497,7 @@
       </c>
       <c r="C201">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D201">
         <f t="shared" si="39"/>
@@ -13515,7 +13509,7 @@
       </c>
       <c r="F201">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G201">
         <f t="shared" si="41"/>
@@ -13538,7 +13532,7 @@
       </c>
       <c r="L201">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
@@ -13551,7 +13545,7 @@
       </c>
       <c r="C202">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D202">
         <f t="shared" si="39"/>
@@ -13563,7 +13557,7 @@
       </c>
       <c r="F202">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G202">
         <f t="shared" si="41"/>
@@ -13586,7 +13580,7 @@
       </c>
       <c r="L202">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
@@ -13599,7 +13593,7 @@
       </c>
       <c r="C203">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D203">
         <f t="shared" si="39"/>
@@ -13611,7 +13605,7 @@
       </c>
       <c r="F203">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G203">
         <f t="shared" si="41"/>
@@ -13634,7 +13628,7 @@
       </c>
       <c r="L203">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.3">
@@ -13647,7 +13641,7 @@
       </c>
       <c r="C204">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D204">
         <f t="shared" si="39"/>
@@ -13659,7 +13653,7 @@
       </c>
       <c r="F204">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G204">
         <f t="shared" si="41"/>
@@ -13682,7 +13676,7 @@
       </c>
       <c r="L204">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
@@ -13695,7 +13689,7 @@
       </c>
       <c r="C205">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D205">
         <f t="shared" si="39"/>
@@ -13707,7 +13701,7 @@
       </c>
       <c r="F205">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G205">
         <f t="shared" si="41"/>
@@ -13730,7 +13724,7 @@
       </c>
       <c r="L205">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
@@ -13743,7 +13737,7 @@
       </c>
       <c r="C206">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D206">
         <f t="shared" si="39"/>
@@ -13755,7 +13749,7 @@
       </c>
       <c r="F206">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G206">
         <f t="shared" si="41"/>
@@ -13778,7 +13772,7 @@
       </c>
       <c r="L206">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.3">
@@ -13791,7 +13785,7 @@
       </c>
       <c r="C207">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D207">
         <f t="shared" si="39"/>
@@ -13803,7 +13797,7 @@
       </c>
       <c r="F207">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G207">
         <f t="shared" si="41"/>
@@ -13826,7 +13820,7 @@
       </c>
       <c r="L207">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
@@ -13839,7 +13833,7 @@
       </c>
       <c r="C208">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D208">
         <f t="shared" si="39"/>
@@ -13851,7 +13845,7 @@
       </c>
       <c r="F208">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G208">
         <f t="shared" si="41"/>
@@ -13874,7 +13868,7 @@
       </c>
       <c r="L208">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.3">
@@ -13887,7 +13881,7 @@
       </c>
       <c r="C209">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D209">
         <f t="shared" si="39"/>
@@ -13899,7 +13893,7 @@
       </c>
       <c r="F209">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G209">
         <f t="shared" si="41"/>
@@ -13922,7 +13916,7 @@
       </c>
       <c r="L209">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.3">
@@ -13935,7 +13929,7 @@
       </c>
       <c r="C210">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D210">
         <f t="shared" si="39"/>
@@ -13947,7 +13941,7 @@
       </c>
       <c r="F210">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G210">
         <f t="shared" si="41"/>
@@ -13970,7 +13964,7 @@
       </c>
       <c r="L210">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.3">
@@ -13983,7 +13977,7 @@
       </c>
       <c r="C211">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D211">
         <f t="shared" si="39"/>
@@ -13995,7 +13989,7 @@
       </c>
       <c r="F211">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G211">
         <f t="shared" si="41"/>
@@ -14018,7 +14012,7 @@
       </c>
       <c r="L211">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.3">
@@ -14031,7 +14025,7 @@
       </c>
       <c r="C212">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D212">
         <f t="shared" si="39"/>
@@ -14043,7 +14037,7 @@
       </c>
       <c r="F212">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G212">
         <f t="shared" si="41"/>
@@ -14066,7 +14060,7 @@
       </c>
       <c r="L212">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.3">
@@ -14079,7 +14073,7 @@
       </c>
       <c r="C213">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D213">
         <f t="shared" si="39"/>
@@ -14091,7 +14085,7 @@
       </c>
       <c r="F213">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G213">
         <f t="shared" si="41"/>
@@ -14114,7 +14108,7 @@
       </c>
       <c r="L213">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.3">
@@ -14127,7 +14121,7 @@
       </c>
       <c r="C214">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D214">
         <f t="shared" si="39"/>
@@ -14139,7 +14133,7 @@
       </c>
       <c r="F214">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G214">
         <f t="shared" si="41"/>
@@ -14162,7 +14156,7 @@
       </c>
       <c r="L214">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.3">
@@ -14175,7 +14169,7 @@
       </c>
       <c r="C215">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D215">
         <f t="shared" si="39"/>
@@ -14187,7 +14181,7 @@
       </c>
       <c r="F215">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G215">
         <f t="shared" si="41"/>
@@ -14210,7 +14204,7 @@
       </c>
       <c r="L215">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.3">
@@ -14223,7 +14217,7 @@
       </c>
       <c r="C216">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D216">
         <f t="shared" si="39"/>
@@ -14235,7 +14229,7 @@
       </c>
       <c r="F216">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G216">
         <f t="shared" si="41"/>
@@ -14258,7 +14252,7 @@
       </c>
       <c r="L216">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.3">
@@ -14271,7 +14265,7 @@
       </c>
       <c r="C217">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D217">
         <f t="shared" si="39"/>
@@ -14283,7 +14277,7 @@
       </c>
       <c r="F217">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G217">
         <f t="shared" si="41"/>
@@ -14306,7 +14300,7 @@
       </c>
       <c r="L217">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.3">
@@ -14319,7 +14313,7 @@
       </c>
       <c r="C218">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D218">
         <f t="shared" si="39"/>
@@ -14331,7 +14325,7 @@
       </c>
       <c r="F218">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G218">
         <f t="shared" si="41"/>
@@ -14354,7 +14348,7 @@
       </c>
       <c r="L218">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.3">
@@ -14367,7 +14361,7 @@
       </c>
       <c r="C219">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D219">
         <f t="shared" si="39"/>
@@ -14379,7 +14373,7 @@
       </c>
       <c r="F219">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G219">
         <f t="shared" si="41"/>
@@ -14402,7 +14396,7 @@
       </c>
       <c r="L219">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.3">
@@ -14415,7 +14409,7 @@
       </c>
       <c r="C220">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D220">
         <f t="shared" si="39"/>
@@ -14427,7 +14421,7 @@
       </c>
       <c r="F220">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G220">
         <f t="shared" si="41"/>
@@ -14450,7 +14444,7 @@
       </c>
       <c r="L220">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.3">
@@ -14463,7 +14457,7 @@
       </c>
       <c r="C221">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D221">
         <f t="shared" si="39"/>
@@ -14475,7 +14469,7 @@
       </c>
       <c r="F221">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G221">
         <f t="shared" si="41"/>
@@ -14498,7 +14492,7 @@
       </c>
       <c r="L221">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.3">
@@ -14511,7 +14505,7 @@
       </c>
       <c r="C222">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D222">
         <f t="shared" si="39"/>
@@ -14523,7 +14517,7 @@
       </c>
       <c r="F222">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G222">
         <f t="shared" si="41"/>
@@ -14546,7 +14540,7 @@
       </c>
       <c r="L222">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.3">
@@ -14559,7 +14553,7 @@
       </c>
       <c r="C223">
         <f t="shared" si="36"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D223">
         <f t="shared" si="39"/>
@@ -14571,7 +14565,7 @@
       </c>
       <c r="F223">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G223">
         <f t="shared" si="41"/>
@@ -14594,7 +14588,7 @@
       </c>
       <c r="L223">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.3">
@@ -14607,7 +14601,7 @@
       </c>
       <c r="C224">
         <f t="shared" ref="C224:C287" si="46">C223</f>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D224">
         <f t="shared" si="39"/>
@@ -14619,7 +14613,7 @@
       </c>
       <c r="F224">
         <f t="shared" ref="F224:F287" si="47">F223</f>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G224">
         <f t="shared" si="41"/>
@@ -14642,7 +14636,7 @@
       </c>
       <c r="L224">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.3">
@@ -14655,7 +14649,7 @@
       </c>
       <c r="C225">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D225">
         <f t="shared" si="39"/>
@@ -14667,7 +14661,7 @@
       </c>
       <c r="F225">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G225">
         <f t="shared" si="41"/>
@@ -14690,7 +14684,7 @@
       </c>
       <c r="L225">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.3">
@@ -14703,7 +14697,7 @@
       </c>
       <c r="C226">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D226">
         <f t="shared" si="39"/>
@@ -14715,7 +14709,7 @@
       </c>
       <c r="F226">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G226">
         <f t="shared" si="41"/>
@@ -14738,7 +14732,7 @@
       </c>
       <c r="L226">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.3">
@@ -14751,7 +14745,7 @@
       </c>
       <c r="C227">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D227">
         <f t="shared" si="39"/>
@@ -14763,7 +14757,7 @@
       </c>
       <c r="F227">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G227">
         <f t="shared" si="41"/>
@@ -14786,7 +14780,7 @@
       </c>
       <c r="L227">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.3">
@@ -14799,7 +14793,7 @@
       </c>
       <c r="C228">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D228">
         <f t="shared" si="39"/>
@@ -14811,7 +14805,7 @@
       </c>
       <c r="F228">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G228">
         <f t="shared" si="41"/>
@@ -14834,7 +14828,7 @@
       </c>
       <c r="L228">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.3">
@@ -14847,7 +14841,7 @@
       </c>
       <c r="C229">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D229">
         <f t="shared" si="39"/>
@@ -14859,7 +14853,7 @@
       </c>
       <c r="F229">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G229">
         <f t="shared" si="41"/>
@@ -14882,7 +14876,7 @@
       </c>
       <c r="L229">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.3">
@@ -14895,7 +14889,7 @@
       </c>
       <c r="C230">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D230">
         <f t="shared" si="39"/>
@@ -14907,7 +14901,7 @@
       </c>
       <c r="F230">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G230">
         <f t="shared" si="41"/>
@@ -14930,7 +14924,7 @@
       </c>
       <c r="L230">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.3">
@@ -14943,7 +14937,7 @@
       </c>
       <c r="C231">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D231">
         <f t="shared" si="39"/>
@@ -14955,7 +14949,7 @@
       </c>
       <c r="F231">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G231">
         <f t="shared" si="41"/>
@@ -14978,7 +14972,7 @@
       </c>
       <c r="L231">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.3">
@@ -14991,7 +14985,7 @@
       </c>
       <c r="C232">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D232">
         <f t="shared" si="39"/>
@@ -15003,7 +14997,7 @@
       </c>
       <c r="F232">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G232">
         <f t="shared" si="41"/>
@@ -15026,7 +15020,7 @@
       </c>
       <c r="L232">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.3">
@@ -15039,7 +15033,7 @@
       </c>
       <c r="C233">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D233">
         <f t="shared" si="39"/>
@@ -15051,7 +15045,7 @@
       </c>
       <c r="F233">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G233">
         <f t="shared" si="41"/>
@@ -15074,7 +15068,7 @@
       </c>
       <c r="L233">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.3">
@@ -15087,7 +15081,7 @@
       </c>
       <c r="C234">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D234">
         <f t="shared" si="39"/>
@@ -15099,7 +15093,7 @@
       </c>
       <c r="F234">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G234">
         <f t="shared" si="41"/>
@@ -15122,7 +15116,7 @@
       </c>
       <c r="L234">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.3">
@@ -15135,7 +15129,7 @@
       </c>
       <c r="C235">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D235">
         <f t="shared" si="39"/>
@@ -15147,7 +15141,7 @@
       </c>
       <c r="F235">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G235">
         <f t="shared" si="41"/>
@@ -15170,7 +15164,7 @@
       </c>
       <c r="L235">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.3">
@@ -15183,7 +15177,7 @@
       </c>
       <c r="C236">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D236">
         <f t="shared" si="39"/>
@@ -15195,7 +15189,7 @@
       </c>
       <c r="F236">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G236">
         <f t="shared" si="41"/>
@@ -15218,7 +15212,7 @@
       </c>
       <c r="L236">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.3">
@@ -15231,7 +15225,7 @@
       </c>
       <c r="C237">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D237">
         <f t="shared" si="39"/>
@@ -15243,7 +15237,7 @@
       </c>
       <c r="F237">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G237">
         <f t="shared" si="41"/>
@@ -15266,7 +15260,7 @@
       </c>
       <c r="L237">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.3">
@@ -15279,7 +15273,7 @@
       </c>
       <c r="C238">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D238">
         <f t="shared" si="39"/>
@@ -15291,7 +15285,7 @@
       </c>
       <c r="F238">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G238">
         <f t="shared" si="41"/>
@@ -15314,7 +15308,7 @@
       </c>
       <c r="L238">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.3">
@@ -15327,7 +15321,7 @@
       </c>
       <c r="C239">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D239">
         <f t="shared" si="39"/>
@@ -15339,7 +15333,7 @@
       </c>
       <c r="F239">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G239">
         <f t="shared" si="41"/>
@@ -15362,7 +15356,7 @@
       </c>
       <c r="L239">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.3">
@@ -15375,7 +15369,7 @@
       </c>
       <c r="C240">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D240">
         <f t="shared" si="39"/>
@@ -15387,7 +15381,7 @@
       </c>
       <c r="F240">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G240">
         <f t="shared" si="41"/>
@@ -15410,7 +15404,7 @@
       </c>
       <c r="L240">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.3">
@@ -15423,7 +15417,7 @@
       </c>
       <c r="C241">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D241">
         <f t="shared" si="39"/>
@@ -15435,7 +15429,7 @@
       </c>
       <c r="F241">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G241">
         <f t="shared" si="41"/>
@@ -15458,7 +15452,7 @@
       </c>
       <c r="L241">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.3">
@@ -15471,7 +15465,7 @@
       </c>
       <c r="C242">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D242">
         <f t="shared" si="39"/>
@@ -15483,7 +15477,7 @@
       </c>
       <c r="F242">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G242">
         <f t="shared" si="41"/>
@@ -15506,7 +15500,7 @@
       </c>
       <c r="L242">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.3">
@@ -15519,7 +15513,7 @@
       </c>
       <c r="C243">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D243">
         <f t="shared" si="39"/>
@@ -15531,7 +15525,7 @@
       </c>
       <c r="F243">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G243">
         <f t="shared" si="41"/>
@@ -15554,7 +15548,7 @@
       </c>
       <c r="L243">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.3">
@@ -15567,7 +15561,7 @@
       </c>
       <c r="C244">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D244">
         <f t="shared" si="39"/>
@@ -15579,7 +15573,7 @@
       </c>
       <c r="F244">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G244">
         <f t="shared" si="41"/>
@@ -15602,7 +15596,7 @@
       </c>
       <c r="L244">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.3">
@@ -15615,7 +15609,7 @@
       </c>
       <c r="C245">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D245">
         <f t="shared" si="39"/>
@@ -15627,7 +15621,7 @@
       </c>
       <c r="F245">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G245">
         <f t="shared" si="41"/>
@@ -15650,7 +15644,7 @@
       </c>
       <c r="L245">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.3">
@@ -15663,7 +15657,7 @@
       </c>
       <c r="C246">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D246">
         <f t="shared" si="39"/>
@@ -15675,7 +15669,7 @@
       </c>
       <c r="F246">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G246">
         <f t="shared" si="41"/>
@@ -15698,7 +15692,7 @@
       </c>
       <c r="L246">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.3">
@@ -15711,7 +15705,7 @@
       </c>
       <c r="C247">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D247">
         <f t="shared" si="39"/>
@@ -15723,7 +15717,7 @@
       </c>
       <c r="F247">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G247">
         <f t="shared" si="41"/>
@@ -15746,7 +15740,7 @@
       </c>
       <c r="L247">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.3">
@@ -15759,7 +15753,7 @@
       </c>
       <c r="C248">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D248">
         <f t="shared" si="39"/>
@@ -15771,7 +15765,7 @@
       </c>
       <c r="F248">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G248">
         <f t="shared" si="41"/>
@@ -15794,7 +15788,7 @@
       </c>
       <c r="L248">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.3">
@@ -15807,7 +15801,7 @@
       </c>
       <c r="C249">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D249">
         <f t="shared" si="39"/>
@@ -15819,7 +15813,7 @@
       </c>
       <c r="F249">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G249">
         <f t="shared" si="41"/>
@@ -15842,7 +15836,7 @@
       </c>
       <c r="L249">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.3">
@@ -15855,7 +15849,7 @@
       </c>
       <c r="C250">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D250">
         <f t="shared" si="39"/>
@@ -15867,7 +15861,7 @@
       </c>
       <c r="F250">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G250">
         <f t="shared" si="41"/>
@@ -15890,7 +15884,7 @@
       </c>
       <c r="L250">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.3">
@@ -15903,7 +15897,7 @@
       </c>
       <c r="C251">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D251">
         <f t="shared" si="39"/>
@@ -15915,7 +15909,7 @@
       </c>
       <c r="F251">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G251">
         <f t="shared" si="41"/>
@@ -15938,7 +15932,7 @@
       </c>
       <c r="L251">
         <f t="shared" si="45"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.3">
@@ -15951,7 +15945,7 @@
       </c>
       <c r="C252">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D252">
         <f t="shared" ref="D252:D293" si="49">C252-C251</f>
@@ -15963,7 +15957,7 @@
       </c>
       <c r="F252">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G252">
         <f t="shared" ref="G252:G293" si="51">F252-F251</f>
@@ -15986,7 +15980,7 @@
       </c>
       <c r="L252">
         <f t="shared" ref="L252:L293" si="55">C252-F252-I252</f>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.3">
@@ -15999,7 +15993,7 @@
       </c>
       <c r="C253">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D253">
         <f t="shared" si="49"/>
@@ -16011,7 +16005,7 @@
       </c>
       <c r="F253">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G253">
         <f t="shared" si="51"/>
@@ -16034,7 +16028,7 @@
       </c>
       <c r="L253">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.3">
@@ -16047,7 +16041,7 @@
       </c>
       <c r="C254">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D254">
         <f t="shared" si="49"/>
@@ -16059,7 +16053,7 @@
       </c>
       <c r="F254">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G254">
         <f t="shared" si="51"/>
@@ -16082,7 +16076,7 @@
       </c>
       <c r="L254">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.3">
@@ -16095,7 +16089,7 @@
       </c>
       <c r="C255">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D255">
         <f t="shared" si="49"/>
@@ -16107,7 +16101,7 @@
       </c>
       <c r="F255">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G255">
         <f t="shared" si="51"/>
@@ -16130,7 +16124,7 @@
       </c>
       <c r="L255">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.3">
@@ -16143,7 +16137,7 @@
       </c>
       <c r="C256">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D256">
         <f t="shared" si="49"/>
@@ -16155,7 +16149,7 @@
       </c>
       <c r="F256">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G256">
         <f t="shared" si="51"/>
@@ -16178,7 +16172,7 @@
       </c>
       <c r="L256">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.3">
@@ -16191,7 +16185,7 @@
       </c>
       <c r="C257">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D257">
         <f t="shared" si="49"/>
@@ -16203,7 +16197,7 @@
       </c>
       <c r="F257">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G257">
         <f t="shared" si="51"/>
@@ -16226,7 +16220,7 @@
       </c>
       <c r="L257">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.3">
@@ -16239,7 +16233,7 @@
       </c>
       <c r="C258">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D258">
         <f t="shared" si="49"/>
@@ -16251,7 +16245,7 @@
       </c>
       <c r="F258">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G258">
         <f t="shared" si="51"/>
@@ -16274,7 +16268,7 @@
       </c>
       <c r="L258">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.3">
@@ -16287,7 +16281,7 @@
       </c>
       <c r="C259">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D259">
         <f t="shared" si="49"/>
@@ -16299,7 +16293,7 @@
       </c>
       <c r="F259">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G259">
         <f t="shared" si="51"/>
@@ -16322,7 +16316,7 @@
       </c>
       <c r="L259">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.3">
@@ -16335,7 +16329,7 @@
       </c>
       <c r="C260">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D260">
         <f t="shared" si="49"/>
@@ -16347,7 +16341,7 @@
       </c>
       <c r="F260">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G260">
         <f t="shared" si="51"/>
@@ -16370,7 +16364,7 @@
       </c>
       <c r="L260">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.3">
@@ -16383,7 +16377,7 @@
       </c>
       <c r="C261">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D261">
         <f t="shared" si="49"/>
@@ -16395,7 +16389,7 @@
       </c>
       <c r="F261">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G261">
         <f t="shared" si="51"/>
@@ -16418,7 +16412,7 @@
       </c>
       <c r="L261">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.3">
@@ -16431,7 +16425,7 @@
       </c>
       <c r="C262">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D262">
         <f t="shared" si="49"/>
@@ -16443,7 +16437,7 @@
       </c>
       <c r="F262">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G262">
         <f t="shared" si="51"/>
@@ -16466,7 +16460,7 @@
       </c>
       <c r="L262">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.3">
@@ -16479,7 +16473,7 @@
       </c>
       <c r="C263">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D263">
         <f t="shared" si="49"/>
@@ -16491,7 +16485,7 @@
       </c>
       <c r="F263">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G263">
         <f t="shared" si="51"/>
@@ -16514,7 +16508,7 @@
       </c>
       <c r="L263">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.3">
@@ -16527,7 +16521,7 @@
       </c>
       <c r="C264">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D264">
         <f t="shared" si="49"/>
@@ -16539,7 +16533,7 @@
       </c>
       <c r="F264">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G264">
         <f t="shared" si="51"/>
@@ -16562,7 +16556,7 @@
       </c>
       <c r="L264">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.3">
@@ -16575,7 +16569,7 @@
       </c>
       <c r="C265">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D265">
         <f t="shared" si="49"/>
@@ -16587,7 +16581,7 @@
       </c>
       <c r="F265">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G265">
         <f t="shared" si="51"/>
@@ -16610,7 +16604,7 @@
       </c>
       <c r="L265">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.3">
@@ -16623,7 +16617,7 @@
       </c>
       <c r="C266">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D266">
         <f t="shared" si="49"/>
@@ -16635,7 +16629,7 @@
       </c>
       <c r="F266">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G266">
         <f t="shared" si="51"/>
@@ -16658,7 +16652,7 @@
       </c>
       <c r="L266">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.3">
@@ -16671,7 +16665,7 @@
       </c>
       <c r="C267">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D267">
         <f t="shared" si="49"/>
@@ -16683,7 +16677,7 @@
       </c>
       <c r="F267">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G267">
         <f t="shared" si="51"/>
@@ -16706,7 +16700,7 @@
       </c>
       <c r="L267">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.3">
@@ -16719,7 +16713,7 @@
       </c>
       <c r="C268">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D268">
         <f t="shared" si="49"/>
@@ -16731,7 +16725,7 @@
       </c>
       <c r="F268">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G268">
         <f t="shared" si="51"/>
@@ -16754,7 +16748,7 @@
       </c>
       <c r="L268">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.3">
@@ -16767,7 +16761,7 @@
       </c>
       <c r="C269">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D269">
         <f t="shared" si="49"/>
@@ -16779,7 +16773,7 @@
       </c>
       <c r="F269">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G269">
         <f t="shared" si="51"/>
@@ -16802,7 +16796,7 @@
       </c>
       <c r="L269">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.3">
@@ -16815,7 +16809,7 @@
       </c>
       <c r="C270">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D270">
         <f t="shared" si="49"/>
@@ -16827,7 +16821,7 @@
       </c>
       <c r="F270">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G270">
         <f t="shared" si="51"/>
@@ -16850,7 +16844,7 @@
       </c>
       <c r="L270">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.3">
@@ -16863,7 +16857,7 @@
       </c>
       <c r="C271">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D271">
         <f t="shared" si="49"/>
@@ -16875,7 +16869,7 @@
       </c>
       <c r="F271">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G271">
         <f t="shared" si="51"/>
@@ -16898,7 +16892,7 @@
       </c>
       <c r="L271">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.3">
@@ -16911,7 +16905,7 @@
       </c>
       <c r="C272">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D272">
         <f t="shared" si="49"/>
@@ -16923,7 +16917,7 @@
       </c>
       <c r="F272">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G272">
         <f t="shared" si="51"/>
@@ -16946,7 +16940,7 @@
       </c>
       <c r="L272">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.3">
@@ -16959,7 +16953,7 @@
       </c>
       <c r="C273">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D273">
         <f t="shared" si="49"/>
@@ -16971,7 +16965,7 @@
       </c>
       <c r="F273">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G273">
         <f t="shared" si="51"/>
@@ -16994,7 +16988,7 @@
       </c>
       <c r="L273">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.3">
@@ -17007,7 +17001,7 @@
       </c>
       <c r="C274">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D274">
         <f t="shared" si="49"/>
@@ -17019,7 +17013,7 @@
       </c>
       <c r="F274">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G274">
         <f t="shared" si="51"/>
@@ -17042,7 +17036,7 @@
       </c>
       <c r="L274">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.3">
@@ -17055,7 +17049,7 @@
       </c>
       <c r="C275">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D275">
         <f t="shared" si="49"/>
@@ -17067,7 +17061,7 @@
       </c>
       <c r="F275">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G275">
         <f t="shared" si="51"/>
@@ -17090,7 +17084,7 @@
       </c>
       <c r="L275">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.3">
@@ -17103,7 +17097,7 @@
       </c>
       <c r="C276">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D276">
         <f t="shared" si="49"/>
@@ -17115,7 +17109,7 @@
       </c>
       <c r="F276">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G276">
         <f t="shared" si="51"/>
@@ -17138,7 +17132,7 @@
       </c>
       <c r="L276">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
@@ -17151,7 +17145,7 @@
       </c>
       <c r="C277">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D277">
         <f t="shared" si="49"/>
@@ -17163,7 +17157,7 @@
       </c>
       <c r="F277">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G277">
         <f t="shared" si="51"/>
@@ -17186,7 +17180,7 @@
       </c>
       <c r="L277">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
@@ -17199,7 +17193,7 @@
       </c>
       <c r="C278">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D278">
         <f t="shared" si="49"/>
@@ -17211,7 +17205,7 @@
       </c>
       <c r="F278">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G278">
         <f t="shared" si="51"/>
@@ -17234,7 +17228,7 @@
       </c>
       <c r="L278">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.3">
@@ -17247,7 +17241,7 @@
       </c>
       <c r="C279">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D279">
         <f t="shared" si="49"/>
@@ -17259,7 +17253,7 @@
       </c>
       <c r="F279">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G279">
         <f t="shared" si="51"/>
@@ -17282,7 +17276,7 @@
       </c>
       <c r="L279">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.3">
@@ -17295,7 +17289,7 @@
       </c>
       <c r="C280">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D280">
         <f t="shared" si="49"/>
@@ -17307,7 +17301,7 @@
       </c>
       <c r="F280">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G280">
         <f t="shared" si="51"/>
@@ -17330,7 +17324,7 @@
       </c>
       <c r="L280">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.3">
@@ -17343,7 +17337,7 @@
       </c>
       <c r="C281">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D281">
         <f t="shared" si="49"/>
@@ -17355,7 +17349,7 @@
       </c>
       <c r="F281">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G281">
         <f t="shared" si="51"/>
@@ -17378,7 +17372,7 @@
       </c>
       <c r="L281">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.3">
@@ -17391,7 +17385,7 @@
       </c>
       <c r="C282">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D282">
         <f t="shared" si="49"/>
@@ -17403,7 +17397,7 @@
       </c>
       <c r="F282">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G282">
         <f t="shared" si="51"/>
@@ -17426,7 +17420,7 @@
       </c>
       <c r="L282">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.3">
@@ -17439,7 +17433,7 @@
       </c>
       <c r="C283">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D283">
         <f t="shared" si="49"/>
@@ -17451,7 +17445,7 @@
       </c>
       <c r="F283">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G283">
         <f t="shared" si="51"/>
@@ -17474,7 +17468,7 @@
       </c>
       <c r="L283">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.3">
@@ -17487,7 +17481,7 @@
       </c>
       <c r="C284">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D284">
         <f t="shared" si="49"/>
@@ -17499,7 +17493,7 @@
       </c>
       <c r="F284">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G284">
         <f t="shared" si="51"/>
@@ -17522,7 +17516,7 @@
       </c>
       <c r="L284">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.3">
@@ -17535,7 +17529,7 @@
       </c>
       <c r="C285">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D285">
         <f t="shared" si="49"/>
@@ -17547,7 +17541,7 @@
       </c>
       <c r="F285">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G285">
         <f t="shared" si="51"/>
@@ -17570,7 +17564,7 @@
       </c>
       <c r="L285">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.3">
@@ -17583,7 +17577,7 @@
       </c>
       <c r="C286">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D286">
         <f t="shared" si="49"/>
@@ -17595,7 +17589,7 @@
       </c>
       <c r="F286">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G286">
         <f t="shared" si="51"/>
@@ -17618,7 +17612,7 @@
       </c>
       <c r="L286">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.3">
@@ -17631,7 +17625,7 @@
       </c>
       <c r="C287">
         <f t="shared" si="46"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D287">
         <f t="shared" si="49"/>
@@ -17643,7 +17637,7 @@
       </c>
       <c r="F287">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G287">
         <f t="shared" si="51"/>
@@ -17666,7 +17660,7 @@
       </c>
       <c r="L287">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.3">
@@ -17679,7 +17673,7 @@
       </c>
       <c r="C288">
         <f t="shared" ref="C288:C293" si="56">C287</f>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D288">
         <f t="shared" si="49"/>
@@ -17691,7 +17685,7 @@
       </c>
       <c r="F288">
         <f t="shared" ref="F288:F293" si="57">F287</f>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G288">
         <f t="shared" si="51"/>
@@ -17714,7 +17708,7 @@
       </c>
       <c r="L288">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.3">
@@ -17727,7 +17721,7 @@
       </c>
       <c r="C289">
         <f t="shared" si="56"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D289">
         <f t="shared" si="49"/>
@@ -17739,7 +17733,7 @@
       </c>
       <c r="F289">
         <f t="shared" si="57"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G289">
         <f t="shared" si="51"/>
@@ -17762,7 +17756,7 @@
       </c>
       <c r="L289">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.3">
@@ -17775,7 +17769,7 @@
       </c>
       <c r="C290">
         <f t="shared" si="56"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D290">
         <f t="shared" si="49"/>
@@ -17787,7 +17781,7 @@
       </c>
       <c r="F290">
         <f t="shared" si="57"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G290">
         <f t="shared" si="51"/>
@@ -17810,7 +17804,7 @@
       </c>
       <c r="L290">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.3">
@@ -17823,7 +17817,7 @@
       </c>
       <c r="C291">
         <f t="shared" si="56"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D291">
         <f t="shared" si="49"/>
@@ -17835,7 +17829,7 @@
       </c>
       <c r="F291">
         <f t="shared" si="57"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G291">
         <f t="shared" si="51"/>
@@ -17858,7 +17852,7 @@
       </c>
       <c r="L291">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.3">
@@ -17871,7 +17865,7 @@
       </c>
       <c r="C292">
         <f t="shared" si="56"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D292">
         <f t="shared" si="49"/>
@@ -17883,7 +17877,7 @@
       </c>
       <c r="F292">
         <f t="shared" si="57"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G292">
         <f t="shared" si="51"/>
@@ -17906,7 +17900,7 @@
       </c>
       <c r="L292">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.3">
@@ -17919,7 +17913,7 @@
       </c>
       <c r="C293">
         <f t="shared" si="56"/>
-        <v>1819</v>
+        <v>2615</v>
       </c>
       <c r="D293">
         <f t="shared" si="49"/>
@@ -17931,7 +17925,7 @@
       </c>
       <c r="F293">
         <f t="shared" si="57"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G293">
         <f t="shared" si="51"/>
@@ -17954,7 +17948,7 @@
       </c>
       <c r="L293">
         <f t="shared" si="55"/>
-        <v>1795</v>
+        <v>2564</v>
       </c>
     </row>
   </sheetData>

--- a/COVID19.xlsx
+++ b/COVID19.xlsx
@@ -605,46 +605,46 @@
                   <c:v>2615</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2615</c:v>
+                  <c:v>2910</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2615</c:v>
+                  <c:v>2910</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2615</c:v>
+                  <c:v>2910</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2615</c:v>
+                  <c:v>2910</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2615</c:v>
+                  <c:v>2910</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2615</c:v>
+                  <c:v>2910</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2615</c:v>
+                  <c:v>2910</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2615</c:v>
+                  <c:v>2910</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2615</c:v>
+                  <c:v>2910</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2615</c:v>
+                  <c:v>2910</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2615</c:v>
+                  <c:v>2910</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2615</c:v>
+                  <c:v>2910</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2615</c:v>
+                  <c:v>2910</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2615</c:v>
+                  <c:v>2910</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -765,46 +765,46 @@
                   <c:v>2564</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2564</c:v>
+                  <c:v>2851</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2564</c:v>
+                  <c:v>2851</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2564</c:v>
+                  <c:v>2851</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2564</c:v>
+                  <c:v>2851</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2564</c:v>
+                  <c:v>2851</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2564</c:v>
+                  <c:v>2851</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2564</c:v>
+                  <c:v>2851</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2564</c:v>
+                  <c:v>2851</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2564</c:v>
+                  <c:v>2851</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2564</c:v>
+                  <c:v>2851</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2564</c:v>
+                  <c:v>2851</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2564</c:v>
+                  <c:v>2851</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2564</c:v>
+                  <c:v>2851</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2564</c:v>
+                  <c:v>2851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1171,7 +1171,7 @@
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>295</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0</c:v>
@@ -1584,46 +1584,46 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>46</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>46</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>46</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>46</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>46</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>46</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>46</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>46</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>46</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>46</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>46</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>46</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>46</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>46</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1888,7 +1888,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0</c:v>
@@ -3193,10 +3193,10 @@
                   <c:v>-33.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>-22.222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>-200</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0</c:v>
@@ -3497,10 +3497,10 @@
                   <c:v>-38.056680161943319</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>38.383838383838381</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>-200</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0</c:v>
@@ -3888,46 +3888,46 @@
                   <c:v>2615</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2615</c:v>
+                  <c:v>2910</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2615</c:v>
+                  <c:v>2910</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2615</c:v>
+                  <c:v>2910</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2615</c:v>
+                  <c:v>2910</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2615</c:v>
+                  <c:v>2910</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2615</c:v>
+                  <c:v>2910</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2615</c:v>
+                  <c:v>2910</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2615</c:v>
+                  <c:v>2910</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2615</c:v>
+                  <c:v>2910</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2615</c:v>
+                  <c:v>2910</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2615</c:v>
+                  <c:v>2910</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2615</c:v>
+                  <c:v>2910</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2615</c:v>
+                  <c:v>2910</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2615</c:v>
+                  <c:v>2910</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5345,10 +5345,10 @@
   <dimension ref="A1:N293"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N4" sqref="N4:N293"/>
+      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5395,7 +5395,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="6">
         <f ca="1">TODAY()</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -7098,28 +7098,26 @@
         <v>43920</v>
       </c>
       <c r="D35">
-        <f t="shared" ref="D35:D95" si="9">D34</f>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="F35">
         <f t="shared" si="8"/>
-        <v>-200</v>
+        <v>38.383838383838381</v>
       </c>
       <c r="G35">
-        <f t="shared" ref="G35:G95" si="10">G34</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H35">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I35">
         <f t="shared" si="5"/>
-        <v>-200</v>
+        <v>-22.222222222222221</v>
       </c>
       <c r="J35">
         <f t="shared" si="6"/>
@@ -7134,7 +7132,7 @@
       </c>
       <c r="M35">
         <f t="shared" si="1"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N35">
         <f t="shared" si="2"/>
@@ -7153,28 +7151,28 @@
         <v>43921</v>
       </c>
       <c r="D36">
-        <f t="shared" si="9"/>
-        <v>2615</v>
+        <f t="shared" ref="D35:D95" si="9">D35</f>
+        <v>2910</v>
       </c>
       <c r="E36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F36" t="e">
+      <c r="F36">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>-200</v>
       </c>
       <c r="G36">
-        <f t="shared" si="10"/>
-        <v>46</v>
+        <f t="shared" ref="G35:G95" si="10">G35</f>
+        <v>54</v>
       </c>
       <c r="H36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I36" t="e">
+      <c r="I36">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-200</v>
       </c>
       <c r="J36">
         <f t="shared" si="6"/>
@@ -7189,7 +7187,7 @@
       </c>
       <c r="M36">
         <f t="shared" si="1"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N36">
         <f t="shared" si="2"/>
@@ -7209,7 +7207,7 @@
       </c>
       <c r="D37">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E37">
         <f t="shared" si="3"/>
@@ -7221,7 +7219,7 @@
       </c>
       <c r="G37">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H37">
         <f t="shared" si="4"/>
@@ -7244,7 +7242,7 @@
       </c>
       <c r="M37">
         <f t="shared" si="1"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N37">
         <f t="shared" si="2"/>
@@ -7264,7 +7262,7 @@
       </c>
       <c r="D38">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E38">
         <f t="shared" si="3"/>
@@ -7276,7 +7274,7 @@
       </c>
       <c r="G38">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H38">
         <f t="shared" si="4"/>
@@ -7299,7 +7297,7 @@
       </c>
       <c r="M38">
         <f t="shared" si="1"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N38">
         <f t="shared" si="2"/>
@@ -7319,7 +7317,7 @@
       </c>
       <c r="D39">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E39">
         <f t="shared" si="3"/>
@@ -7331,7 +7329,7 @@
       </c>
       <c r="G39">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H39">
         <f t="shared" si="4"/>
@@ -7354,7 +7352,7 @@
       </c>
       <c r="M39">
         <f t="shared" si="1"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N39">
         <f t="shared" si="2"/>
@@ -7374,7 +7372,7 @@
       </c>
       <c r="D40">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E40">
         <f t="shared" si="3"/>
@@ -7386,7 +7384,7 @@
       </c>
       <c r="G40">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H40">
         <f t="shared" si="4"/>
@@ -7409,7 +7407,7 @@
       </c>
       <c r="M40">
         <f t="shared" si="1"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N40">
         <f t="shared" si="2"/>
@@ -7429,7 +7427,7 @@
       </c>
       <c r="D41">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E41">
         <f t="shared" si="3"/>
@@ -7441,7 +7439,7 @@
       </c>
       <c r="G41">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H41">
         <f t="shared" si="4"/>
@@ -7464,7 +7462,7 @@
       </c>
       <c r="M41">
         <f t="shared" si="1"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N41">
         <f t="shared" si="2"/>
@@ -7484,7 +7482,7 @@
       </c>
       <c r="D42">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E42">
         <f t="shared" si="3"/>
@@ -7496,7 +7494,7 @@
       </c>
       <c r="G42">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H42">
         <f t="shared" si="4"/>
@@ -7519,7 +7517,7 @@
       </c>
       <c r="M42">
         <f t="shared" si="1"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N42">
         <f t="shared" si="2"/>
@@ -7539,7 +7537,7 @@
       </c>
       <c r="D43">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E43">
         <f t="shared" si="3"/>
@@ -7551,7 +7549,7 @@
       </c>
       <c r="G43">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H43">
         <f t="shared" si="4"/>
@@ -7574,7 +7572,7 @@
       </c>
       <c r="M43">
         <f t="shared" si="1"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N43">
         <f t="shared" si="2"/>
@@ -7594,7 +7592,7 @@
       </c>
       <c r="D44">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E44">
         <f t="shared" si="3"/>
@@ -7606,7 +7604,7 @@
       </c>
       <c r="G44">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H44">
         <f t="shared" si="4"/>
@@ -7629,7 +7627,7 @@
       </c>
       <c r="M44">
         <f t="shared" si="1"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N44">
         <f t="shared" si="2"/>
@@ -7649,7 +7647,7 @@
       </c>
       <c r="D45">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E45">
         <f t="shared" si="3"/>
@@ -7661,7 +7659,7 @@
       </c>
       <c r="G45">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H45">
         <f t="shared" si="4"/>
@@ -7684,7 +7682,7 @@
       </c>
       <c r="M45">
         <f t="shared" si="1"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N45">
         <f t="shared" si="2"/>
@@ -7704,7 +7702,7 @@
       </c>
       <c r="D46">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E46">
         <f t="shared" si="3"/>
@@ -7716,7 +7714,7 @@
       </c>
       <c r="G46">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H46">
         <f t="shared" si="4"/>
@@ -7739,7 +7737,7 @@
       </c>
       <c r="M46">
         <f t="shared" si="1"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N46">
         <f t="shared" si="2"/>
@@ -7759,7 +7757,7 @@
       </c>
       <c r="D47">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E47">
         <f t="shared" si="3"/>
@@ -7771,7 +7769,7 @@
       </c>
       <c r="G47">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H47">
         <f t="shared" si="4"/>
@@ -7794,7 +7792,7 @@
       </c>
       <c r="M47">
         <f t="shared" si="1"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N47">
         <f t="shared" si="2"/>
@@ -7814,7 +7812,7 @@
       </c>
       <c r="D48">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E48">
         <f t="shared" si="3"/>
@@ -7826,7 +7824,7 @@
       </c>
       <c r="G48">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H48">
         <f t="shared" si="4"/>
@@ -7849,7 +7847,7 @@
       </c>
       <c r="M48">
         <f t="shared" si="1"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N48">
         <f t="shared" si="2"/>
@@ -7869,7 +7867,7 @@
       </c>
       <c r="D49">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E49">
         <f t="shared" ref="E49:E59" si="12">D49-D48</f>
@@ -7881,7 +7879,7 @@
       </c>
       <c r="G49">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H49">
         <f t="shared" ref="H49:H59" si="14">G49-G48</f>
@@ -7904,7 +7902,7 @@
       </c>
       <c r="M49">
         <f t="shared" ref="M49:M59" si="18">D49-G49-J49</f>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N49">
         <f t="shared" si="2"/>
@@ -7924,7 +7922,7 @@
       </c>
       <c r="D50">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E50">
         <f t="shared" si="12"/>
@@ -7936,7 +7934,7 @@
       </c>
       <c r="G50">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H50">
         <f t="shared" si="14"/>
@@ -7959,7 +7957,7 @@
       </c>
       <c r="M50">
         <f t="shared" si="18"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N50">
         <f t="shared" si="2"/>
@@ -7979,7 +7977,7 @@
       </c>
       <c r="D51">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E51">
         <f t="shared" si="12"/>
@@ -7991,7 +7989,7 @@
       </c>
       <c r="G51">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H51">
         <f t="shared" si="14"/>
@@ -8014,7 +8012,7 @@
       </c>
       <c r="M51">
         <f t="shared" si="18"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N51">
         <f t="shared" si="2"/>
@@ -8034,7 +8032,7 @@
       </c>
       <c r="D52">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E52">
         <f t="shared" si="12"/>
@@ -8046,7 +8044,7 @@
       </c>
       <c r="G52">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H52">
         <f t="shared" si="14"/>
@@ -8069,7 +8067,7 @@
       </c>
       <c r="M52">
         <f t="shared" si="18"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N52">
         <f t="shared" si="2"/>
@@ -8089,7 +8087,7 @@
       </c>
       <c r="D53">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E53">
         <f t="shared" si="12"/>
@@ -8101,7 +8099,7 @@
       </c>
       <c r="G53">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H53">
         <f t="shared" si="14"/>
@@ -8124,7 +8122,7 @@
       </c>
       <c r="M53">
         <f t="shared" si="18"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N53">
         <f t="shared" si="2"/>
@@ -8144,7 +8142,7 @@
       </c>
       <c r="D54">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E54">
         <f t="shared" si="12"/>
@@ -8156,7 +8154,7 @@
       </c>
       <c r="G54">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H54">
         <f t="shared" si="14"/>
@@ -8179,7 +8177,7 @@
       </c>
       <c r="M54">
         <f t="shared" si="18"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N54">
         <f t="shared" si="2"/>
@@ -8199,7 +8197,7 @@
       </c>
       <c r="D55">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E55">
         <f t="shared" si="12"/>
@@ -8211,7 +8209,7 @@
       </c>
       <c r="G55">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H55">
         <f t="shared" si="14"/>
@@ -8234,7 +8232,7 @@
       </c>
       <c r="M55">
         <f t="shared" si="18"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N55">
         <f t="shared" si="2"/>
@@ -8254,7 +8252,7 @@
       </c>
       <c r="D56">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E56">
         <f t="shared" si="12"/>
@@ -8266,7 +8264,7 @@
       </c>
       <c r="G56">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H56">
         <f t="shared" si="14"/>
@@ -8289,7 +8287,7 @@
       </c>
       <c r="M56">
         <f t="shared" si="18"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N56">
         <f t="shared" si="2"/>
@@ -8309,7 +8307,7 @@
       </c>
       <c r="D57">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E57">
         <f t="shared" si="12"/>
@@ -8321,7 +8319,7 @@
       </c>
       <c r="G57">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H57">
         <f t="shared" si="14"/>
@@ -8344,7 +8342,7 @@
       </c>
       <c r="M57">
         <f t="shared" si="18"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N57">
         <f t="shared" si="2"/>
@@ -8364,7 +8362,7 @@
       </c>
       <c r="D58">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E58">
         <f t="shared" si="12"/>
@@ -8376,7 +8374,7 @@
       </c>
       <c r="G58">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H58">
         <f t="shared" si="14"/>
@@ -8399,7 +8397,7 @@
       </c>
       <c r="M58">
         <f t="shared" si="18"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N58">
         <f t="shared" si="2"/>
@@ -8419,7 +8417,7 @@
       </c>
       <c r="D59">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E59">
         <f t="shared" si="12"/>
@@ -8431,7 +8429,7 @@
       </c>
       <c r="G59">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H59">
         <f t="shared" si="14"/>
@@ -8454,7 +8452,7 @@
       </c>
       <c r="M59">
         <f t="shared" si="18"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N59">
         <f t="shared" si="2"/>
@@ -8474,7 +8472,7 @@
       </c>
       <c r="D60">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E60">
         <f t="shared" ref="E60:E123" si="20">D60-D59</f>
@@ -8486,7 +8484,7 @@
       </c>
       <c r="G60">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H60">
         <f t="shared" ref="H60:H123" si="22">G60-G59</f>
@@ -8509,7 +8507,7 @@
       </c>
       <c r="M60">
         <f t="shared" ref="M60:M123" si="26">D60-G60-J60</f>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N60">
         <f t="shared" si="2"/>
@@ -8529,7 +8527,7 @@
       </c>
       <c r="D61">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E61">
         <f t="shared" si="20"/>
@@ -8541,7 +8539,7 @@
       </c>
       <c r="G61">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H61">
         <f t="shared" si="22"/>
@@ -8564,7 +8562,7 @@
       </c>
       <c r="M61">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N61">
         <f t="shared" si="2"/>
@@ -8584,7 +8582,7 @@
       </c>
       <c r="D62">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E62">
         <f t="shared" si="20"/>
@@ -8596,7 +8594,7 @@
       </c>
       <c r="G62">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H62">
         <f t="shared" si="22"/>
@@ -8619,7 +8617,7 @@
       </c>
       <c r="M62">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N62">
         <f t="shared" si="2"/>
@@ -8639,7 +8637,7 @@
       </c>
       <c r="D63">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E63">
         <f t="shared" si="20"/>
@@ -8651,7 +8649,7 @@
       </c>
       <c r="G63">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H63">
         <f t="shared" si="22"/>
@@ -8674,7 +8672,7 @@
       </c>
       <c r="M63">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N63">
         <f t="shared" si="2"/>
@@ -8694,7 +8692,7 @@
       </c>
       <c r="D64">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E64">
         <f t="shared" si="20"/>
@@ -8706,7 +8704,7 @@
       </c>
       <c r="G64">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H64">
         <f t="shared" si="22"/>
@@ -8729,7 +8727,7 @@
       </c>
       <c r="M64">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N64">
         <f t="shared" si="2"/>
@@ -8749,7 +8747,7 @@
       </c>
       <c r="D65">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E65">
         <f t="shared" si="20"/>
@@ -8761,7 +8759,7 @@
       </c>
       <c r="G65">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H65">
         <f t="shared" si="22"/>
@@ -8784,7 +8782,7 @@
       </c>
       <c r="M65">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N65">
         <f t="shared" si="2"/>
@@ -8804,7 +8802,7 @@
       </c>
       <c r="D66">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E66">
         <f t="shared" si="20"/>
@@ -8816,7 +8814,7 @@
       </c>
       <c r="G66">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H66">
         <f t="shared" si="22"/>
@@ -8839,7 +8837,7 @@
       </c>
       <c r="M66">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N66">
         <f t="shared" si="2"/>
@@ -8859,7 +8857,7 @@
       </c>
       <c r="D67">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E67">
         <f t="shared" si="20"/>
@@ -8871,7 +8869,7 @@
       </c>
       <c r="G67">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H67">
         <f t="shared" si="22"/>
@@ -8894,7 +8892,7 @@
       </c>
       <c r="M67">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N67">
         <f t="shared" si="2"/>
@@ -8914,7 +8912,7 @@
       </c>
       <c r="D68">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E68">
         <f t="shared" si="20"/>
@@ -8926,7 +8924,7 @@
       </c>
       <c r="G68">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H68">
         <f t="shared" si="22"/>
@@ -8949,7 +8947,7 @@
       </c>
       <c r="M68">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N68">
         <f t="shared" si="2"/>
@@ -8969,7 +8967,7 @@
       </c>
       <c r="D69">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E69">
         <f t="shared" si="20"/>
@@ -8981,7 +8979,7 @@
       </c>
       <c r="G69">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H69">
         <f t="shared" si="22"/>
@@ -9004,7 +9002,7 @@
       </c>
       <c r="M69">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N69">
         <f t="shared" ref="N69:N132" si="27">A69^2.3</f>
@@ -9024,7 +9022,7 @@
       </c>
       <c r="D70">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E70">
         <f t="shared" si="20"/>
@@ -9036,7 +9034,7 @@
       </c>
       <c r="G70">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H70">
         <f t="shared" si="22"/>
@@ -9059,7 +9057,7 @@
       </c>
       <c r="M70">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N70">
         <f t="shared" si="27"/>
@@ -9079,7 +9077,7 @@
       </c>
       <c r="D71">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E71">
         <f t="shared" si="20"/>
@@ -9091,7 +9089,7 @@
       </c>
       <c r="G71">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H71">
         <f t="shared" si="22"/>
@@ -9114,7 +9112,7 @@
       </c>
       <c r="M71">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N71">
         <f t="shared" si="27"/>
@@ -9134,7 +9132,7 @@
       </c>
       <c r="D72">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E72">
         <f t="shared" si="20"/>
@@ -9146,7 +9144,7 @@
       </c>
       <c r="G72">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H72">
         <f t="shared" si="22"/>
@@ -9169,7 +9167,7 @@
       </c>
       <c r="M72">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N72">
         <f t="shared" si="27"/>
@@ -9189,7 +9187,7 @@
       </c>
       <c r="D73">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E73">
         <f t="shared" si="20"/>
@@ -9201,7 +9199,7 @@
       </c>
       <c r="G73">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H73">
         <f t="shared" si="22"/>
@@ -9224,7 +9222,7 @@
       </c>
       <c r="M73">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N73">
         <f t="shared" si="27"/>
@@ -9244,7 +9242,7 @@
       </c>
       <c r="D74">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E74">
         <f t="shared" si="20"/>
@@ -9256,7 +9254,7 @@
       </c>
       <c r="G74">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H74">
         <f t="shared" si="22"/>
@@ -9279,7 +9277,7 @@
       </c>
       <c r="M74">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N74">
         <f t="shared" si="27"/>
@@ -9299,7 +9297,7 @@
       </c>
       <c r="D75">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E75">
         <f t="shared" si="20"/>
@@ -9311,7 +9309,7 @@
       </c>
       <c r="G75">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H75">
         <f t="shared" si="22"/>
@@ -9334,7 +9332,7 @@
       </c>
       <c r="M75">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N75">
         <f t="shared" si="27"/>
@@ -9354,7 +9352,7 @@
       </c>
       <c r="D76">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E76">
         <f t="shared" si="20"/>
@@ -9366,7 +9364,7 @@
       </c>
       <c r="G76">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H76">
         <f t="shared" si="22"/>
@@ -9389,7 +9387,7 @@
       </c>
       <c r="M76">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N76">
         <f t="shared" si="27"/>
@@ -9409,7 +9407,7 @@
       </c>
       <c r="D77">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E77">
         <f t="shared" si="20"/>
@@ -9421,7 +9419,7 @@
       </c>
       <c r="G77">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H77">
         <f t="shared" si="22"/>
@@ -9444,7 +9442,7 @@
       </c>
       <c r="M77">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N77">
         <f t="shared" si="27"/>
@@ -9464,7 +9462,7 @@
       </c>
       <c r="D78">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E78">
         <f t="shared" si="20"/>
@@ -9476,7 +9474,7 @@
       </c>
       <c r="G78">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H78">
         <f t="shared" si="22"/>
@@ -9499,7 +9497,7 @@
       </c>
       <c r="M78">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N78">
         <f t="shared" si="27"/>
@@ -9519,7 +9517,7 @@
       </c>
       <c r="D79">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E79">
         <f t="shared" si="20"/>
@@ -9531,7 +9529,7 @@
       </c>
       <c r="G79">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H79">
         <f t="shared" si="22"/>
@@ -9554,7 +9552,7 @@
       </c>
       <c r="M79">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N79">
         <f t="shared" si="27"/>
@@ -9574,7 +9572,7 @@
       </c>
       <c r="D80">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E80">
         <f t="shared" si="20"/>
@@ -9586,7 +9584,7 @@
       </c>
       <c r="G80">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H80">
         <f t="shared" si="22"/>
@@ -9609,7 +9607,7 @@
       </c>
       <c r="M80">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N80">
         <f t="shared" si="27"/>
@@ -9629,7 +9627,7 @@
       </c>
       <c r="D81">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E81">
         <f t="shared" si="20"/>
@@ -9641,7 +9639,7 @@
       </c>
       <c r="G81">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H81">
         <f t="shared" si="22"/>
@@ -9664,7 +9662,7 @@
       </c>
       <c r="M81">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N81">
         <f t="shared" si="27"/>
@@ -9684,7 +9682,7 @@
       </c>
       <c r="D82">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E82">
         <f t="shared" si="20"/>
@@ -9696,7 +9694,7 @@
       </c>
       <c r="G82">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H82">
         <f t="shared" si="22"/>
@@ -9719,7 +9717,7 @@
       </c>
       <c r="M82">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N82">
         <f t="shared" si="27"/>
@@ -9739,7 +9737,7 @@
       </c>
       <c r="D83">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E83">
         <f t="shared" si="20"/>
@@ -9751,7 +9749,7 @@
       </c>
       <c r="G83">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H83">
         <f t="shared" si="22"/>
@@ -9774,7 +9772,7 @@
       </c>
       <c r="M83">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N83">
         <f t="shared" si="27"/>
@@ -9794,7 +9792,7 @@
       </c>
       <c r="D84">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E84">
         <f t="shared" si="20"/>
@@ -9806,7 +9804,7 @@
       </c>
       <c r="G84">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H84">
         <f t="shared" si="22"/>
@@ -9829,7 +9827,7 @@
       </c>
       <c r="M84">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N84">
         <f t="shared" si="27"/>
@@ -9849,7 +9847,7 @@
       </c>
       <c r="D85">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E85">
         <f t="shared" si="20"/>
@@ -9861,7 +9859,7 @@
       </c>
       <c r="G85">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H85">
         <f t="shared" si="22"/>
@@ -9884,7 +9882,7 @@
       </c>
       <c r="M85">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N85">
         <f t="shared" si="27"/>
@@ -9904,7 +9902,7 @@
       </c>
       <c r="D86">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E86">
         <f t="shared" si="20"/>
@@ -9916,7 +9914,7 @@
       </c>
       <c r="G86">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H86">
         <f t="shared" si="22"/>
@@ -9939,7 +9937,7 @@
       </c>
       <c r="M86">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N86">
         <f t="shared" si="27"/>
@@ -9959,7 +9957,7 @@
       </c>
       <c r="D87">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E87">
         <f t="shared" si="20"/>
@@ -9971,7 +9969,7 @@
       </c>
       <c r="G87">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H87">
         <f t="shared" si="22"/>
@@ -9994,7 +9992,7 @@
       </c>
       <c r="M87">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N87">
         <f t="shared" si="27"/>
@@ -10014,7 +10012,7 @@
       </c>
       <c r="D88">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E88">
         <f t="shared" si="20"/>
@@ -10026,7 +10024,7 @@
       </c>
       <c r="G88">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H88">
         <f t="shared" si="22"/>
@@ -10049,7 +10047,7 @@
       </c>
       <c r="M88">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N88">
         <f t="shared" si="27"/>
@@ -10069,7 +10067,7 @@
       </c>
       <c r="D89">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E89">
         <f t="shared" si="20"/>
@@ -10081,7 +10079,7 @@
       </c>
       <c r="G89">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H89">
         <f t="shared" si="22"/>
@@ -10104,7 +10102,7 @@
       </c>
       <c r="M89">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N89">
         <f t="shared" si="27"/>
@@ -10124,7 +10122,7 @@
       </c>
       <c r="D90">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E90">
         <f t="shared" si="20"/>
@@ -10136,7 +10134,7 @@
       </c>
       <c r="G90">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H90">
         <f t="shared" si="22"/>
@@ -10159,7 +10157,7 @@
       </c>
       <c r="M90">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N90">
         <f t="shared" si="27"/>
@@ -10179,7 +10177,7 @@
       </c>
       <c r="D91">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E91">
         <f t="shared" si="20"/>
@@ -10191,7 +10189,7 @@
       </c>
       <c r="G91">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H91">
         <f t="shared" si="22"/>
@@ -10214,7 +10212,7 @@
       </c>
       <c r="M91">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N91">
         <f t="shared" si="27"/>
@@ -10234,7 +10232,7 @@
       </c>
       <c r="D92">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E92">
         <f t="shared" si="20"/>
@@ -10246,7 +10244,7 @@
       </c>
       <c r="G92">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H92">
         <f t="shared" si="22"/>
@@ -10269,7 +10267,7 @@
       </c>
       <c r="M92">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N92">
         <f t="shared" si="27"/>
@@ -10289,7 +10287,7 @@
       </c>
       <c r="D93">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E93">
         <f t="shared" si="20"/>
@@ -10301,7 +10299,7 @@
       </c>
       <c r="G93">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H93">
         <f t="shared" si="22"/>
@@ -10324,7 +10322,7 @@
       </c>
       <c r="M93">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N93">
         <f t="shared" si="27"/>
@@ -10344,7 +10342,7 @@
       </c>
       <c r="D94">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E94">
         <f t="shared" si="20"/>
@@ -10356,7 +10354,7 @@
       </c>
       <c r="G94">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H94">
         <f t="shared" si="22"/>
@@ -10379,7 +10377,7 @@
       </c>
       <c r="M94">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N94">
         <f t="shared" si="27"/>
@@ -10399,7 +10397,7 @@
       </c>
       <c r="D95">
         <f t="shared" si="9"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E95">
         <f t="shared" si="20"/>
@@ -10411,7 +10409,7 @@
       </c>
       <c r="G95">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H95">
         <f t="shared" si="22"/>
@@ -10434,7 +10432,7 @@
       </c>
       <c r="M95">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N95">
         <f t="shared" si="27"/>
@@ -10454,7 +10452,7 @@
       </c>
       <c r="D96">
         <f t="shared" ref="D96:D159" si="28">D95</f>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E96">
         <f t="shared" si="20"/>
@@ -10466,7 +10464,7 @@
       </c>
       <c r="G96">
         <f t="shared" ref="G96:G159" si="29">G95</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H96">
         <f t="shared" si="22"/>
@@ -10489,7 +10487,7 @@
       </c>
       <c r="M96">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N96">
         <f t="shared" si="27"/>
@@ -10509,7 +10507,7 @@
       </c>
       <c r="D97">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E97">
         <f t="shared" si="20"/>
@@ -10521,7 +10519,7 @@
       </c>
       <c r="G97">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H97">
         <f t="shared" si="22"/>
@@ -10544,7 +10542,7 @@
       </c>
       <c r="M97">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N97">
         <f t="shared" si="27"/>
@@ -10564,7 +10562,7 @@
       </c>
       <c r="D98">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E98">
         <f t="shared" si="20"/>
@@ -10576,7 +10574,7 @@
       </c>
       <c r="G98">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H98">
         <f t="shared" si="22"/>
@@ -10599,7 +10597,7 @@
       </c>
       <c r="M98">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N98">
         <f t="shared" si="27"/>
@@ -10619,7 +10617,7 @@
       </c>
       <c r="D99">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E99">
         <f t="shared" si="20"/>
@@ -10631,7 +10629,7 @@
       </c>
       <c r="G99">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H99">
         <f t="shared" si="22"/>
@@ -10654,7 +10652,7 @@
       </c>
       <c r="M99">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N99">
         <f t="shared" si="27"/>
@@ -10674,7 +10672,7 @@
       </c>
       <c r="D100">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E100">
         <f t="shared" si="20"/>
@@ -10686,7 +10684,7 @@
       </c>
       <c r="G100">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H100">
         <f t="shared" si="22"/>
@@ -10709,7 +10707,7 @@
       </c>
       <c r="M100">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N100">
         <f t="shared" si="27"/>
@@ -10729,7 +10727,7 @@
       </c>
       <c r="D101">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E101">
         <f t="shared" si="20"/>
@@ -10741,7 +10739,7 @@
       </c>
       <c r="G101">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H101">
         <f t="shared" si="22"/>
@@ -10764,7 +10762,7 @@
       </c>
       <c r="M101">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N101">
         <f t="shared" si="27"/>
@@ -10784,7 +10782,7 @@
       </c>
       <c r="D102">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E102">
         <f t="shared" si="20"/>
@@ -10796,7 +10794,7 @@
       </c>
       <c r="G102">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H102">
         <f t="shared" si="22"/>
@@ -10819,7 +10817,7 @@
       </c>
       <c r="M102">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N102">
         <f t="shared" si="27"/>
@@ -10839,7 +10837,7 @@
       </c>
       <c r="D103">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E103">
         <f t="shared" si="20"/>
@@ -10851,7 +10849,7 @@
       </c>
       <c r="G103">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H103">
         <f t="shared" si="22"/>
@@ -10874,7 +10872,7 @@
       </c>
       <c r="M103">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N103">
         <f t="shared" si="27"/>
@@ -10894,7 +10892,7 @@
       </c>
       <c r="D104">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E104">
         <f t="shared" si="20"/>
@@ -10906,7 +10904,7 @@
       </c>
       <c r="G104">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H104">
         <f t="shared" si="22"/>
@@ -10929,7 +10927,7 @@
       </c>
       <c r="M104">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N104">
         <f t="shared" si="27"/>
@@ -10949,7 +10947,7 @@
       </c>
       <c r="D105">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E105">
         <f t="shared" si="20"/>
@@ -10961,7 +10959,7 @@
       </c>
       <c r="G105">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H105">
         <f t="shared" si="22"/>
@@ -10984,7 +10982,7 @@
       </c>
       <c r="M105">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N105">
         <f t="shared" si="27"/>
@@ -11004,7 +11002,7 @@
       </c>
       <c r="D106">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E106">
         <f t="shared" si="20"/>
@@ -11016,7 +11014,7 @@
       </c>
       <c r="G106">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H106">
         <f t="shared" si="22"/>
@@ -11039,7 +11037,7 @@
       </c>
       <c r="M106">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N106">
         <f t="shared" si="27"/>
@@ -11059,7 +11057,7 @@
       </c>
       <c r="D107">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E107">
         <f t="shared" si="20"/>
@@ -11071,7 +11069,7 @@
       </c>
       <c r="G107">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H107">
         <f t="shared" si="22"/>
@@ -11094,7 +11092,7 @@
       </c>
       <c r="M107">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N107">
         <f t="shared" si="27"/>
@@ -11114,7 +11112,7 @@
       </c>
       <c r="D108">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E108">
         <f t="shared" si="20"/>
@@ -11126,7 +11124,7 @@
       </c>
       <c r="G108">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H108">
         <f t="shared" si="22"/>
@@ -11149,7 +11147,7 @@
       </c>
       <c r="M108">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N108">
         <f t="shared" si="27"/>
@@ -11169,7 +11167,7 @@
       </c>
       <c r="D109">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E109">
         <f t="shared" si="20"/>
@@ -11181,7 +11179,7 @@
       </c>
       <c r="G109">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H109">
         <f t="shared" si="22"/>
@@ -11204,7 +11202,7 @@
       </c>
       <c r="M109">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N109">
         <f t="shared" si="27"/>
@@ -11224,7 +11222,7 @@
       </c>
       <c r="D110">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E110">
         <f t="shared" si="20"/>
@@ -11236,7 +11234,7 @@
       </c>
       <c r="G110">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H110">
         <f t="shared" si="22"/>
@@ -11259,7 +11257,7 @@
       </c>
       <c r="M110">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N110">
         <f t="shared" si="27"/>
@@ -11279,7 +11277,7 @@
       </c>
       <c r="D111">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E111">
         <f t="shared" si="20"/>
@@ -11291,7 +11289,7 @@
       </c>
       <c r="G111">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H111">
         <f t="shared" si="22"/>
@@ -11314,7 +11312,7 @@
       </c>
       <c r="M111">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N111">
         <f t="shared" si="27"/>
@@ -11334,7 +11332,7 @@
       </c>
       <c r="D112">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E112">
         <f t="shared" si="20"/>
@@ -11346,7 +11344,7 @@
       </c>
       <c r="G112">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H112">
         <f t="shared" si="22"/>
@@ -11369,7 +11367,7 @@
       </c>
       <c r="M112">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N112">
         <f t="shared" si="27"/>
@@ -11389,7 +11387,7 @@
       </c>
       <c r="D113">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E113">
         <f t="shared" si="20"/>
@@ -11401,7 +11399,7 @@
       </c>
       <c r="G113">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H113">
         <f t="shared" si="22"/>
@@ -11424,7 +11422,7 @@
       </c>
       <c r="M113">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N113">
         <f t="shared" si="27"/>
@@ -11444,7 +11442,7 @@
       </c>
       <c r="D114">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E114">
         <f t="shared" si="20"/>
@@ -11456,7 +11454,7 @@
       </c>
       <c r="G114">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H114">
         <f t="shared" si="22"/>
@@ -11479,7 +11477,7 @@
       </c>
       <c r="M114">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N114">
         <f t="shared" si="27"/>
@@ -11499,7 +11497,7 @@
       </c>
       <c r="D115">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E115">
         <f t="shared" si="20"/>
@@ -11511,7 +11509,7 @@
       </c>
       <c r="G115">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H115">
         <f t="shared" si="22"/>
@@ -11534,7 +11532,7 @@
       </c>
       <c r="M115">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N115">
         <f t="shared" si="27"/>
@@ -11554,7 +11552,7 @@
       </c>
       <c r="D116">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E116">
         <f t="shared" si="20"/>
@@ -11566,7 +11564,7 @@
       </c>
       <c r="G116">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H116">
         <f t="shared" si="22"/>
@@ -11589,7 +11587,7 @@
       </c>
       <c r="M116">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N116">
         <f t="shared" si="27"/>
@@ -11609,7 +11607,7 @@
       </c>
       <c r="D117">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E117">
         <f t="shared" si="20"/>
@@ -11621,7 +11619,7 @@
       </c>
       <c r="G117">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H117">
         <f t="shared" si="22"/>
@@ -11644,7 +11642,7 @@
       </c>
       <c r="M117">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N117">
         <f t="shared" si="27"/>
@@ -11664,7 +11662,7 @@
       </c>
       <c r="D118">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E118">
         <f t="shared" si="20"/>
@@ -11676,7 +11674,7 @@
       </c>
       <c r="G118">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H118">
         <f t="shared" si="22"/>
@@ -11699,7 +11697,7 @@
       </c>
       <c r="M118">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N118">
         <f t="shared" si="27"/>
@@ -11719,7 +11717,7 @@
       </c>
       <c r="D119">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E119">
         <f t="shared" si="20"/>
@@ -11731,7 +11729,7 @@
       </c>
       <c r="G119">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H119">
         <f t="shared" si="22"/>
@@ -11754,7 +11752,7 @@
       </c>
       <c r="M119">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N119">
         <f t="shared" si="27"/>
@@ -11774,7 +11772,7 @@
       </c>
       <c r="D120">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E120">
         <f t="shared" si="20"/>
@@ -11786,7 +11784,7 @@
       </c>
       <c r="G120">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H120">
         <f t="shared" si="22"/>
@@ -11809,7 +11807,7 @@
       </c>
       <c r="M120">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N120">
         <f t="shared" si="27"/>
@@ -11829,7 +11827,7 @@
       </c>
       <c r="D121">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E121">
         <f t="shared" si="20"/>
@@ -11841,7 +11839,7 @@
       </c>
       <c r="G121">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H121">
         <f t="shared" si="22"/>
@@ -11864,7 +11862,7 @@
       </c>
       <c r="M121">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N121">
         <f t="shared" si="27"/>
@@ -11884,7 +11882,7 @@
       </c>
       <c r="D122">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E122">
         <f t="shared" si="20"/>
@@ -11896,7 +11894,7 @@
       </c>
       <c r="G122">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H122">
         <f t="shared" si="22"/>
@@ -11919,7 +11917,7 @@
       </c>
       <c r="M122">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N122">
         <f t="shared" si="27"/>
@@ -11939,7 +11937,7 @@
       </c>
       <c r="D123">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E123">
         <f t="shared" si="20"/>
@@ -11951,7 +11949,7 @@
       </c>
       <c r="G123">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H123">
         <f t="shared" si="22"/>
@@ -11974,7 +11972,7 @@
       </c>
       <c r="M123">
         <f t="shared" si="26"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N123">
         <f t="shared" si="27"/>
@@ -11994,7 +11992,7 @@
       </c>
       <c r="D124">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E124">
         <f t="shared" ref="E124:E187" si="31">D124-D123</f>
@@ -12006,7 +12004,7 @@
       </c>
       <c r="G124">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H124">
         <f t="shared" ref="H124:H187" si="33">G124-G123</f>
@@ -12029,7 +12027,7 @@
       </c>
       <c r="M124">
         <f t="shared" ref="M124:M187" si="37">D124-G124-J124</f>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N124">
         <f t="shared" si="27"/>
@@ -12049,7 +12047,7 @@
       </c>
       <c r="D125">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E125">
         <f t="shared" si="31"/>
@@ -12061,7 +12059,7 @@
       </c>
       <c r="G125">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H125">
         <f t="shared" si="33"/>
@@ -12084,7 +12082,7 @@
       </c>
       <c r="M125">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N125">
         <f t="shared" si="27"/>
@@ -12104,7 +12102,7 @@
       </c>
       <c r="D126">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E126">
         <f t="shared" si="31"/>
@@ -12116,7 +12114,7 @@
       </c>
       <c r="G126">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H126">
         <f t="shared" si="33"/>
@@ -12139,7 +12137,7 @@
       </c>
       <c r="M126">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N126">
         <f t="shared" si="27"/>
@@ -12159,7 +12157,7 @@
       </c>
       <c r="D127">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E127">
         <f t="shared" si="31"/>
@@ -12171,7 +12169,7 @@
       </c>
       <c r="G127">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H127">
         <f t="shared" si="33"/>
@@ -12194,7 +12192,7 @@
       </c>
       <c r="M127">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N127">
         <f t="shared" si="27"/>
@@ -12214,7 +12212,7 @@
       </c>
       <c r="D128">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E128">
         <f t="shared" si="31"/>
@@ -12226,7 +12224,7 @@
       </c>
       <c r="G128">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H128">
         <f t="shared" si="33"/>
@@ -12249,7 +12247,7 @@
       </c>
       <c r="M128">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N128">
         <f t="shared" si="27"/>
@@ -12269,7 +12267,7 @@
       </c>
       <c r="D129">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E129">
         <f t="shared" si="31"/>
@@ -12281,7 +12279,7 @@
       </c>
       <c r="G129">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H129">
         <f t="shared" si="33"/>
@@ -12304,7 +12302,7 @@
       </c>
       <c r="M129">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N129">
         <f t="shared" si="27"/>
@@ -12324,7 +12322,7 @@
       </c>
       <c r="D130">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E130">
         <f t="shared" si="31"/>
@@ -12336,7 +12334,7 @@
       </c>
       <c r="G130">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H130">
         <f t="shared" si="33"/>
@@ -12359,7 +12357,7 @@
       </c>
       <c r="M130">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N130">
         <f t="shared" si="27"/>
@@ -12379,7 +12377,7 @@
       </c>
       <c r="D131">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E131">
         <f t="shared" si="31"/>
@@ -12391,7 +12389,7 @@
       </c>
       <c r="G131">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H131">
         <f t="shared" si="33"/>
@@ -12414,7 +12412,7 @@
       </c>
       <c r="M131">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N131">
         <f t="shared" si="27"/>
@@ -12434,7 +12432,7 @@
       </c>
       <c r="D132">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E132">
         <f t="shared" si="31"/>
@@ -12446,7 +12444,7 @@
       </c>
       <c r="G132">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H132">
         <f t="shared" si="33"/>
@@ -12469,7 +12467,7 @@
       </c>
       <c r="M132">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N132">
         <f t="shared" si="27"/>
@@ -12489,7 +12487,7 @@
       </c>
       <c r="D133">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E133">
         <f t="shared" si="31"/>
@@ -12501,7 +12499,7 @@
       </c>
       <c r="G133">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H133">
         <f t="shared" si="33"/>
@@ -12524,7 +12522,7 @@
       </c>
       <c r="M133">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N133">
         <f t="shared" ref="N133:N196" si="38">A133^2.3</f>
@@ -12544,7 +12542,7 @@
       </c>
       <c r="D134">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E134">
         <f t="shared" si="31"/>
@@ -12556,7 +12554,7 @@
       </c>
       <c r="G134">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H134">
         <f t="shared" si="33"/>
@@ -12579,7 +12577,7 @@
       </c>
       <c r="M134">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N134">
         <f t="shared" si="38"/>
@@ -12599,7 +12597,7 @@
       </c>
       <c r="D135">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E135">
         <f t="shared" si="31"/>
@@ -12611,7 +12609,7 @@
       </c>
       <c r="G135">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H135">
         <f t="shared" si="33"/>
@@ -12634,7 +12632,7 @@
       </c>
       <c r="M135">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N135">
         <f t="shared" si="38"/>
@@ -12654,7 +12652,7 @@
       </c>
       <c r="D136">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E136">
         <f t="shared" si="31"/>
@@ -12666,7 +12664,7 @@
       </c>
       <c r="G136">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H136">
         <f t="shared" si="33"/>
@@ -12689,7 +12687,7 @@
       </c>
       <c r="M136">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N136">
         <f t="shared" si="38"/>
@@ -12709,7 +12707,7 @@
       </c>
       <c r="D137">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E137">
         <f t="shared" si="31"/>
@@ -12721,7 +12719,7 @@
       </c>
       <c r="G137">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H137">
         <f t="shared" si="33"/>
@@ -12744,7 +12742,7 @@
       </c>
       <c r="M137">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N137">
         <f t="shared" si="38"/>
@@ -12764,7 +12762,7 @@
       </c>
       <c r="D138">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E138">
         <f t="shared" si="31"/>
@@ -12776,7 +12774,7 @@
       </c>
       <c r="G138">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H138">
         <f t="shared" si="33"/>
@@ -12799,7 +12797,7 @@
       </c>
       <c r="M138">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N138">
         <f t="shared" si="38"/>
@@ -12819,7 +12817,7 @@
       </c>
       <c r="D139">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E139">
         <f t="shared" si="31"/>
@@ -12831,7 +12829,7 @@
       </c>
       <c r="G139">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H139">
         <f t="shared" si="33"/>
@@ -12854,7 +12852,7 @@
       </c>
       <c r="M139">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N139">
         <f t="shared" si="38"/>
@@ -12874,7 +12872,7 @@
       </c>
       <c r="D140">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E140">
         <f t="shared" si="31"/>
@@ -12886,7 +12884,7 @@
       </c>
       <c r="G140">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H140">
         <f t="shared" si="33"/>
@@ -12909,7 +12907,7 @@
       </c>
       <c r="M140">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N140">
         <f t="shared" si="38"/>
@@ -12929,7 +12927,7 @@
       </c>
       <c r="D141">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E141">
         <f t="shared" si="31"/>
@@ -12941,7 +12939,7 @@
       </c>
       <c r="G141">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H141">
         <f t="shared" si="33"/>
@@ -12964,7 +12962,7 @@
       </c>
       <c r="M141">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N141">
         <f t="shared" si="38"/>
@@ -12984,7 +12982,7 @@
       </c>
       <c r="D142">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E142">
         <f t="shared" si="31"/>
@@ -12996,7 +12994,7 @@
       </c>
       <c r="G142">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H142">
         <f t="shared" si="33"/>
@@ -13019,7 +13017,7 @@
       </c>
       <c r="M142">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N142">
         <f t="shared" si="38"/>
@@ -13039,7 +13037,7 @@
       </c>
       <c r="D143">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E143">
         <f t="shared" si="31"/>
@@ -13051,7 +13049,7 @@
       </c>
       <c r="G143">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H143">
         <f t="shared" si="33"/>
@@ -13074,7 +13072,7 @@
       </c>
       <c r="M143">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N143">
         <f t="shared" si="38"/>
@@ -13094,7 +13092,7 @@
       </c>
       <c r="D144">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E144">
         <f t="shared" si="31"/>
@@ -13106,7 +13104,7 @@
       </c>
       <c r="G144">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H144">
         <f t="shared" si="33"/>
@@ -13129,7 +13127,7 @@
       </c>
       <c r="M144">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N144">
         <f t="shared" si="38"/>
@@ -13149,7 +13147,7 @@
       </c>
       <c r="D145">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E145">
         <f t="shared" si="31"/>
@@ -13161,7 +13159,7 @@
       </c>
       <c r="G145">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H145">
         <f t="shared" si="33"/>
@@ -13184,7 +13182,7 @@
       </c>
       <c r="M145">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N145">
         <f t="shared" si="38"/>
@@ -13204,7 +13202,7 @@
       </c>
       <c r="D146">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E146">
         <f t="shared" si="31"/>
@@ -13216,7 +13214,7 @@
       </c>
       <c r="G146">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H146">
         <f t="shared" si="33"/>
@@ -13239,7 +13237,7 @@
       </c>
       <c r="M146">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N146">
         <f t="shared" si="38"/>
@@ -13259,7 +13257,7 @@
       </c>
       <c r="D147">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E147">
         <f t="shared" si="31"/>
@@ -13271,7 +13269,7 @@
       </c>
       <c r="G147">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H147">
         <f t="shared" si="33"/>
@@ -13294,7 +13292,7 @@
       </c>
       <c r="M147">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N147">
         <f t="shared" si="38"/>
@@ -13314,7 +13312,7 @@
       </c>
       <c r="D148">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E148">
         <f t="shared" si="31"/>
@@ -13326,7 +13324,7 @@
       </c>
       <c r="G148">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H148">
         <f t="shared" si="33"/>
@@ -13349,7 +13347,7 @@
       </c>
       <c r="M148">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N148">
         <f t="shared" si="38"/>
@@ -13369,7 +13367,7 @@
       </c>
       <c r="D149">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E149">
         <f t="shared" si="31"/>
@@ -13381,7 +13379,7 @@
       </c>
       <c r="G149">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H149">
         <f t="shared" si="33"/>
@@ -13404,7 +13402,7 @@
       </c>
       <c r="M149">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N149">
         <f t="shared" si="38"/>
@@ -13424,7 +13422,7 @@
       </c>
       <c r="D150">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E150">
         <f t="shared" si="31"/>
@@ -13436,7 +13434,7 @@
       </c>
       <c r="G150">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H150">
         <f t="shared" si="33"/>
@@ -13459,7 +13457,7 @@
       </c>
       <c r="M150">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N150">
         <f t="shared" si="38"/>
@@ -13479,7 +13477,7 @@
       </c>
       <c r="D151">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E151">
         <f t="shared" si="31"/>
@@ -13491,7 +13489,7 @@
       </c>
       <c r="G151">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H151">
         <f t="shared" si="33"/>
@@ -13514,7 +13512,7 @@
       </c>
       <c r="M151">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N151">
         <f t="shared" si="38"/>
@@ -13534,7 +13532,7 @@
       </c>
       <c r="D152">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E152">
         <f t="shared" si="31"/>
@@ -13546,7 +13544,7 @@
       </c>
       <c r="G152">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H152">
         <f t="shared" si="33"/>
@@ -13569,7 +13567,7 @@
       </c>
       <c r="M152">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N152">
         <f t="shared" si="38"/>
@@ -13589,7 +13587,7 @@
       </c>
       <c r="D153">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E153">
         <f t="shared" si="31"/>
@@ -13601,7 +13599,7 @@
       </c>
       <c r="G153">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H153">
         <f t="shared" si="33"/>
@@ -13624,7 +13622,7 @@
       </c>
       <c r="M153">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N153">
         <f t="shared" si="38"/>
@@ -13644,7 +13642,7 @@
       </c>
       <c r="D154">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E154">
         <f t="shared" si="31"/>
@@ -13656,7 +13654,7 @@
       </c>
       <c r="G154">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H154">
         <f t="shared" si="33"/>
@@ -13679,7 +13677,7 @@
       </c>
       <c r="M154">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N154">
         <f t="shared" si="38"/>
@@ -13699,7 +13697,7 @@
       </c>
       <c r="D155">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E155">
         <f t="shared" si="31"/>
@@ -13711,7 +13709,7 @@
       </c>
       <c r="G155">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H155">
         <f t="shared" si="33"/>
@@ -13734,7 +13732,7 @@
       </c>
       <c r="M155">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N155">
         <f t="shared" si="38"/>
@@ -13754,7 +13752,7 @@
       </c>
       <c r="D156">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E156">
         <f t="shared" si="31"/>
@@ -13766,7 +13764,7 @@
       </c>
       <c r="G156">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H156">
         <f t="shared" si="33"/>
@@ -13789,7 +13787,7 @@
       </c>
       <c r="M156">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N156">
         <f t="shared" si="38"/>
@@ -13809,7 +13807,7 @@
       </c>
       <c r="D157">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E157">
         <f t="shared" si="31"/>
@@ -13821,7 +13819,7 @@
       </c>
       <c r="G157">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H157">
         <f t="shared" si="33"/>
@@ -13844,7 +13842,7 @@
       </c>
       <c r="M157">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N157">
         <f t="shared" si="38"/>
@@ -13864,7 +13862,7 @@
       </c>
       <c r="D158">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E158">
         <f t="shared" si="31"/>
@@ -13876,7 +13874,7 @@
       </c>
       <c r="G158">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H158">
         <f t="shared" si="33"/>
@@ -13899,7 +13897,7 @@
       </c>
       <c r="M158">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N158">
         <f t="shared" si="38"/>
@@ -13919,7 +13917,7 @@
       </c>
       <c r="D159">
         <f t="shared" si="28"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E159">
         <f t="shared" si="31"/>
@@ -13931,7 +13929,7 @@
       </c>
       <c r="G159">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H159">
         <f t="shared" si="33"/>
@@ -13954,7 +13952,7 @@
       </c>
       <c r="M159">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N159">
         <f t="shared" si="38"/>
@@ -13974,7 +13972,7 @@
       </c>
       <c r="D160">
         <f t="shared" ref="D160:D223" si="39">D159</f>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E160">
         <f t="shared" si="31"/>
@@ -13986,7 +13984,7 @@
       </c>
       <c r="G160">
         <f t="shared" ref="G160:G223" si="40">G159</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H160">
         <f t="shared" si="33"/>
@@ -14009,7 +14007,7 @@
       </c>
       <c r="M160">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N160">
         <f t="shared" si="38"/>
@@ -14029,7 +14027,7 @@
       </c>
       <c r="D161">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E161">
         <f t="shared" si="31"/>
@@ -14041,7 +14039,7 @@
       </c>
       <c r="G161">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H161">
         <f t="shared" si="33"/>
@@ -14064,7 +14062,7 @@
       </c>
       <c r="M161">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N161">
         <f t="shared" si="38"/>
@@ -14084,7 +14082,7 @@
       </c>
       <c r="D162">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E162">
         <f t="shared" si="31"/>
@@ -14096,7 +14094,7 @@
       </c>
       <c r="G162">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H162">
         <f t="shared" si="33"/>
@@ -14119,7 +14117,7 @@
       </c>
       <c r="M162">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N162">
         <f t="shared" si="38"/>
@@ -14139,7 +14137,7 @@
       </c>
       <c r="D163">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E163">
         <f t="shared" si="31"/>
@@ -14151,7 +14149,7 @@
       </c>
       <c r="G163">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H163">
         <f t="shared" si="33"/>
@@ -14174,7 +14172,7 @@
       </c>
       <c r="M163">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N163">
         <f t="shared" si="38"/>
@@ -14194,7 +14192,7 @@
       </c>
       <c r="D164">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E164">
         <f t="shared" si="31"/>
@@ -14206,7 +14204,7 @@
       </c>
       <c r="G164">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H164">
         <f t="shared" si="33"/>
@@ -14229,7 +14227,7 @@
       </c>
       <c r="M164">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N164">
         <f t="shared" si="38"/>
@@ -14249,7 +14247,7 @@
       </c>
       <c r="D165">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E165">
         <f t="shared" si="31"/>
@@ -14261,7 +14259,7 @@
       </c>
       <c r="G165">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H165">
         <f t="shared" si="33"/>
@@ -14284,7 +14282,7 @@
       </c>
       <c r="M165">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N165">
         <f t="shared" si="38"/>
@@ -14304,7 +14302,7 @@
       </c>
       <c r="D166">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E166">
         <f t="shared" si="31"/>
@@ -14316,7 +14314,7 @@
       </c>
       <c r="G166">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H166">
         <f t="shared" si="33"/>
@@ -14339,7 +14337,7 @@
       </c>
       <c r="M166">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N166">
         <f t="shared" si="38"/>
@@ -14359,7 +14357,7 @@
       </c>
       <c r="D167">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E167">
         <f t="shared" si="31"/>
@@ -14371,7 +14369,7 @@
       </c>
       <c r="G167">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H167">
         <f t="shared" si="33"/>
@@ -14394,7 +14392,7 @@
       </c>
       <c r="M167">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N167">
         <f t="shared" si="38"/>
@@ -14414,7 +14412,7 @@
       </c>
       <c r="D168">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E168">
         <f t="shared" si="31"/>
@@ -14426,7 +14424,7 @@
       </c>
       <c r="G168">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H168">
         <f t="shared" si="33"/>
@@ -14449,7 +14447,7 @@
       </c>
       <c r="M168">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N168">
         <f t="shared" si="38"/>
@@ -14469,7 +14467,7 @@
       </c>
       <c r="D169">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E169">
         <f t="shared" si="31"/>
@@ -14481,7 +14479,7 @@
       </c>
       <c r="G169">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H169">
         <f t="shared" si="33"/>
@@ -14504,7 +14502,7 @@
       </c>
       <c r="M169">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N169">
         <f t="shared" si="38"/>
@@ -14524,7 +14522,7 @@
       </c>
       <c r="D170">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E170">
         <f t="shared" si="31"/>
@@ -14536,7 +14534,7 @@
       </c>
       <c r="G170">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H170">
         <f t="shared" si="33"/>
@@ -14559,7 +14557,7 @@
       </c>
       <c r="M170">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N170">
         <f t="shared" si="38"/>
@@ -14579,7 +14577,7 @@
       </c>
       <c r="D171">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E171">
         <f t="shared" si="31"/>
@@ -14591,7 +14589,7 @@
       </c>
       <c r="G171">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H171">
         <f t="shared" si="33"/>
@@ -14614,7 +14612,7 @@
       </c>
       <c r="M171">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N171">
         <f t="shared" si="38"/>
@@ -14634,7 +14632,7 @@
       </c>
       <c r="D172">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E172">
         <f t="shared" si="31"/>
@@ -14646,7 +14644,7 @@
       </c>
       <c r="G172">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H172">
         <f t="shared" si="33"/>
@@ -14669,7 +14667,7 @@
       </c>
       <c r="M172">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N172">
         <f t="shared" si="38"/>
@@ -14689,7 +14687,7 @@
       </c>
       <c r="D173">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E173">
         <f t="shared" si="31"/>
@@ -14701,7 +14699,7 @@
       </c>
       <c r="G173">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H173">
         <f t="shared" si="33"/>
@@ -14724,7 +14722,7 @@
       </c>
       <c r="M173">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N173">
         <f t="shared" si="38"/>
@@ -14744,7 +14742,7 @@
       </c>
       <c r="D174">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E174">
         <f t="shared" si="31"/>
@@ -14756,7 +14754,7 @@
       </c>
       <c r="G174">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H174">
         <f t="shared" si="33"/>
@@ -14779,7 +14777,7 @@
       </c>
       <c r="M174">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N174">
         <f t="shared" si="38"/>
@@ -14799,7 +14797,7 @@
       </c>
       <c r="D175">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E175">
         <f t="shared" si="31"/>
@@ -14811,7 +14809,7 @@
       </c>
       <c r="G175">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H175">
         <f t="shared" si="33"/>
@@ -14834,7 +14832,7 @@
       </c>
       <c r="M175">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N175">
         <f t="shared" si="38"/>
@@ -14854,7 +14852,7 @@
       </c>
       <c r="D176">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E176">
         <f t="shared" si="31"/>
@@ -14866,7 +14864,7 @@
       </c>
       <c r="G176">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H176">
         <f t="shared" si="33"/>
@@ -14889,7 +14887,7 @@
       </c>
       <c r="M176">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N176">
         <f t="shared" si="38"/>
@@ -14909,7 +14907,7 @@
       </c>
       <c r="D177">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E177">
         <f t="shared" si="31"/>
@@ -14921,7 +14919,7 @@
       </c>
       <c r="G177">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H177">
         <f t="shared" si="33"/>
@@ -14944,7 +14942,7 @@
       </c>
       <c r="M177">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N177">
         <f t="shared" si="38"/>
@@ -14964,7 +14962,7 @@
       </c>
       <c r="D178">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E178">
         <f t="shared" si="31"/>
@@ -14976,7 +14974,7 @@
       </c>
       <c r="G178">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H178">
         <f t="shared" si="33"/>
@@ -14999,7 +14997,7 @@
       </c>
       <c r="M178">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N178">
         <f t="shared" si="38"/>
@@ -15019,7 +15017,7 @@
       </c>
       <c r="D179">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E179">
         <f t="shared" si="31"/>
@@ -15031,7 +15029,7 @@
       </c>
       <c r="G179">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H179">
         <f t="shared" si="33"/>
@@ -15054,7 +15052,7 @@
       </c>
       <c r="M179">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N179">
         <f t="shared" si="38"/>
@@ -15074,7 +15072,7 @@
       </c>
       <c r="D180">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E180">
         <f t="shared" si="31"/>
@@ -15086,7 +15084,7 @@
       </c>
       <c r="G180">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H180">
         <f t="shared" si="33"/>
@@ -15109,7 +15107,7 @@
       </c>
       <c r="M180">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N180">
         <f t="shared" si="38"/>
@@ -15129,7 +15127,7 @@
       </c>
       <c r="D181">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E181">
         <f t="shared" si="31"/>
@@ -15141,7 +15139,7 @@
       </c>
       <c r="G181">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H181">
         <f t="shared" si="33"/>
@@ -15164,7 +15162,7 @@
       </c>
       <c r="M181">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N181">
         <f t="shared" si="38"/>
@@ -15184,7 +15182,7 @@
       </c>
       <c r="D182">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E182">
         <f t="shared" si="31"/>
@@ -15196,7 +15194,7 @@
       </c>
       <c r="G182">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H182">
         <f t="shared" si="33"/>
@@ -15219,7 +15217,7 @@
       </c>
       <c r="M182">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N182">
         <f t="shared" si="38"/>
@@ -15239,7 +15237,7 @@
       </c>
       <c r="D183">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E183">
         <f t="shared" si="31"/>
@@ -15251,7 +15249,7 @@
       </c>
       <c r="G183">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H183">
         <f t="shared" si="33"/>
@@ -15274,7 +15272,7 @@
       </c>
       <c r="M183">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N183">
         <f t="shared" si="38"/>
@@ -15294,7 +15292,7 @@
       </c>
       <c r="D184">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E184">
         <f t="shared" si="31"/>
@@ -15306,7 +15304,7 @@
       </c>
       <c r="G184">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H184">
         <f t="shared" si="33"/>
@@ -15329,7 +15327,7 @@
       </c>
       <c r="M184">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N184">
         <f t="shared" si="38"/>
@@ -15349,7 +15347,7 @@
       </c>
       <c r="D185">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E185">
         <f t="shared" si="31"/>
@@ -15361,7 +15359,7 @@
       </c>
       <c r="G185">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H185">
         <f t="shared" si="33"/>
@@ -15384,7 +15382,7 @@
       </c>
       <c r="M185">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N185">
         <f t="shared" si="38"/>
@@ -15404,7 +15402,7 @@
       </c>
       <c r="D186">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E186">
         <f t="shared" si="31"/>
@@ -15416,7 +15414,7 @@
       </c>
       <c r="G186">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H186">
         <f t="shared" si="33"/>
@@ -15439,7 +15437,7 @@
       </c>
       <c r="M186">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N186">
         <f t="shared" si="38"/>
@@ -15459,7 +15457,7 @@
       </c>
       <c r="D187">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E187">
         <f t="shared" si="31"/>
@@ -15471,7 +15469,7 @@
       </c>
       <c r="G187">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H187">
         <f t="shared" si="33"/>
@@ -15494,7 +15492,7 @@
       </c>
       <c r="M187">
         <f t="shared" si="37"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N187">
         <f t="shared" si="38"/>
@@ -15514,7 +15512,7 @@
       </c>
       <c r="D188">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E188">
         <f t="shared" ref="E188:E251" si="42">D188-D187</f>
@@ -15526,7 +15524,7 @@
       </c>
       <c r="G188">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H188">
         <f t="shared" ref="H188:H251" si="44">G188-G187</f>
@@ -15549,7 +15547,7 @@
       </c>
       <c r="M188">
         <f t="shared" ref="M188:M251" si="48">D188-G188-J188</f>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N188">
         <f t="shared" si="38"/>
@@ -15569,7 +15567,7 @@
       </c>
       <c r="D189">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E189">
         <f t="shared" si="42"/>
@@ -15581,7 +15579,7 @@
       </c>
       <c r="G189">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H189">
         <f t="shared" si="44"/>
@@ -15604,7 +15602,7 @@
       </c>
       <c r="M189">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N189">
         <f t="shared" si="38"/>
@@ -15624,7 +15622,7 @@
       </c>
       <c r="D190">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E190">
         <f t="shared" si="42"/>
@@ -15636,7 +15634,7 @@
       </c>
       <c r="G190">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H190">
         <f t="shared" si="44"/>
@@ -15659,7 +15657,7 @@
       </c>
       <c r="M190">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N190">
         <f t="shared" si="38"/>
@@ -15679,7 +15677,7 @@
       </c>
       <c r="D191">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E191">
         <f t="shared" si="42"/>
@@ -15691,7 +15689,7 @@
       </c>
       <c r="G191">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H191">
         <f t="shared" si="44"/>
@@ -15714,7 +15712,7 @@
       </c>
       <c r="M191">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N191">
         <f t="shared" si="38"/>
@@ -15734,7 +15732,7 @@
       </c>
       <c r="D192">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E192">
         <f t="shared" si="42"/>
@@ -15746,7 +15744,7 @@
       </c>
       <c r="G192">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H192">
         <f t="shared" si="44"/>
@@ -15769,7 +15767,7 @@
       </c>
       <c r="M192">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N192">
         <f t="shared" si="38"/>
@@ -15789,7 +15787,7 @@
       </c>
       <c r="D193">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E193">
         <f t="shared" si="42"/>
@@ -15801,7 +15799,7 @@
       </c>
       <c r="G193">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H193">
         <f t="shared" si="44"/>
@@ -15824,7 +15822,7 @@
       </c>
       <c r="M193">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N193">
         <f t="shared" si="38"/>
@@ -15844,7 +15842,7 @@
       </c>
       <c r="D194">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E194">
         <f t="shared" si="42"/>
@@ -15856,7 +15854,7 @@
       </c>
       <c r="G194">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H194">
         <f t="shared" si="44"/>
@@ -15879,7 +15877,7 @@
       </c>
       <c r="M194">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N194">
         <f t="shared" si="38"/>
@@ -15899,7 +15897,7 @@
       </c>
       <c r="D195">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E195">
         <f t="shared" si="42"/>
@@ -15911,7 +15909,7 @@
       </c>
       <c r="G195">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H195">
         <f t="shared" si="44"/>
@@ -15934,7 +15932,7 @@
       </c>
       <c r="M195">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N195">
         <f t="shared" si="38"/>
@@ -15954,7 +15952,7 @@
       </c>
       <c r="D196">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E196">
         <f t="shared" si="42"/>
@@ -15966,7 +15964,7 @@
       </c>
       <c r="G196">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H196">
         <f t="shared" si="44"/>
@@ -15989,7 +15987,7 @@
       </c>
       <c r="M196">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N196">
         <f t="shared" si="38"/>
@@ -16009,7 +16007,7 @@
       </c>
       <c r="D197">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E197">
         <f t="shared" si="42"/>
@@ -16021,7 +16019,7 @@
       </c>
       <c r="G197">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H197">
         <f t="shared" si="44"/>
@@ -16044,7 +16042,7 @@
       </c>
       <c r="M197">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N197">
         <f t="shared" ref="N197:N260" si="49">A197^2.3</f>
@@ -16064,7 +16062,7 @@
       </c>
       <c r="D198">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E198">
         <f t="shared" si="42"/>
@@ -16076,7 +16074,7 @@
       </c>
       <c r="G198">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H198">
         <f t="shared" si="44"/>
@@ -16099,7 +16097,7 @@
       </c>
       <c r="M198">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N198">
         <f t="shared" si="49"/>
@@ -16119,7 +16117,7 @@
       </c>
       <c r="D199">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E199">
         <f t="shared" si="42"/>
@@ -16131,7 +16129,7 @@
       </c>
       <c r="G199">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H199">
         <f t="shared" si="44"/>
@@ -16154,7 +16152,7 @@
       </c>
       <c r="M199">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N199">
         <f t="shared" si="49"/>
@@ -16174,7 +16172,7 @@
       </c>
       <c r="D200">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E200">
         <f t="shared" si="42"/>
@@ -16186,7 +16184,7 @@
       </c>
       <c r="G200">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H200">
         <f t="shared" si="44"/>
@@ -16209,7 +16207,7 @@
       </c>
       <c r="M200">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N200">
         <f t="shared" si="49"/>
@@ -16229,7 +16227,7 @@
       </c>
       <c r="D201">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E201">
         <f t="shared" si="42"/>
@@ -16241,7 +16239,7 @@
       </c>
       <c r="G201">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H201">
         <f t="shared" si="44"/>
@@ -16264,7 +16262,7 @@
       </c>
       <c r="M201">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N201">
         <f t="shared" si="49"/>
@@ -16284,7 +16282,7 @@
       </c>
       <c r="D202">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E202">
         <f t="shared" si="42"/>
@@ -16296,7 +16294,7 @@
       </c>
       <c r="G202">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H202">
         <f t="shared" si="44"/>
@@ -16319,7 +16317,7 @@
       </c>
       <c r="M202">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N202">
         <f t="shared" si="49"/>
@@ -16339,7 +16337,7 @@
       </c>
       <c r="D203">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E203">
         <f t="shared" si="42"/>
@@ -16351,7 +16349,7 @@
       </c>
       <c r="G203">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H203">
         <f t="shared" si="44"/>
@@ -16374,7 +16372,7 @@
       </c>
       <c r="M203">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N203">
         <f t="shared" si="49"/>
@@ -16394,7 +16392,7 @@
       </c>
       <c r="D204">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E204">
         <f t="shared" si="42"/>
@@ -16406,7 +16404,7 @@
       </c>
       <c r="G204">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H204">
         <f t="shared" si="44"/>
@@ -16429,7 +16427,7 @@
       </c>
       <c r="M204">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N204">
         <f t="shared" si="49"/>
@@ -16449,7 +16447,7 @@
       </c>
       <c r="D205">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E205">
         <f t="shared" si="42"/>
@@ -16461,7 +16459,7 @@
       </c>
       <c r="G205">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H205">
         <f t="shared" si="44"/>
@@ -16484,7 +16482,7 @@
       </c>
       <c r="M205">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N205">
         <f t="shared" si="49"/>
@@ -16504,7 +16502,7 @@
       </c>
       <c r="D206">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E206">
         <f t="shared" si="42"/>
@@ -16516,7 +16514,7 @@
       </c>
       <c r="G206">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H206">
         <f t="shared" si="44"/>
@@ -16539,7 +16537,7 @@
       </c>
       <c r="M206">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N206">
         <f t="shared" si="49"/>
@@ -16559,7 +16557,7 @@
       </c>
       <c r="D207">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E207">
         <f t="shared" si="42"/>
@@ -16571,7 +16569,7 @@
       </c>
       <c r="G207">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H207">
         <f t="shared" si="44"/>
@@ -16594,7 +16592,7 @@
       </c>
       <c r="M207">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N207">
         <f t="shared" si="49"/>
@@ -16614,7 +16612,7 @@
       </c>
       <c r="D208">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E208">
         <f t="shared" si="42"/>
@@ -16626,7 +16624,7 @@
       </c>
       <c r="G208">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H208">
         <f t="shared" si="44"/>
@@ -16649,7 +16647,7 @@
       </c>
       <c r="M208">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N208">
         <f t="shared" si="49"/>
@@ -16669,7 +16667,7 @@
       </c>
       <c r="D209">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E209">
         <f t="shared" si="42"/>
@@ -16681,7 +16679,7 @@
       </c>
       <c r="G209">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H209">
         <f t="shared" si="44"/>
@@ -16704,7 +16702,7 @@
       </c>
       <c r="M209">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N209">
         <f t="shared" si="49"/>
@@ -16724,7 +16722,7 @@
       </c>
       <c r="D210">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E210">
         <f t="shared" si="42"/>
@@ -16736,7 +16734,7 @@
       </c>
       <c r="G210">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H210">
         <f t="shared" si="44"/>
@@ -16759,7 +16757,7 @@
       </c>
       <c r="M210">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N210">
         <f t="shared" si="49"/>
@@ -16779,7 +16777,7 @@
       </c>
       <c r="D211">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E211">
         <f t="shared" si="42"/>
@@ -16791,7 +16789,7 @@
       </c>
       <c r="G211">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H211">
         <f t="shared" si="44"/>
@@ -16814,7 +16812,7 @@
       </c>
       <c r="M211">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N211">
         <f t="shared" si="49"/>
@@ -16834,7 +16832,7 @@
       </c>
       <c r="D212">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E212">
         <f t="shared" si="42"/>
@@ -16846,7 +16844,7 @@
       </c>
       <c r="G212">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H212">
         <f t="shared" si="44"/>
@@ -16869,7 +16867,7 @@
       </c>
       <c r="M212">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N212">
         <f t="shared" si="49"/>
@@ -16889,7 +16887,7 @@
       </c>
       <c r="D213">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E213">
         <f t="shared" si="42"/>
@@ -16901,7 +16899,7 @@
       </c>
       <c r="G213">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H213">
         <f t="shared" si="44"/>
@@ -16924,7 +16922,7 @@
       </c>
       <c r="M213">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N213">
         <f t="shared" si="49"/>
@@ -16944,7 +16942,7 @@
       </c>
       <c r="D214">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E214">
         <f t="shared" si="42"/>
@@ -16956,7 +16954,7 @@
       </c>
       <c r="G214">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H214">
         <f t="shared" si="44"/>
@@ -16979,7 +16977,7 @@
       </c>
       <c r="M214">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N214">
         <f t="shared" si="49"/>
@@ -16999,7 +16997,7 @@
       </c>
       <c r="D215">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E215">
         <f t="shared" si="42"/>
@@ -17011,7 +17009,7 @@
       </c>
       <c r="G215">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H215">
         <f t="shared" si="44"/>
@@ -17034,7 +17032,7 @@
       </c>
       <c r="M215">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N215">
         <f t="shared" si="49"/>
@@ -17054,7 +17052,7 @@
       </c>
       <c r="D216">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E216">
         <f t="shared" si="42"/>
@@ -17066,7 +17064,7 @@
       </c>
       <c r="G216">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H216">
         <f t="shared" si="44"/>
@@ -17089,7 +17087,7 @@
       </c>
       <c r="M216">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N216">
         <f t="shared" si="49"/>
@@ -17109,7 +17107,7 @@
       </c>
       <c r="D217">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E217">
         <f t="shared" si="42"/>
@@ -17121,7 +17119,7 @@
       </c>
       <c r="G217">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H217">
         <f t="shared" si="44"/>
@@ -17144,7 +17142,7 @@
       </c>
       <c r="M217">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N217">
         <f t="shared" si="49"/>
@@ -17164,7 +17162,7 @@
       </c>
       <c r="D218">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E218">
         <f t="shared" si="42"/>
@@ -17176,7 +17174,7 @@
       </c>
       <c r="G218">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H218">
         <f t="shared" si="44"/>
@@ -17199,7 +17197,7 @@
       </c>
       <c r="M218">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N218">
         <f t="shared" si="49"/>
@@ -17219,7 +17217,7 @@
       </c>
       <c r="D219">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E219">
         <f t="shared" si="42"/>
@@ -17231,7 +17229,7 @@
       </c>
       <c r="G219">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H219">
         <f t="shared" si="44"/>
@@ -17254,7 +17252,7 @@
       </c>
       <c r="M219">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N219">
         <f t="shared" si="49"/>
@@ -17274,7 +17272,7 @@
       </c>
       <c r="D220">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E220">
         <f t="shared" si="42"/>
@@ -17286,7 +17284,7 @@
       </c>
       <c r="G220">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H220">
         <f t="shared" si="44"/>
@@ -17309,7 +17307,7 @@
       </c>
       <c r="M220">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N220">
         <f t="shared" si="49"/>
@@ -17329,7 +17327,7 @@
       </c>
       <c r="D221">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E221">
         <f t="shared" si="42"/>
@@ -17341,7 +17339,7 @@
       </c>
       <c r="G221">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H221">
         <f t="shared" si="44"/>
@@ -17364,7 +17362,7 @@
       </c>
       <c r="M221">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N221">
         <f t="shared" si="49"/>
@@ -17384,7 +17382,7 @@
       </c>
       <c r="D222">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E222">
         <f t="shared" si="42"/>
@@ -17396,7 +17394,7 @@
       </c>
       <c r="G222">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H222">
         <f t="shared" si="44"/>
@@ -17419,7 +17417,7 @@
       </c>
       <c r="M222">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N222">
         <f t="shared" si="49"/>
@@ -17439,7 +17437,7 @@
       </c>
       <c r="D223">
         <f t="shared" si="39"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E223">
         <f t="shared" si="42"/>
@@ -17451,7 +17449,7 @@
       </c>
       <c r="G223">
         <f t="shared" si="40"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H223">
         <f t="shared" si="44"/>
@@ -17474,7 +17472,7 @@
       </c>
       <c r="M223">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N223">
         <f t="shared" si="49"/>
@@ -17494,7 +17492,7 @@
       </c>
       <c r="D224">
         <f t="shared" ref="D224:D287" si="50">D223</f>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E224">
         <f t="shared" si="42"/>
@@ -17506,7 +17504,7 @@
       </c>
       <c r="G224">
         <f t="shared" ref="G224:G287" si="51">G223</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H224">
         <f t="shared" si="44"/>
@@ -17529,7 +17527,7 @@
       </c>
       <c r="M224">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N224">
         <f t="shared" si="49"/>
@@ -17549,7 +17547,7 @@
       </c>
       <c r="D225">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E225">
         <f t="shared" si="42"/>
@@ -17561,7 +17559,7 @@
       </c>
       <c r="G225">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H225">
         <f t="shared" si="44"/>
@@ -17584,7 +17582,7 @@
       </c>
       <c r="M225">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N225">
         <f t="shared" si="49"/>
@@ -17604,7 +17602,7 @@
       </c>
       <c r="D226">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E226">
         <f t="shared" si="42"/>
@@ -17616,7 +17614,7 @@
       </c>
       <c r="G226">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H226">
         <f t="shared" si="44"/>
@@ -17639,7 +17637,7 @@
       </c>
       <c r="M226">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N226">
         <f t="shared" si="49"/>
@@ -17659,7 +17657,7 @@
       </c>
       <c r="D227">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E227">
         <f t="shared" si="42"/>
@@ -17671,7 +17669,7 @@
       </c>
       <c r="G227">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H227">
         <f t="shared" si="44"/>
@@ -17694,7 +17692,7 @@
       </c>
       <c r="M227">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N227">
         <f t="shared" si="49"/>
@@ -17714,7 +17712,7 @@
       </c>
       <c r="D228">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E228">
         <f t="shared" si="42"/>
@@ -17726,7 +17724,7 @@
       </c>
       <c r="G228">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H228">
         <f t="shared" si="44"/>
@@ -17749,7 +17747,7 @@
       </c>
       <c r="M228">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N228">
         <f t="shared" si="49"/>
@@ -17769,7 +17767,7 @@
       </c>
       <c r="D229">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E229">
         <f t="shared" si="42"/>
@@ -17781,7 +17779,7 @@
       </c>
       <c r="G229">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H229">
         <f t="shared" si="44"/>
@@ -17804,7 +17802,7 @@
       </c>
       <c r="M229">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N229">
         <f t="shared" si="49"/>
@@ -17824,7 +17822,7 @@
       </c>
       <c r="D230">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E230">
         <f t="shared" si="42"/>
@@ -17836,7 +17834,7 @@
       </c>
       <c r="G230">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H230">
         <f t="shared" si="44"/>
@@ -17859,7 +17857,7 @@
       </c>
       <c r="M230">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N230">
         <f t="shared" si="49"/>
@@ -17879,7 +17877,7 @@
       </c>
       <c r="D231">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E231">
         <f t="shared" si="42"/>
@@ -17891,7 +17889,7 @@
       </c>
       <c r="G231">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H231">
         <f t="shared" si="44"/>
@@ -17914,7 +17912,7 @@
       </c>
       <c r="M231">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N231">
         <f t="shared" si="49"/>
@@ -17934,7 +17932,7 @@
       </c>
       <c r="D232">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E232">
         <f t="shared" si="42"/>
@@ -17946,7 +17944,7 @@
       </c>
       <c r="G232">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H232">
         <f t="shared" si="44"/>
@@ -17969,7 +17967,7 @@
       </c>
       <c r="M232">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N232">
         <f t="shared" si="49"/>
@@ -17989,7 +17987,7 @@
       </c>
       <c r="D233">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E233">
         <f t="shared" si="42"/>
@@ -18001,7 +17999,7 @@
       </c>
       <c r="G233">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H233">
         <f t="shared" si="44"/>
@@ -18024,7 +18022,7 @@
       </c>
       <c r="M233">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N233">
         <f t="shared" si="49"/>
@@ -18044,7 +18042,7 @@
       </c>
       <c r="D234">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E234">
         <f t="shared" si="42"/>
@@ -18056,7 +18054,7 @@
       </c>
       <c r="G234">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H234">
         <f t="shared" si="44"/>
@@ -18079,7 +18077,7 @@
       </c>
       <c r="M234">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N234">
         <f t="shared" si="49"/>
@@ -18099,7 +18097,7 @@
       </c>
       <c r="D235">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E235">
         <f t="shared" si="42"/>
@@ -18111,7 +18109,7 @@
       </c>
       <c r="G235">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H235">
         <f t="shared" si="44"/>
@@ -18134,7 +18132,7 @@
       </c>
       <c r="M235">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N235">
         <f t="shared" si="49"/>
@@ -18154,7 +18152,7 @@
       </c>
       <c r="D236">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E236">
         <f t="shared" si="42"/>
@@ -18166,7 +18164,7 @@
       </c>
       <c r="G236">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H236">
         <f t="shared" si="44"/>
@@ -18189,7 +18187,7 @@
       </c>
       <c r="M236">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N236">
         <f t="shared" si="49"/>
@@ -18209,7 +18207,7 @@
       </c>
       <c r="D237">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E237">
         <f t="shared" si="42"/>
@@ -18221,7 +18219,7 @@
       </c>
       <c r="G237">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H237">
         <f t="shared" si="44"/>
@@ -18244,7 +18242,7 @@
       </c>
       <c r="M237">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N237">
         <f t="shared" si="49"/>
@@ -18264,7 +18262,7 @@
       </c>
       <c r="D238">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E238">
         <f t="shared" si="42"/>
@@ -18276,7 +18274,7 @@
       </c>
       <c r="G238">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H238">
         <f t="shared" si="44"/>
@@ -18299,7 +18297,7 @@
       </c>
       <c r="M238">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N238">
         <f t="shared" si="49"/>
@@ -18319,7 +18317,7 @@
       </c>
       <c r="D239">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E239">
         <f t="shared" si="42"/>
@@ -18331,7 +18329,7 @@
       </c>
       <c r="G239">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H239">
         <f t="shared" si="44"/>
@@ -18354,7 +18352,7 @@
       </c>
       <c r="M239">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N239">
         <f t="shared" si="49"/>
@@ -18374,7 +18372,7 @@
       </c>
       <c r="D240">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E240">
         <f t="shared" si="42"/>
@@ -18386,7 +18384,7 @@
       </c>
       <c r="G240">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H240">
         <f t="shared" si="44"/>
@@ -18409,7 +18407,7 @@
       </c>
       <c r="M240">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N240">
         <f t="shared" si="49"/>
@@ -18429,7 +18427,7 @@
       </c>
       <c r="D241">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E241">
         <f t="shared" si="42"/>
@@ -18441,7 +18439,7 @@
       </c>
       <c r="G241">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H241">
         <f t="shared" si="44"/>
@@ -18464,7 +18462,7 @@
       </c>
       <c r="M241">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N241">
         <f t="shared" si="49"/>
@@ -18484,7 +18482,7 @@
       </c>
       <c r="D242">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E242">
         <f t="shared" si="42"/>
@@ -18496,7 +18494,7 @@
       </c>
       <c r="G242">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H242">
         <f t="shared" si="44"/>
@@ -18519,7 +18517,7 @@
       </c>
       <c r="M242">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N242">
         <f t="shared" si="49"/>
@@ -18539,7 +18537,7 @@
       </c>
       <c r="D243">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E243">
         <f t="shared" si="42"/>
@@ -18551,7 +18549,7 @@
       </c>
       <c r="G243">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H243">
         <f t="shared" si="44"/>
@@ -18574,7 +18572,7 @@
       </c>
       <c r="M243">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N243">
         <f t="shared" si="49"/>
@@ -18594,7 +18592,7 @@
       </c>
       <c r="D244">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E244">
         <f t="shared" si="42"/>
@@ -18606,7 +18604,7 @@
       </c>
       <c r="G244">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H244">
         <f t="shared" si="44"/>
@@ -18629,7 +18627,7 @@
       </c>
       <c r="M244">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N244">
         <f t="shared" si="49"/>
@@ -18649,7 +18647,7 @@
       </c>
       <c r="D245">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E245">
         <f t="shared" si="42"/>
@@ -18661,7 +18659,7 @@
       </c>
       <c r="G245">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H245">
         <f t="shared" si="44"/>
@@ -18684,7 +18682,7 @@
       </c>
       <c r="M245">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N245">
         <f t="shared" si="49"/>
@@ -18704,7 +18702,7 @@
       </c>
       <c r="D246">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E246">
         <f t="shared" si="42"/>
@@ -18716,7 +18714,7 @@
       </c>
       <c r="G246">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H246">
         <f t="shared" si="44"/>
@@ -18739,7 +18737,7 @@
       </c>
       <c r="M246">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N246">
         <f t="shared" si="49"/>
@@ -18759,7 +18757,7 @@
       </c>
       <c r="D247">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E247">
         <f t="shared" si="42"/>
@@ -18771,7 +18769,7 @@
       </c>
       <c r="G247">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H247">
         <f t="shared" si="44"/>
@@ -18794,7 +18792,7 @@
       </c>
       <c r="M247">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N247">
         <f t="shared" si="49"/>
@@ -18814,7 +18812,7 @@
       </c>
       <c r="D248">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E248">
         <f t="shared" si="42"/>
@@ -18826,7 +18824,7 @@
       </c>
       <c r="G248">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H248">
         <f t="shared" si="44"/>
@@ -18849,7 +18847,7 @@
       </c>
       <c r="M248">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N248">
         <f t="shared" si="49"/>
@@ -18869,7 +18867,7 @@
       </c>
       <c r="D249">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E249">
         <f t="shared" si="42"/>
@@ -18881,7 +18879,7 @@
       </c>
       <c r="G249">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H249">
         <f t="shared" si="44"/>
@@ -18904,7 +18902,7 @@
       </c>
       <c r="M249">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N249">
         <f t="shared" si="49"/>
@@ -18924,7 +18922,7 @@
       </c>
       <c r="D250">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E250">
         <f t="shared" si="42"/>
@@ -18936,7 +18934,7 @@
       </c>
       <c r="G250">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H250">
         <f t="shared" si="44"/>
@@ -18959,7 +18957,7 @@
       </c>
       <c r="M250">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N250">
         <f t="shared" si="49"/>
@@ -18979,7 +18977,7 @@
       </c>
       <c r="D251">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E251">
         <f t="shared" si="42"/>
@@ -18991,7 +18989,7 @@
       </c>
       <c r="G251">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H251">
         <f t="shared" si="44"/>
@@ -19014,7 +19012,7 @@
       </c>
       <c r="M251">
         <f t="shared" si="48"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N251">
         <f t="shared" si="49"/>
@@ -19034,7 +19032,7 @@
       </c>
       <c r="D252">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E252">
         <f t="shared" ref="E252:E293" si="53">D252-D251</f>
@@ -19046,7 +19044,7 @@
       </c>
       <c r="G252">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H252">
         <f t="shared" ref="H252:H293" si="55">G252-G251</f>
@@ -19069,7 +19067,7 @@
       </c>
       <c r="M252">
         <f t="shared" ref="M252:M293" si="59">D252-G252-J252</f>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N252">
         <f t="shared" si="49"/>
@@ -19089,7 +19087,7 @@
       </c>
       <c r="D253">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E253">
         <f t="shared" si="53"/>
@@ -19101,7 +19099,7 @@
       </c>
       <c r="G253">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H253">
         <f t="shared" si="55"/>
@@ -19124,7 +19122,7 @@
       </c>
       <c r="M253">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N253">
         <f t="shared" si="49"/>
@@ -19144,7 +19142,7 @@
       </c>
       <c r="D254">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E254">
         <f t="shared" si="53"/>
@@ -19156,7 +19154,7 @@
       </c>
       <c r="G254">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H254">
         <f t="shared" si="55"/>
@@ -19179,7 +19177,7 @@
       </c>
       <c r="M254">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N254">
         <f t="shared" si="49"/>
@@ -19199,7 +19197,7 @@
       </c>
       <c r="D255">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E255">
         <f t="shared" si="53"/>
@@ -19211,7 +19209,7 @@
       </c>
       <c r="G255">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H255">
         <f t="shared" si="55"/>
@@ -19234,7 +19232,7 @@
       </c>
       <c r="M255">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N255">
         <f t="shared" si="49"/>
@@ -19254,7 +19252,7 @@
       </c>
       <c r="D256">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E256">
         <f t="shared" si="53"/>
@@ -19266,7 +19264,7 @@
       </c>
       <c r="G256">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H256">
         <f t="shared" si="55"/>
@@ -19289,7 +19287,7 @@
       </c>
       <c r="M256">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N256">
         <f t="shared" si="49"/>
@@ -19309,7 +19307,7 @@
       </c>
       <c r="D257">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E257">
         <f t="shared" si="53"/>
@@ -19321,7 +19319,7 @@
       </c>
       <c r="G257">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H257">
         <f t="shared" si="55"/>
@@ -19344,7 +19342,7 @@
       </c>
       <c r="M257">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N257">
         <f t="shared" si="49"/>
@@ -19364,7 +19362,7 @@
       </c>
       <c r="D258">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E258">
         <f t="shared" si="53"/>
@@ -19376,7 +19374,7 @@
       </c>
       <c r="G258">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H258">
         <f t="shared" si="55"/>
@@ -19399,7 +19397,7 @@
       </c>
       <c r="M258">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N258">
         <f t="shared" si="49"/>
@@ -19419,7 +19417,7 @@
       </c>
       <c r="D259">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E259">
         <f t="shared" si="53"/>
@@ -19431,7 +19429,7 @@
       </c>
       <c r="G259">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H259">
         <f t="shared" si="55"/>
@@ -19454,7 +19452,7 @@
       </c>
       <c r="M259">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N259">
         <f t="shared" si="49"/>
@@ -19474,7 +19472,7 @@
       </c>
       <c r="D260">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E260">
         <f t="shared" si="53"/>
@@ -19486,7 +19484,7 @@
       </c>
       <c r="G260">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H260">
         <f t="shared" si="55"/>
@@ -19509,7 +19507,7 @@
       </c>
       <c r="M260">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N260">
         <f t="shared" si="49"/>
@@ -19529,7 +19527,7 @@
       </c>
       <c r="D261">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E261">
         <f t="shared" si="53"/>
@@ -19541,7 +19539,7 @@
       </c>
       <c r="G261">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H261">
         <f t="shared" si="55"/>
@@ -19564,7 +19562,7 @@
       </c>
       <c r="M261">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N261">
         <f t="shared" ref="N261:N293" si="60">A261^2.3</f>
@@ -19584,7 +19582,7 @@
       </c>
       <c r="D262">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E262">
         <f t="shared" si="53"/>
@@ -19596,7 +19594,7 @@
       </c>
       <c r="G262">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H262">
         <f t="shared" si="55"/>
@@ -19619,7 +19617,7 @@
       </c>
       <c r="M262">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N262">
         <f t="shared" si="60"/>
@@ -19639,7 +19637,7 @@
       </c>
       <c r="D263">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E263">
         <f t="shared" si="53"/>
@@ -19651,7 +19649,7 @@
       </c>
       <c r="G263">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H263">
         <f t="shared" si="55"/>
@@ -19674,7 +19672,7 @@
       </c>
       <c r="M263">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N263">
         <f t="shared" si="60"/>
@@ -19694,7 +19692,7 @@
       </c>
       <c r="D264">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E264">
         <f t="shared" si="53"/>
@@ -19706,7 +19704,7 @@
       </c>
       <c r="G264">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H264">
         <f t="shared" si="55"/>
@@ -19729,7 +19727,7 @@
       </c>
       <c r="M264">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N264">
         <f t="shared" si="60"/>
@@ -19749,7 +19747,7 @@
       </c>
       <c r="D265">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E265">
         <f t="shared" si="53"/>
@@ -19761,7 +19759,7 @@
       </c>
       <c r="G265">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H265">
         <f t="shared" si="55"/>
@@ -19784,7 +19782,7 @@
       </c>
       <c r="M265">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N265">
         <f t="shared" si="60"/>
@@ -19804,7 +19802,7 @@
       </c>
       <c r="D266">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E266">
         <f t="shared" si="53"/>
@@ -19816,7 +19814,7 @@
       </c>
       <c r="G266">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H266">
         <f t="shared" si="55"/>
@@ -19839,7 +19837,7 @@
       </c>
       <c r="M266">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N266">
         <f t="shared" si="60"/>
@@ -19859,7 +19857,7 @@
       </c>
       <c r="D267">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E267">
         <f t="shared" si="53"/>
@@ -19871,7 +19869,7 @@
       </c>
       <c r="G267">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H267">
         <f t="shared" si="55"/>
@@ -19894,7 +19892,7 @@
       </c>
       <c r="M267">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N267">
         <f t="shared" si="60"/>
@@ -19914,7 +19912,7 @@
       </c>
       <c r="D268">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E268">
         <f t="shared" si="53"/>
@@ -19926,7 +19924,7 @@
       </c>
       <c r="G268">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H268">
         <f t="shared" si="55"/>
@@ -19949,7 +19947,7 @@
       </c>
       <c r="M268">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N268">
         <f t="shared" si="60"/>
@@ -19969,7 +19967,7 @@
       </c>
       <c r="D269">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E269">
         <f t="shared" si="53"/>
@@ -19981,7 +19979,7 @@
       </c>
       <c r="G269">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H269">
         <f t="shared" si="55"/>
@@ -20004,7 +20002,7 @@
       </c>
       <c r="M269">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N269">
         <f t="shared" si="60"/>
@@ -20024,7 +20022,7 @@
       </c>
       <c r="D270">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E270">
         <f t="shared" si="53"/>
@@ -20036,7 +20034,7 @@
       </c>
       <c r="G270">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H270">
         <f t="shared" si="55"/>
@@ -20059,7 +20057,7 @@
       </c>
       <c r="M270">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N270">
         <f t="shared" si="60"/>
@@ -20079,7 +20077,7 @@
       </c>
       <c r="D271">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E271">
         <f t="shared" si="53"/>
@@ -20091,7 +20089,7 @@
       </c>
       <c r="G271">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H271">
         <f t="shared" si="55"/>
@@ -20114,7 +20112,7 @@
       </c>
       <c r="M271">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N271">
         <f t="shared" si="60"/>
@@ -20134,7 +20132,7 @@
       </c>
       <c r="D272">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E272">
         <f t="shared" si="53"/>
@@ -20146,7 +20144,7 @@
       </c>
       <c r="G272">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H272">
         <f t="shared" si="55"/>
@@ -20169,7 +20167,7 @@
       </c>
       <c r="M272">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N272">
         <f t="shared" si="60"/>
@@ -20189,7 +20187,7 @@
       </c>
       <c r="D273">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E273">
         <f t="shared" si="53"/>
@@ -20201,7 +20199,7 @@
       </c>
       <c r="G273">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H273">
         <f t="shared" si="55"/>
@@ -20224,7 +20222,7 @@
       </c>
       <c r="M273">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N273">
         <f t="shared" si="60"/>
@@ -20244,7 +20242,7 @@
       </c>
       <c r="D274">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E274">
         <f t="shared" si="53"/>
@@ -20256,7 +20254,7 @@
       </c>
       <c r="G274">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H274">
         <f t="shared" si="55"/>
@@ -20279,7 +20277,7 @@
       </c>
       <c r="M274">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N274">
         <f t="shared" si="60"/>
@@ -20299,7 +20297,7 @@
       </c>
       <c r="D275">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E275">
         <f t="shared" si="53"/>
@@ -20311,7 +20309,7 @@
       </c>
       <c r="G275">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H275">
         <f t="shared" si="55"/>
@@ -20334,7 +20332,7 @@
       </c>
       <c r="M275">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N275">
         <f t="shared" si="60"/>
@@ -20354,7 +20352,7 @@
       </c>
       <c r="D276">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E276">
         <f t="shared" si="53"/>
@@ -20366,7 +20364,7 @@
       </c>
       <c r="G276">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H276">
         <f t="shared" si="55"/>
@@ -20389,7 +20387,7 @@
       </c>
       <c r="M276">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N276">
         <f t="shared" si="60"/>
@@ -20409,7 +20407,7 @@
       </c>
       <c r="D277">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E277">
         <f t="shared" si="53"/>
@@ -20421,7 +20419,7 @@
       </c>
       <c r="G277">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H277">
         <f t="shared" si="55"/>
@@ -20444,7 +20442,7 @@
       </c>
       <c r="M277">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N277">
         <f t="shared" si="60"/>
@@ -20464,7 +20462,7 @@
       </c>
       <c r="D278">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E278">
         <f t="shared" si="53"/>
@@ -20476,7 +20474,7 @@
       </c>
       <c r="G278">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H278">
         <f t="shared" si="55"/>
@@ -20499,7 +20497,7 @@
       </c>
       <c r="M278">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N278">
         <f t="shared" si="60"/>
@@ -20519,7 +20517,7 @@
       </c>
       <c r="D279">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E279">
         <f t="shared" si="53"/>
@@ -20531,7 +20529,7 @@
       </c>
       <c r="G279">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H279">
         <f t="shared" si="55"/>
@@ -20554,7 +20552,7 @@
       </c>
       <c r="M279">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N279">
         <f t="shared" si="60"/>
@@ -20574,7 +20572,7 @@
       </c>
       <c r="D280">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E280">
         <f t="shared" si="53"/>
@@ -20586,7 +20584,7 @@
       </c>
       <c r="G280">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H280">
         <f t="shared" si="55"/>
@@ -20609,7 +20607,7 @@
       </c>
       <c r="M280">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N280">
         <f t="shared" si="60"/>
@@ -20629,7 +20627,7 @@
       </c>
       <c r="D281">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E281">
         <f t="shared" si="53"/>
@@ -20641,7 +20639,7 @@
       </c>
       <c r="G281">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H281">
         <f t="shared" si="55"/>
@@ -20664,7 +20662,7 @@
       </c>
       <c r="M281">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N281">
         <f t="shared" si="60"/>
@@ -20684,7 +20682,7 @@
       </c>
       <c r="D282">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E282">
         <f t="shared" si="53"/>
@@ -20696,7 +20694,7 @@
       </c>
       <c r="G282">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H282">
         <f t="shared" si="55"/>
@@ -20719,7 +20717,7 @@
       </c>
       <c r="M282">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N282">
         <f t="shared" si="60"/>
@@ -20739,7 +20737,7 @@
       </c>
       <c r="D283">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E283">
         <f t="shared" si="53"/>
@@ -20751,7 +20749,7 @@
       </c>
       <c r="G283">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H283">
         <f t="shared" si="55"/>
@@ -20774,7 +20772,7 @@
       </c>
       <c r="M283">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N283">
         <f t="shared" si="60"/>
@@ -20794,7 +20792,7 @@
       </c>
       <c r="D284">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E284">
         <f t="shared" si="53"/>
@@ -20806,7 +20804,7 @@
       </c>
       <c r="G284">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H284">
         <f t="shared" si="55"/>
@@ -20829,7 +20827,7 @@
       </c>
       <c r="M284">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N284">
         <f t="shared" si="60"/>
@@ -20849,7 +20847,7 @@
       </c>
       <c r="D285">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E285">
         <f t="shared" si="53"/>
@@ -20861,7 +20859,7 @@
       </c>
       <c r="G285">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H285">
         <f t="shared" si="55"/>
@@ -20884,7 +20882,7 @@
       </c>
       <c r="M285">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N285">
         <f t="shared" si="60"/>
@@ -20904,7 +20902,7 @@
       </c>
       <c r="D286">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E286">
         <f t="shared" si="53"/>
@@ -20916,7 +20914,7 @@
       </c>
       <c r="G286">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H286">
         <f t="shared" si="55"/>
@@ -20939,7 +20937,7 @@
       </c>
       <c r="M286">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N286">
         <f t="shared" si="60"/>
@@ -20959,7 +20957,7 @@
       </c>
       <c r="D287">
         <f t="shared" si="50"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E287">
         <f t="shared" si="53"/>
@@ -20971,7 +20969,7 @@
       </c>
       <c r="G287">
         <f t="shared" si="51"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H287">
         <f t="shared" si="55"/>
@@ -20994,7 +20992,7 @@
       </c>
       <c r="M287">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N287">
         <f t="shared" si="60"/>
@@ -21014,7 +21012,7 @@
       </c>
       <c r="D288">
         <f t="shared" ref="D288:D293" si="61">D287</f>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E288">
         <f t="shared" si="53"/>
@@ -21026,7 +21024,7 @@
       </c>
       <c r="G288">
         <f t="shared" ref="G288:G293" si="62">G287</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H288">
         <f t="shared" si="55"/>
@@ -21049,7 +21047,7 @@
       </c>
       <c r="M288">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N288">
         <f t="shared" si="60"/>
@@ -21069,7 +21067,7 @@
       </c>
       <c r="D289">
         <f t="shared" si="61"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E289">
         <f t="shared" si="53"/>
@@ -21081,7 +21079,7 @@
       </c>
       <c r="G289">
         <f t="shared" si="62"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H289">
         <f t="shared" si="55"/>
@@ -21104,7 +21102,7 @@
       </c>
       <c r="M289">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N289">
         <f t="shared" si="60"/>
@@ -21124,7 +21122,7 @@
       </c>
       <c r="D290">
         <f t="shared" si="61"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E290">
         <f t="shared" si="53"/>
@@ -21136,7 +21134,7 @@
       </c>
       <c r="G290">
         <f t="shared" si="62"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H290">
         <f t="shared" si="55"/>
@@ -21159,7 +21157,7 @@
       </c>
       <c r="M290">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N290">
         <f t="shared" si="60"/>
@@ -21179,7 +21177,7 @@
       </c>
       <c r="D291">
         <f t="shared" si="61"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E291">
         <f t="shared" si="53"/>
@@ -21191,7 +21189,7 @@
       </c>
       <c r="G291">
         <f t="shared" si="62"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H291">
         <f t="shared" si="55"/>
@@ -21214,7 +21212,7 @@
       </c>
       <c r="M291">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N291">
         <f t="shared" si="60"/>
@@ -21234,7 +21232,7 @@
       </c>
       <c r="D292">
         <f t="shared" si="61"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E292">
         <f t="shared" si="53"/>
@@ -21246,7 +21244,7 @@
       </c>
       <c r="G292">
         <f t="shared" si="62"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H292">
         <f t="shared" si="55"/>
@@ -21269,7 +21267,7 @@
       </c>
       <c r="M292">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N292">
         <f t="shared" si="60"/>
@@ -21289,7 +21287,7 @@
       </c>
       <c r="D293">
         <f t="shared" si="61"/>
-        <v>2615</v>
+        <v>2910</v>
       </c>
       <c r="E293">
         <f t="shared" si="53"/>
@@ -21301,7 +21299,7 @@
       </c>
       <c r="G293">
         <f t="shared" si="62"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H293">
         <f t="shared" si="55"/>
@@ -21324,7 +21322,7 @@
       </c>
       <c r="M293">
         <f t="shared" si="59"/>
-        <v>2564</v>
+        <v>2851</v>
       </c>
       <c r="N293">
         <f t="shared" si="60"/>

--- a/COVID19.xlsx
+++ b/COVID19.xlsx
@@ -3961,868 +3961,868 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9245776533796644</c:v>
+                  <c:v>5.0037163204530648</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.513502532843187</c:v>
+                  <c:v>12.833723394957733</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.251465064166357</c:v>
+                  <c:v>25.037177015568354</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.516414917319047</c:v>
+                  <c:v>42.044318762978683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>61.62371493874938</c:v>
+                  <c:v>64.216311203530324</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>87.846708163528803</c:v>
+                  <c:v>91.867679574283258</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>119.42822291671121</c:v>
+                  <c:v>125.27893125087172</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>156.58774563947284</c:v>
+                  <c:v>164.70445617828545</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>199.52623149688802</c:v>
+                  <c:v>210.37784397664763</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>248.42950605272017</c:v>
+                  <c:v>262.51565509502507</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>303.47076950560364</c:v>
+                  <c:v>321.32020440839761</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>364.81249970724673</c:v>
+                  <c:v>386.98168153831477</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>432.60793594507902</c:v>
+                  <c:v>459.67980760799372</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>507.00226068959734</c:v>
+                  <c:v>539.58515733349998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>588.1335577584814</c:v>
+                  <c:v>626.86023290890432</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>676.13360113393901</c:v>
+                  <c:v>721.66034956646433</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>771.12851296924589</c:v>
+                  <c:v>824.13437543063276</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>873.2393188170181</c:v>
+                  <c:v>934.42535671737608</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>982.58242089263194</c:v>
+                  <c:v>1052.6710513676792</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1099.2700051062543</c:v>
+                  <c:v>1179.0043885929597</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1223.4103939473741</c:v>
+                  <c:v>1313.5538677734057</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1355.108354635134</c:v>
+                  <c:v>1456.4439071926699</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1494.465369961227</c:v>
+                  <c:v>1607.7951508896153</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1641.5798777523532</c:v>
+                  <c:v>1767.7247402429612</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1796.5474837318832</c:v>
+                  <c:v>1936.3465556296376</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1959.4611516717455</c:v>
+                  <c:v>2113.771432509051</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2130.4113740298362</c:v>
+                  <c:v>2300.1073555108433</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2309.4863257178449</c:v>
+                  <c:v>2495.4596334901012</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2496.7720032049629</c:v>
+                  <c:v>2699.931058023868</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2692.3523508091321</c:v>
+                  <c:v>2913.6220474276256</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2896.3093757400966</c:v>
+                  <c:v>3136.6307780492934</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3108.7232532236912</c:v>
+                  <c:v>3369.0533043356754</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3329.6724228433168</c:v>
+                  <c:v>3610.9836689495814</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3559.2336770741695</c:v>
+                  <c:v>3862.5140040363508</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3797.4822428522434</c:v>
+                  <c:v>4123.7346245886538</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4044.4918569077827</c:v>
+                  <c:v>4394.7341147325396</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4300.3348354987693</c:v>
+                  <c:v>4675.5994076519155</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4565.0821390994806</c:v>
+                  <c:v>4966.4158597783535</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4838.8034325315484</c:v>
+                  <c:v>5267.2673197969425</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5121.5671409661954</c:v>
+                  <c:v>5578.2361929530007</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5413.4405021768116</c:v>
+                  <c:v>5899.403501088379</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5714.4896153773952</c:v>
+                  <c:v>6230.8489387876498</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6024.779486945642</c:v>
+                  <c:v>6572.6509259720251</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6344.3740732964943</c:v>
+                  <c:v>6924.8866572428878</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6673.3363211442738</c:v>
+                  <c:v>7287.6321482443909</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7011.7282053664685</c:v>
+                  <c:v>7660.9622792873633</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7359.6107646608343</c:v>
+                  <c:v>8044.9508364516587</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7717.0441351681975</c:v>
+                  <c:v>8439.6705503631802</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8084.0875822169628</c:v>
+                  <c:v>8845.19313282236</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8460.7995303299267</c:v>
+                  <c:v>9261.5893114445098</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8847.2375916215024</c:v>
+                  <c:v>9688.9288624571036</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>9243.4585927010576</c:v>
+                  <c:v>10127.280641786332</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>9649.5186001882612</c:v>
+                  <c:v>10576.712614553002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>10065.472944936637</c:v>
+                  <c:v>11037.291883087411</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>10491.37624505321</c:v>
+                  <c:v>11509.084713563765</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>10927.282427795029</c:v>
+                  <c:v>11992.156561345526</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>11373.244750415992</c:v>
+                  <c:v>12486.572095126221</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>11829.315820032152</c:v>
+                  <c:v>12992.395219942753</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>12295.547612567134</c:v>
+                  <c:v>13509.689099132138</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>12771.991490835913</c:v>
+                  <c:v>14038.516175297907</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>13258.698221818851</c:v>
+                  <c:v>14578.938190345483</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>13755.717993175651</c:v>
+                  <c:v>15131.016204643307</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>14263.100429043665</c:v>
+                  <c:v>15694.810615360644</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>14780.894605163148</c:v>
+                  <c:v>16270.381174030408</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>15309.149063367115</c:v>
+                  <c:v>16857.787003380745</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>15847.911825473058</c:v>
+                  <c:v>17457.086613477069</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>16397.230406608742</c:v>
+                  <c:v>18068.337917212506</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>16957.15182800372</c:v>
+                  <c:v>18691.59824518222</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>17527.72262927581</c:v>
+                  <c:v>19326.924359975237</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>18108.988880238638</c:v>
+                  <c:v>19974.372469914062</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>18700.996192256236</c:v>
+                  <c:v>20633.998242271638</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>19303.789729167664</c:v>
+                  <c:v>21305.856815991738</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>19917.414217804115</c:v>
+                  <c:v>21990.0028139391</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>20541.913958118472</c:v>
+                  <c:v>22686.490354701677</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>21177.332832947341</c:v>
+                  <c:v>23395.373063968567</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>21823.714317422939</c:v>
+                  <c:v>24116.704085502843</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>22481.101488051965</c:v>
+                  <c:v>24850.536091729886</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>23149.537031478074</c:v>
+                  <c:v>25596.921293959309</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>23829.063252941665</c:v>
+                  <c:v>26355.911452257031</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>24519.722084452245</c:v>
+                  <c:v>27127.557884984755</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>25221.555092685732</c:v>
+                  <c:v>27911.911478020902</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>25934.603486620148</c:v>
+                  <c:v>28709.022693678744</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>26658.908124920301</c:v>
+                  <c:v>29518.94157933387</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>27394.509523083809</c:v>
+                  <c:v>30341.717775775051</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>28141.447860357657</c:v>
+                  <c:v>31177.40052528942</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>28899.762986436941</c:v>
+                  <c:v>32026.038679494508</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>29669.494427952748</c:v>
+                  <c:v>32887.680706927225</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>30450.681394760803</c:v>
+                  <c:v>33762.374700399829</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>31243.362786037218</c:v>
+                  <c:v>34650.168384133904</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>32047.577196189912</c:v>
+                  <c:v>35551.109120679226</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>32863.362920593936</c:v>
+                  <c:v>36465.24391762889</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>33690.7579611564</c:v>
+                  <c:v>37392.61943413657</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>34529.800031719591</c:v>
+                  <c:v>38333.281987245486</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>35380.526563307401</c:v>
+                  <c:v>39287.277558035457</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>36242.974709221147</c:v>
+                  <c:v>40254.651797595696</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>37117.181349992061</c:v>
+                  <c:v>41235.450032829787</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>38003.183098193949</c:v>
+                  <c:v>42229.71727209942</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>38901.016303123186</c:v>
+                  <c:v>43237.498210712416</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>39810.717055349742</c:v>
+                  <c:v>44258.837236262691</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>40732.321191144503</c:v>
+                  <c:v>45293.778433824278</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>41665.864296787899</c:v>
+                  <c:v>46342.365591008471</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>42611.381712763323</c:v>
+                  <c:v>47404.642202887051</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>43568.908537839743</c:v>
+                  <c:v>48480.651476785271</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>44538.47963304841</c:v>
+                  <c:v>49570.436336953186</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>45520.129625555841</c:v>
+                  <c:v>50674.039429114659</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>46513.892912437987</c:v>
+                  <c:v>51791.503124902352</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>47519.803664358595</c:v>
+                  <c:v>52922.869526180657</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>48537.895829154462</c:v>
+                  <c:v>54068.180469260034</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>49568.203135332536</c:v>
+                  <c:v>55227.477529008618</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>50610.759095479203</c:v>
+                  <c:v>56400.802022861862</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>51665.597009587174</c:v>
+                  <c:v>57588.195014735793</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>52732.749968301789</c:v>
+                  <c:v>58789.697318845465</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>53812.250856087659</c:v>
+                  <c:v>60005.349503432903</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>54904.132354322632</c:v>
+                  <c:v>61235.191894406758</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>56008.426944316241</c:v>
+                  <c:v>62479.264578896997</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>57125.166910258566</c:v>
+                  <c:v>63737.607408726588</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>58254.384342100842</c:v>
+                  <c:v>65010.260003803938</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>59396.11113836903</c:v>
+                  <c:v>66297.261755437183</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>60550.379008913755</c:v>
+                  <c:v>67598.651829574344</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>61717.219477598526</c:v>
+                  <c:v>68914.469169970151</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>62896.663884925729</c:v>
+                  <c:v>70244.752501282463</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>64088.743390606833</c:v>
+                  <c:v>71589.540332100762</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>65293.488976073888</c:v>
+                  <c:v>72948.870957908162</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>66510.931446936302</c:v>
+                  <c:v>74322.782463978889</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>67741.101435385339</c:v>
+                  <c:v>75711.312728213496</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>68984.029402546003</c:v>
+                  <c:v>77114.499423914152</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>70239.745640778419</c:v>
+                  <c:v>78532.38002250006</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>71508.280275931145</c:v>
+                  <c:v>79964.991796166636</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>72789.663269546436</c:v>
+                  <c:v>81412.371820488246</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>74083.924421020012</c:v>
+                  <c:v>82874.556976968772</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>75391.093369716007</c:v>
+                  <c:v>84351.58395553779</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>76711.199597037412</c:v>
+                  <c:v>85843.489256997302</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>78044.272428456039</c:v>
+                  <c:v>87350.309195417925</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>79390.341035500373</c:v>
+                  <c:v>88872.079900488709</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>80749.434437702919</c:v>
+                  <c:v>90408.837319817147</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>82121.581504510017</c:v>
+                  <c:v>91960.617221187247</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>83506.810957153197</c:v>
+                  <c:v>93527.455194770126</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>84905.151370483029</c:v>
+                  <c:v>95109.386655293827</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>86316.631174768656</c:v>
+                  <c:v>96706.446844169812</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>87741.278657461356</c:v>
+                  <c:v>98318.670831578958</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>89179.121964924139</c:v>
+                  <c:v>99946.093518517373</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>90630.189104129269</c:v>
+                  <c:v>101588.74963880498</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>92094.50794432321</c:v>
+                  <c:v>103246.67376105444</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>93572.106218658795</c:v>
+                  <c:v>104919.90029060378</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>95063.011525799084</c:v>
+                  <c:v>106608.46347141403</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>96567.251331489941</c:v>
+                  <c:v>108312.39738793176</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>98084.85297010449</c:v>
+                  <c:v>110031.73596691569</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>99615.843646158362</c:v>
+                  <c:v>111766.51297923342</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>101160.25043579798</c:v>
+                  <c:v>113516.7620416218</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>102718.10028826201</c:v>
+                  <c:v>115282.51661842002</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>104289.42002731607</c:v>
+                  <c:v>117063.81002326754</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>105874.23635266184</c:v>
+                  <c:v>118860.67542077569</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>107472.57584132279</c:v>
+                  <c:v>120673.14582816768</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>109084.46494900217</c:v>
+                  <c:v>122501.25411688969</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>110709.93001142096</c:v>
+                  <c:v>124345.03301419674</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>112348.99724563042</c:v>
+                  <c:v>126204.51510470772</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>114001.69275130187</c:v>
+                  <c:v>128079.73283193677</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>115668.04251199565</c:v>
+                  <c:v>129970.71849979584</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>117348.07239640701</c:v>
+                  <c:v>131877.50427407434</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>119041.8081595924</c:v>
+                  <c:v>133800.12218389334</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>120749.27544417309</c:v>
+                  <c:v>135738.60412313321</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>122470.4997815214</c:v>
+                  <c:v>137692.98185184173</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>124205.50659292417</c:v>
+                  <c:v>139663.2869976144</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>125954.32119072901</c:v>
+                  <c:v>141649.55105695577</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>127716.96877947185</c:v>
+                  <c:v>143651.80539661771</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>129493.47445698403</c:v>
+                  <c:v>145670.08125491321</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>131283.86321548402</c:v>
+                  <c:v>147704.40974301344</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>133088.15994264992</c:v>
+                  <c:v>149754.82184622166</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>134906.38942267487</c:v>
+                  <c:v>151821.34842522649</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>136738.57633730577</c:v>
+                  <c:v>153904.02021733596</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>138584.74526686646</c:v>
+                  <c:v>156002.86783769261</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>140444.9206912636</c:v>
+                  <c:v>158117.92178047</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>142319.12699097604</c:v>
+                  <c:v>160249.21242004808</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>144207.38844803252</c:v>
+                  <c:v>162396.77001217374</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>146109.72924696823</c:v>
+                  <c:v>164560.62469510085</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>148026.17347577412</c:v>
+                  <c:v>166740.80649071606</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>149956.74512682288</c:v>
+                  <c:v>168937.34530564255</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>151901.46809778994</c:v>
+                  <c:v>171150.27093233177</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>153860.3661925529</c:v>
+                  <c:v>173379.61305013759</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>155833.46312208218</c:v>
+                  <c:v>175625.40122637275</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>157820.78250531675</c:v>
+                  <c:v>177887.66491735043</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>159822.34787002689</c:v>
+                  <c:v>180166.43346941331</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>161838.18265366266</c:v>
+                  <c:v>182461.73611994152</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>163868.31020419396</c:v>
+                  <c:v>184773.60199835183</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>165912.75378093374</c:v>
+                  <c:v>187102.0601270796</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>167971.53655535154</c:v>
+                  <c:v>189447.13942254533</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>170044.68161187496</c:v>
+                  <c:v>191808.86869610971</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>172132.21194868017</c:v>
+                  <c:v>194187.27665501539</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>174234.15047846915</c:v>
+                  <c:v>196582.39190331142</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>176350.52002923857</c:v>
+                  <c:v>198994.24294276995</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>178481.34334503472</c:v>
+                  <c:v>201422.85817378489</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>180626.64308670099</c:v>
+                  <c:v>203868.26589626307</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>182786.44183261122</c:v>
+                  <c:v>206330.49431049728</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>184960.76207939698</c:v>
+                  <c:v>208809.57151803395</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>187149.62624266159</c:v>
+                  <c:v>211305.52552252213</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>189353.0566576845</c:v>
+                  <c:v>213818.38423055594</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>191571.07558011837</c:v>
+                  <c:v>216348.17545250189</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>193803.7051866735</c:v>
+                  <c:v>218894.92690331896</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>196050.96757579557</c:v>
+                  <c:v>221458.66620336301</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>198312.8847683327</c:v>
+                  <c:v>224039.42087918453</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>200589.4787081934</c:v>
+                  <c:v>226637.21836431159</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>202880.77126299593</c:v>
+                  <c:v>229252.08600002655</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>205186.78422471115</c:v>
+                  <c:v>231884.0510361316</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>207507.53931029388</c:v>
+                  <c:v>234533.14063170063</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>209843.05816230504</c:v>
+                  <c:v>237199.38185582403</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>212193.36234953071</c:v>
+                  <c:v>239882.80168834556</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>214558.47336758795</c:v>
+                  <c:v>242583.42702058743</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>216938.41263952543</c:v>
+                  <c:v>245301.28465606444</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>219333.20151641537</c:v>
+                  <c:v>248036.40131119228</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>221742.86127793801</c:v>
+                  <c:v>250788.8036159848</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>224167.41313295782</c:v>
+                  <c:v>253558.51811474311</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>226606.87822009539</c:v>
+                  <c:v>256345.57126673579</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>229061.27760828673</c:v>
+                  <c:v>259149.98944686979</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>231530.63229734157</c:v>
+                  <c:v>261971.79894635541</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>234014.96321848931</c:v>
+                  <c:v>264811.02597335831</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>236514.29123492076</c:v>
+                  <c:v>267667.69665364822</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>239028.63714232398</c:v>
+                  <c:v>270541.83703123807</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>241558.02166941194</c:v>
+                  <c:v>273433.47306901333</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>244102.46547844275</c:v>
+                  <c:v>276342.6306493553</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>246661.98916573459</c:v>
+                  <c:v>279269.33557475841</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>249236.61326217835</c:v>
+                  <c:v>282213.61356843612</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>251826.35823373467</c:v>
+                  <c:v>285175.49027492345</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>254431.24448193255</c:v>
+                  <c:v>288154.99126066727</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>257051.29234436239</c:v>
+                  <c:v>291152.14201461786</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>259686.52209515605</c:v>
+                  <c:v>294166.96794880333</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>262336.95394546847</c:v>
+                  <c:v>297199.49439890357</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>265002.60804394988</c:v>
+                  <c:v>300249.74662481743</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>267683.50447721384</c:v>
+                  <c:v>303317.74981122091</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>270379.66327029699</c:v>
+                  <c:v>306403.52906811831</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>273091.10438711772</c:v>
+                  <c:v>309507.10943139007</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>275817.84773092705</c:v>
+                  <c:v>312628.51586333197</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>278559.91314475308</c:v>
+                  <c:v>315767.77325318678</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>281317.32041184313</c:v>
+                  <c:v>318924.90641767537</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>284090.08925609681</c:v>
+                  <c:v>322099.94010151358</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>286878.2393425004</c:v>
+                  <c:v>325292.89897793089</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>289681.79027754813</c:v>
+                  <c:v>328503.80764917738</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>292500.76160966698</c:v>
+                  <c:v>331732.69064702984</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>295335.17282962968</c:v>
+                  <c:v>334979.57243328763</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>298185.04337096616</c:v>
+                  <c:v>338244.47740026552</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>301050.39261037199</c:v>
+                  <c:v>341527.42987128237</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>303931.2398681097</c:v>
+                  <c:v>344828.45410113985</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>306827.60440840322</c:v>
+                  <c:v>348147.5742765984</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>309739.5054398374</c:v>
+                  <c:v>351484.81451685331</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>312666.96211573889</c:v>
+                  <c:v>354840.19887399394</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>315609.9935345659</c:v>
+                  <c:v>358213.75133346551</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>318568.61874029005</c:v>
+                  <c:v>361605.49581453012</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>321542.85672276479</c:v>
+                  <c:v>365015.45617071027</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>324532.72641810396</c:v>
+                  <c:v>368443.65619023674</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>327538.24670904857</c:v>
+                  <c:v>371890.11959649331</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>330559.43642532837</c:v>
+                  <c:v>375354.87004844821</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>333596.31434402353</c:v>
+                  <c:v>378837.93114108773</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>336648.89918992063</c:v>
+                  <c:v>382339.32640584133</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>339717.20963586355</c:v>
+                  <c:v>385859.07931100769</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>342801.26430310495</c:v>
+                  <c:v>389397.21326216852</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>345901.08176164894</c:v>
+                  <c:v>392953.75160260574</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>349016.68053059222</c:v>
+                  <c:v>396528.71761370794</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>352148.07907846017</c:v>
+                  <c:v>400122.13451537438</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>355295.295823547</c:v>
+                  <c:v>403734.0254664204</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>358458.34913423873</c:v>
+                  <c:v>407364.41356497019</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>361637.25732934661</c:v>
+                  <c:v>411013.3218488507</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>364832.03867842362</c:v>
+                  <c:v>414680.77329597605</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>368042.71140209428</c:v>
+                  <c:v>418366.79082474136</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>371269.29367236298</c:v>
+                  <c:v>422071.3972943913</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>374511.80361293349</c:v>
+                  <c:v>425794.61550540791</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>377770.25929951732</c:v>
+                  <c:v>429536.46819987474</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>381044.67876014038</c:v>
+                  <c:v>433296.97806185111</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>384335.07997544913</c:v>
+                  <c:v>437076.16771773482</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>387641.48087901168</c:v>
+                  <c:v>440874.05973662593</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>390963.89935761545</c:v>
+                  <c:v>444690.67663068406</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>394302.35325156088</c:v>
+                  <c:v>448526.04085548117</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>397656.86035495787</c:v>
+                  <c:v>452380.17481035594</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>401027.43841601018</c:v>
+                  <c:v>456253.10083875625</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>404414.10513730726</c:v>
+                  <c:v>460144.8412285918</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>407816.87817610218</c:v>
+                  <c:v>464055.41821256437</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>411235.77514459653</c:v>
+                  <c:v>467984.8539685132</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>414670.8136102194</c:v>
+                  <c:v>471933.17061974824</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>418122.01109589828</c:v>
+                  <c:v>475900.39023537457</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>421589.38508033677</c:v>
+                  <c:v>479886.53483062889</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>425072.95299828</c:v>
+                  <c:v>483891.62636719929</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>428572.73224078683</c:v>
+                  <c:v>487915.68675354647</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>432088.74015549204</c:v>
+                  <c:v>491958.73784522427</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>435620.99404686736</c:v>
+                  <c:v>496020.80144519254</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>439169.51117648475</c:v>
+                  <c:v>500101.89930413454</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>442734.308763273</c:v>
+                  <c:v>504202.05312075757</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>446315.40398376866</c:v>
+                  <c:v>508321.28454210883</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>449912.81397237629</c:v>
+                  <c:v>512459.61516387598</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>453526.55582161061</c:v>
+                  <c:v>516617.06653068127</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>457156.64658234856</c:v>
+                  <c:v>520793.66013639153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5345,10 +5345,10 @@
   <dimension ref="A1:N293"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="L58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
+      <selection pane="bottomRight" activeCell="N4" sqref="N4:N293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <f>A4^2.3</f>
+        <f>A4^2.323</f>
         <v>0</v>
       </c>
     </row>
@@ -5545,7 +5545,7 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <f t="shared" ref="N5:N68" si="2">A5^2.3</f>
+        <f t="shared" ref="N5:N68" si="2">A5^2.323</f>
         <v>1</v>
       </c>
     </row>
@@ -5599,7 +5599,7 @@
       </c>
       <c r="N6">
         <f t="shared" si="2"/>
-        <v>4.9245776533796644</v>
+        <v>5.0037163204530648</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="N7">
         <f t="shared" si="2"/>
-        <v>12.513502532843187</v>
+        <v>12.833723394957733</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="N8">
         <f t="shared" si="2"/>
-        <v>24.251465064166357</v>
+        <v>25.037177015568354</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -5758,7 +5758,7 @@
       </c>
       <c r="N9">
         <f t="shared" si="2"/>
-        <v>40.516414917319047</v>
+        <v>42.044318762978683</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="N10">
         <f t="shared" si="2"/>
-        <v>61.62371493874938</v>
+        <v>64.216311203530324</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -5864,7 +5864,7 @@
       </c>
       <c r="N11">
         <f t="shared" si="2"/>
-        <v>87.846708163528803</v>
+        <v>91.867679574283258</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -5917,7 +5917,7 @@
       </c>
       <c r="N12">
         <f t="shared" si="2"/>
-        <v>119.42822291671121</v>
+        <v>125.27893125087172</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -5970,7 +5970,7 @@
       </c>
       <c r="N13">
         <f t="shared" si="2"/>
-        <v>156.58774563947284</v>
+        <v>164.70445617828545</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -6023,7 +6023,7 @@
       </c>
       <c r="N14">
         <f t="shared" si="2"/>
-        <v>199.52623149688802</v>
+        <v>210.37784397664763</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -6076,7 +6076,7 @@
       </c>
       <c r="N15">
         <f t="shared" si="2"/>
-        <v>248.42950605272017</v>
+        <v>262.51565509502507</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -6129,7 +6129,7 @@
       </c>
       <c r="N16">
         <f t="shared" si="2"/>
-        <v>303.47076950560364</v>
+        <v>321.32020440839761</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -6182,7 +6182,7 @@
       </c>
       <c r="N17">
         <f t="shared" si="2"/>
-        <v>364.81249970724673</v>
+        <v>386.98168153831477</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -6235,7 +6235,7 @@
       </c>
       <c r="N18">
         <f t="shared" si="2"/>
-        <v>432.60793594507902</v>
+        <v>459.67980760799372</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -6288,7 +6288,7 @@
       </c>
       <c r="N19">
         <f t="shared" si="2"/>
-        <v>507.00226068959734</v>
+        <v>539.58515733349998</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -6341,7 +6341,7 @@
       </c>
       <c r="N20">
         <f t="shared" si="2"/>
-        <v>588.1335577584814</v>
+        <v>626.86023290890432</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -6394,7 +6394,7 @@
       </c>
       <c r="N21">
         <f t="shared" si="2"/>
-        <v>676.13360113393901</v>
+        <v>721.66034956646433</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="N22">
         <f t="shared" si="2"/>
-        <v>771.12851296924589</v>
+        <v>824.13437543063276</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -6500,7 +6500,7 @@
       </c>
       <c r="N23">
         <f t="shared" si="2"/>
-        <v>873.2393188170181</v>
+        <v>934.42535671737608</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="N24">
         <f t="shared" si="2"/>
-        <v>982.58242089263194</v>
+        <v>1052.6710513676792</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -6606,7 +6606,7 @@
       </c>
       <c r="N25">
         <f t="shared" si="2"/>
-        <v>1099.2700051062543</v>
+        <v>1179.0043885929597</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -6659,7 +6659,7 @@
       </c>
       <c r="N26">
         <f t="shared" si="2"/>
-        <v>1223.4103939473741</v>
+        <v>1313.5538677734057</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="N27">
         <f t="shared" si="2"/>
-        <v>1355.108354635134</v>
+        <v>1456.4439071926699</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="N28">
         <f t="shared" si="2"/>
-        <v>1494.465369961227</v>
+        <v>1607.7951508896153</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -6818,7 +6818,7 @@
       </c>
       <c r="N29">
         <f t="shared" si="2"/>
-        <v>1641.5798777523532</v>
+        <v>1767.7247402429612</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="N30">
         <f t="shared" si="2"/>
-        <v>1796.5474837318832</v>
+        <v>1936.3465556296376</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
@@ -6924,7 +6924,7 @@
       </c>
       <c r="N31">
         <f t="shared" si="2"/>
-        <v>1959.4611516717455</v>
+        <v>2113.771432509051</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
@@ -6977,7 +6977,7 @@
       </c>
       <c r="N32">
         <f t="shared" si="2"/>
-        <v>2130.4113740298362</v>
+        <v>2300.1073555108433</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
@@ -7030,7 +7030,7 @@
       </c>
       <c r="N33">
         <f t="shared" si="2"/>
-        <v>2309.4863257178449</v>
+        <v>2495.4596334901012</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
@@ -7083,7 +7083,7 @@
       </c>
       <c r="N34">
         <f t="shared" si="2"/>
-        <v>2496.7720032049629</v>
+        <v>2699.931058023868</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="N35">
         <f t="shared" si="2"/>
-        <v>2692.3523508091321</v>
+        <v>2913.6220474276256</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="N36">
         <f t="shared" si="2"/>
-        <v>2896.3093757400966</v>
+        <v>3136.6307780492934</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -7246,7 +7246,7 @@
       </c>
       <c r="N37">
         <f t="shared" si="2"/>
-        <v>3108.7232532236912</v>
+        <v>3369.0533043356754</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
@@ -7301,7 +7301,7 @@
       </c>
       <c r="N38">
         <f t="shared" si="2"/>
-        <v>3329.6724228433168</v>
+        <v>3610.9836689495814</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
@@ -7356,7 +7356,7 @@
       </c>
       <c r="N39">
         <f t="shared" si="2"/>
-        <v>3559.2336770741695</v>
+        <v>3862.5140040363508</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
@@ -7411,7 +7411,7 @@
       </c>
       <c r="N40">
         <f t="shared" si="2"/>
-        <v>3797.4822428522434</v>
+        <v>4123.7346245886538</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
@@ -7466,7 +7466,7 @@
       </c>
       <c r="N41">
         <f t="shared" si="2"/>
-        <v>4044.4918569077827</v>
+        <v>4394.7341147325396</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -7521,7 +7521,7 @@
       </c>
       <c r="N42">
         <f t="shared" si="2"/>
-        <v>4300.3348354987693</v>
+        <v>4675.5994076519155</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="N43">
         <f t="shared" si="2"/>
-        <v>4565.0821390994806</v>
+        <v>4966.4158597783535</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -7631,7 +7631,7 @@
       </c>
       <c r="N44">
         <f t="shared" si="2"/>
-        <v>4838.8034325315484</v>
+        <v>5267.2673197969425</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -7686,7 +7686,7 @@
       </c>
       <c r="N45">
         <f t="shared" si="2"/>
-        <v>5121.5671409661954</v>
+        <v>5578.2361929530007</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -7741,7 +7741,7 @@
       </c>
       <c r="N46">
         <f t="shared" si="2"/>
-        <v>5413.4405021768116</v>
+        <v>5899.403501088379</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -7796,7 +7796,7 @@
       </c>
       <c r="N47">
         <f t="shared" si="2"/>
-        <v>5714.4896153773952</v>
+        <v>6230.8489387876498</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="N48">
         <f t="shared" si="2"/>
-        <v>6024.779486945642</v>
+        <v>6572.6509259720251</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
@@ -7906,7 +7906,7 @@
       </c>
       <c r="N49">
         <f t="shared" si="2"/>
-        <v>6344.3740732964943</v>
+        <v>6924.8866572428878</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
@@ -7961,7 +7961,7 @@
       </c>
       <c r="N50">
         <f t="shared" si="2"/>
-        <v>6673.3363211442738</v>
+        <v>7287.6321482443909</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
@@ -8016,7 +8016,7 @@
       </c>
       <c r="N51">
         <f t="shared" si="2"/>
-        <v>7011.7282053664685</v>
+        <v>7660.9622792873633</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
@@ -8071,7 +8071,7 @@
       </c>
       <c r="N52">
         <f t="shared" si="2"/>
-        <v>7359.6107646608343</v>
+        <v>8044.9508364516587</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
@@ -8126,7 +8126,7 @@
       </c>
       <c r="N53">
         <f t="shared" si="2"/>
-        <v>7717.0441351681975</v>
+        <v>8439.6705503631802</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
@@ -8181,7 +8181,7 @@
       </c>
       <c r="N54">
         <f t="shared" si="2"/>
-        <v>8084.0875822169628</v>
+        <v>8845.19313282236</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="N55">
         <f t="shared" si="2"/>
-        <v>8460.7995303299267</v>
+        <v>9261.5893114445098</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
@@ -8291,7 +8291,7 @@
       </c>
       <c r="N56">
         <f t="shared" si="2"/>
-        <v>8847.2375916215024</v>
+        <v>9688.9288624571036</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
@@ -8346,7 +8346,7 @@
       </c>
       <c r="N57">
         <f t="shared" si="2"/>
-        <v>9243.4585927010576</v>
+        <v>10127.280641786332</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
@@ -8401,7 +8401,7 @@
       </c>
       <c r="N58">
         <f t="shared" si="2"/>
-        <v>9649.5186001882612</v>
+        <v>10576.712614553002</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
@@ -8456,7 +8456,7 @@
       </c>
       <c r="N59">
         <f t="shared" si="2"/>
-        <v>10065.472944936637</v>
+        <v>11037.291883087411</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
@@ -8511,7 +8511,7 @@
       </c>
       <c r="N60">
         <f t="shared" si="2"/>
-        <v>10491.37624505321</v>
+        <v>11509.084713563765</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
@@ -8566,7 +8566,7 @@
       </c>
       <c r="N61">
         <f t="shared" si="2"/>
-        <v>10927.282427795029</v>
+        <v>11992.156561345526</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
@@ -8621,7 +8621,7 @@
       </c>
       <c r="N62">
         <f t="shared" si="2"/>
-        <v>11373.244750415992</v>
+        <v>12486.572095126221</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="N63">
         <f t="shared" si="2"/>
-        <v>11829.315820032152</v>
+        <v>12992.395219942753</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
@@ -8731,7 +8731,7 @@
       </c>
       <c r="N64">
         <f t="shared" si="2"/>
-        <v>12295.547612567134</v>
+        <v>13509.689099132138</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
@@ -8786,7 +8786,7 @@
       </c>
       <c r="N65">
         <f t="shared" si="2"/>
-        <v>12771.991490835913</v>
+        <v>14038.516175297907</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -8841,7 +8841,7 @@
       </c>
       <c r="N66">
         <f t="shared" si="2"/>
-        <v>13258.698221818851</v>
+        <v>14578.938190345483</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
@@ -8896,7 +8896,7 @@
       </c>
       <c r="N67">
         <f t="shared" si="2"/>
-        <v>13755.717993175651</v>
+        <v>15131.016204643307</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
@@ -8951,7 +8951,7 @@
       </c>
       <c r="N68">
         <f t="shared" si="2"/>
-        <v>14263.100429043665</v>
+        <v>15694.810615360644</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
@@ -9005,8 +9005,8 @@
         <v>2851</v>
       </c>
       <c r="N69">
-        <f t="shared" ref="N69:N132" si="27">A69^2.3</f>
-        <v>14780.894605163148</v>
+        <f t="shared" ref="N69:N132" si="27">A69^2.323</f>
+        <v>16270.381174030408</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
@@ -9061,7 +9061,7 @@
       </c>
       <c r="N70">
         <f t="shared" si="27"/>
-        <v>15309.149063367115</v>
+        <v>16857.787003380745</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
@@ -9116,7 +9116,7 @@
       </c>
       <c r="N71">
         <f t="shared" si="27"/>
-        <v>15847.911825473058</v>
+        <v>17457.086613477069</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
@@ -9171,7 +9171,7 @@
       </c>
       <c r="N72">
         <f t="shared" si="27"/>
-        <v>16397.230406608742</v>
+        <v>18068.337917212506</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
@@ -9226,7 +9226,7 @@
       </c>
       <c r="N73">
         <f t="shared" si="27"/>
-        <v>16957.15182800372</v>
+        <v>18691.59824518222</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
@@ -9281,7 +9281,7 @@
       </c>
       <c r="N74">
         <f t="shared" si="27"/>
-        <v>17527.72262927581</v>
+        <v>19326.924359975237</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
@@ -9336,7 +9336,7 @@
       </c>
       <c r="N75">
         <f t="shared" si="27"/>
-        <v>18108.988880238638</v>
+        <v>19974.372469914062</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
@@ -9391,7 +9391,7 @@
       </c>
       <c r="N76">
         <f t="shared" si="27"/>
-        <v>18700.996192256236</v>
+        <v>20633.998242271638</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
@@ -9446,7 +9446,7 @@
       </c>
       <c r="N77">
         <f t="shared" si="27"/>
-        <v>19303.789729167664</v>
+        <v>21305.856815991738</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
@@ -9501,7 +9501,7 @@
       </c>
       <c r="N78">
         <f t="shared" si="27"/>
-        <v>19917.414217804115</v>
+        <v>21990.0028139391</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
@@ -9556,7 +9556,7 @@
       </c>
       <c r="N79">
         <f t="shared" si="27"/>
-        <v>20541.913958118472</v>
+        <v>22686.490354701677</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
@@ -9611,7 +9611,7 @@
       </c>
       <c r="N80">
         <f t="shared" si="27"/>
-        <v>21177.332832947341</v>
+        <v>23395.373063968567</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
@@ -9666,7 +9666,7 @@
       </c>
       <c r="N81">
         <f t="shared" si="27"/>
-        <v>21823.714317422939</v>
+        <v>24116.704085502843</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="N82">
         <f t="shared" si="27"/>
-        <v>22481.101488051965</v>
+        <v>24850.536091729886</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
@@ -9776,7 +9776,7 @@
       </c>
       <c r="N83">
         <f t="shared" si="27"/>
-        <v>23149.537031478074</v>
+        <v>25596.921293959309</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
@@ -9831,7 +9831,7 @@
       </c>
       <c r="N84">
         <f t="shared" si="27"/>
-        <v>23829.063252941665</v>
+        <v>26355.911452257031</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
@@ -9886,7 +9886,7 @@
       </c>
       <c r="N85">
         <f t="shared" si="27"/>
-        <v>24519.722084452245</v>
+        <v>27127.557884984755</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
@@ -9941,7 +9941,7 @@
       </c>
       <c r="N86">
         <f t="shared" si="27"/>
-        <v>25221.555092685732</v>
+        <v>27911.911478020902</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
@@ -9996,7 +9996,7 @@
       </c>
       <c r="N87">
         <f t="shared" si="27"/>
-        <v>25934.603486620148</v>
+        <v>28709.022693678744</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
@@ -10051,7 +10051,7 @@
       </c>
       <c r="N88">
         <f t="shared" si="27"/>
-        <v>26658.908124920301</v>
+        <v>29518.94157933387</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
@@ -10106,7 +10106,7 @@
       </c>
       <c r="N89">
         <f t="shared" si="27"/>
-        <v>27394.509523083809</v>
+        <v>30341.717775775051</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
@@ -10161,7 +10161,7 @@
       </c>
       <c r="N90">
         <f t="shared" si="27"/>
-        <v>28141.447860357657</v>
+        <v>31177.40052528942</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="N91">
         <f t="shared" si="27"/>
-        <v>28899.762986436941</v>
+        <v>32026.038679494508</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
@@ -10271,7 +10271,7 @@
       </c>
       <c r="N92">
         <f t="shared" si="27"/>
-        <v>29669.494427952748</v>
+        <v>32887.680706927225</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
@@ -10326,7 +10326,7 @@
       </c>
       <c r="N93">
         <f t="shared" si="27"/>
-        <v>30450.681394760803</v>
+        <v>33762.374700399829</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
@@ -10381,7 +10381,7 @@
       </c>
       <c r="N94">
         <f t="shared" si="27"/>
-        <v>31243.362786037218</v>
+        <v>34650.168384133904</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
@@ -10436,7 +10436,7 @@
       </c>
       <c r="N95">
         <f t="shared" si="27"/>
-        <v>32047.577196189912</v>
+        <v>35551.109120679226</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
@@ -10491,7 +10491,7 @@
       </c>
       <c r="N96">
         <f t="shared" si="27"/>
-        <v>32863.362920593936</v>
+        <v>36465.24391762889</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
@@ -10546,7 +10546,7 @@
       </c>
       <c r="N97">
         <f t="shared" si="27"/>
-        <v>33690.7579611564</v>
+        <v>37392.61943413657</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
@@ -10601,7 +10601,7 @@
       </c>
       <c r="N98">
         <f t="shared" si="27"/>
-        <v>34529.800031719591</v>
+        <v>38333.281987245486</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
@@ -10656,7 +10656,7 @@
       </c>
       <c r="N99">
         <f t="shared" si="27"/>
-        <v>35380.526563307401</v>
+        <v>39287.277558035457</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="N100">
         <f t="shared" si="27"/>
-        <v>36242.974709221147</v>
+        <v>40254.651797595696</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
@@ -10766,7 +10766,7 @@
       </c>
       <c r="N101">
         <f t="shared" si="27"/>
-        <v>37117.181349992061</v>
+        <v>41235.450032829787</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
@@ -10821,7 +10821,7 @@
       </c>
       <c r="N102">
         <f t="shared" si="27"/>
-        <v>38003.183098193949</v>
+        <v>42229.71727209942</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
@@ -10876,7 +10876,7 @@
       </c>
       <c r="N103">
         <f t="shared" si="27"/>
-        <v>38901.016303123186</v>
+        <v>43237.498210712416</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
@@ -10931,7 +10931,7 @@
       </c>
       <c r="N104">
         <f t="shared" si="27"/>
-        <v>39810.717055349742</v>
+        <v>44258.837236262691</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
@@ -10986,7 +10986,7 @@
       </c>
       <c r="N105">
         <f t="shared" si="27"/>
-        <v>40732.321191144503</v>
+        <v>45293.778433824278</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
@@ -11041,7 +11041,7 @@
       </c>
       <c r="N106">
         <f t="shared" si="27"/>
-        <v>41665.864296787899</v>
+        <v>46342.365591008471</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
@@ -11096,7 +11096,7 @@
       </c>
       <c r="N107">
         <f t="shared" si="27"/>
-        <v>42611.381712763323</v>
+        <v>47404.642202887051</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
@@ -11151,7 +11151,7 @@
       </c>
       <c r="N108">
         <f t="shared" si="27"/>
-        <v>43568.908537839743</v>
+        <v>48480.651476785271</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
@@ -11206,7 +11206,7 @@
       </c>
       <c r="N109">
         <f t="shared" si="27"/>
-        <v>44538.47963304841</v>
+        <v>49570.436336953186</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
@@ -11261,7 +11261,7 @@
       </c>
       <c r="N110">
         <f t="shared" si="27"/>
-        <v>45520.129625555841</v>
+        <v>50674.039429114659</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="N111">
         <f t="shared" si="27"/>
-        <v>46513.892912437987</v>
+        <v>51791.503124902352</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
@@ -11371,7 +11371,7 @@
       </c>
       <c r="N112">
         <f t="shared" si="27"/>
-        <v>47519.803664358595</v>
+        <v>52922.869526180657</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
@@ -11426,7 +11426,7 @@
       </c>
       <c r="N113">
         <f t="shared" si="27"/>
-        <v>48537.895829154462</v>
+        <v>54068.180469260034</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
@@ -11481,7 +11481,7 @@
       </c>
       <c r="N114">
         <f t="shared" si="27"/>
-        <v>49568.203135332536</v>
+        <v>55227.477529008618</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
@@ -11536,7 +11536,7 @@
       </c>
       <c r="N115">
         <f t="shared" si="27"/>
-        <v>50610.759095479203</v>
+        <v>56400.802022861862</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
@@ -11591,7 +11591,7 @@
       </c>
       <c r="N116">
         <f t="shared" si="27"/>
-        <v>51665.597009587174</v>
+        <v>57588.195014735793</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
@@ -11646,7 +11646,7 @@
       </c>
       <c r="N117">
         <f t="shared" si="27"/>
-        <v>52732.749968301789</v>
+        <v>58789.697318845465</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
@@ -11701,7 +11701,7 @@
       </c>
       <c r="N118">
         <f t="shared" si="27"/>
-        <v>53812.250856087659</v>
+        <v>60005.349503432903</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
@@ -11756,7 +11756,7 @@
       </c>
       <c r="N119">
         <f t="shared" si="27"/>
-        <v>54904.132354322632</v>
+        <v>61235.191894406758</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
@@ -11811,7 +11811,7 @@
       </c>
       <c r="N120">
         <f t="shared" si="27"/>
-        <v>56008.426944316241</v>
+        <v>62479.264578896997</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
@@ -11866,7 +11866,7 @@
       </c>
       <c r="N121">
         <f t="shared" si="27"/>
-        <v>57125.166910258566</v>
+        <v>63737.607408726588</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
@@ -11921,7 +11921,7 @@
       </c>
       <c r="N122">
         <f t="shared" si="27"/>
-        <v>58254.384342100842</v>
+        <v>65010.260003803938</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
@@ -11976,7 +11976,7 @@
       </c>
       <c r="N123">
         <f t="shared" si="27"/>
-        <v>59396.11113836903</v>
+        <v>66297.261755437183</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
@@ -12031,7 +12031,7 @@
       </c>
       <c r="N124">
         <f t="shared" si="27"/>
-        <v>60550.379008913755</v>
+        <v>67598.651829574344</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
@@ -12086,7 +12086,7 @@
       </c>
       <c r="N125">
         <f t="shared" si="27"/>
-        <v>61717.219477598526</v>
+        <v>68914.469169970151</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
@@ -12141,7 +12141,7 @@
       </c>
       <c r="N126">
         <f t="shared" si="27"/>
-        <v>62896.663884925729</v>
+        <v>70244.752501282463</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
@@ -12196,7 +12196,7 @@
       </c>
       <c r="N127">
         <f t="shared" si="27"/>
-        <v>64088.743390606833</v>
+        <v>71589.540332100762</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
@@ -12251,7 +12251,7 @@
       </c>
       <c r="N128">
         <f t="shared" si="27"/>
-        <v>65293.488976073888</v>
+        <v>72948.870957908162</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.3">
@@ -12306,7 +12306,7 @@
       </c>
       <c r="N129">
         <f t="shared" si="27"/>
-        <v>66510.931446936302</v>
+        <v>74322.782463978889</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
@@ -12361,7 +12361,7 @@
       </c>
       <c r="N130">
         <f t="shared" si="27"/>
-        <v>67741.101435385339</v>
+        <v>75711.312728213496</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
@@ -12416,7 +12416,7 @@
       </c>
       <c r="N131">
         <f t="shared" si="27"/>
-        <v>68984.029402546003</v>
+        <v>77114.499423914152</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
@@ -12471,7 +12471,7 @@
       </c>
       <c r="N132">
         <f t="shared" si="27"/>
-        <v>70239.745640778419</v>
+        <v>78532.38002250006</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
@@ -12525,8 +12525,8 @@
         <v>2851</v>
       </c>
       <c r="N133">
-        <f t="shared" ref="N133:N196" si="38">A133^2.3</f>
-        <v>71508.280275931145</v>
+        <f t="shared" ref="N133:N196" si="38">A133^2.323</f>
+        <v>79964.991796166636</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.3">
@@ -12581,7 +12581,7 @@
       </c>
       <c r="N134">
         <f t="shared" si="38"/>
-        <v>72789.663269546436</v>
+        <v>81412.371820488246</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.3">
@@ -12636,7 +12636,7 @@
       </c>
       <c r="N135">
         <f t="shared" si="38"/>
-        <v>74083.924421020012</v>
+        <v>82874.556976968772</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.3">
@@ -12691,7 +12691,7 @@
       </c>
       <c r="N136">
         <f t="shared" si="38"/>
-        <v>75391.093369716007</v>
+        <v>84351.58395553779</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.3">
@@ -12746,7 +12746,7 @@
       </c>
       <c r="N137">
         <f t="shared" si="38"/>
-        <v>76711.199597037412</v>
+        <v>85843.489256997302</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.3">
@@ -12801,7 +12801,7 @@
       </c>
       <c r="N138">
         <f t="shared" si="38"/>
-        <v>78044.272428456039</v>
+        <v>87350.309195417925</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.3">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="N139">
         <f t="shared" si="38"/>
-        <v>79390.341035500373</v>
+        <v>88872.079900488709</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.3">
@@ -12911,7 +12911,7 @@
       </c>
       <c r="N140">
         <f t="shared" si="38"/>
-        <v>80749.434437702919</v>
+        <v>90408.837319817147</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.3">
@@ -12966,7 +12966,7 @@
       </c>
       <c r="N141">
         <f t="shared" si="38"/>
-        <v>82121.581504510017</v>
+        <v>91960.617221187247</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.3">
@@ -13021,7 +13021,7 @@
       </c>
       <c r="N142">
         <f t="shared" si="38"/>
-        <v>83506.810957153197</v>
+        <v>93527.455194770126</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.3">
@@ -13076,7 +13076,7 @@
       </c>
       <c r="N143">
         <f t="shared" si="38"/>
-        <v>84905.151370483029</v>
+        <v>95109.386655293827</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
@@ -13131,7 +13131,7 @@
       </c>
       <c r="N144">
         <f t="shared" si="38"/>
-        <v>86316.631174768656</v>
+        <v>96706.446844169812</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.3">
@@ -13186,7 +13186,7 @@
       </c>
       <c r="N145">
         <f t="shared" si="38"/>
-        <v>87741.278657461356</v>
+        <v>98318.670831578958</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.3">
@@ -13241,7 +13241,7 @@
       </c>
       <c r="N146">
         <f t="shared" si="38"/>
-        <v>89179.121964924139</v>
+        <v>99946.093518517373</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.3">
@@ -13296,7 +13296,7 @@
       </c>
       <c r="N147">
         <f t="shared" si="38"/>
-        <v>90630.189104129269</v>
+        <v>101588.74963880498</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.3">
@@ -13351,7 +13351,7 @@
       </c>
       <c r="N148">
         <f t="shared" si="38"/>
-        <v>92094.50794432321</v>
+        <v>103246.67376105444</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.3">
@@ -13406,7 +13406,7 @@
       </c>
       <c r="N149">
         <f t="shared" si="38"/>
-        <v>93572.106218658795</v>
+        <v>104919.90029060378</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
@@ -13461,7 +13461,7 @@
       </c>
       <c r="N150">
         <f t="shared" si="38"/>
-        <v>95063.011525799084</v>
+        <v>106608.46347141403</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.3">
@@ -13516,7 +13516,7 @@
       </c>
       <c r="N151">
         <f t="shared" si="38"/>
-        <v>96567.251331489941</v>
+        <v>108312.39738793176</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.3">
@@ -13571,7 +13571,7 @@
       </c>
       <c r="N152">
         <f t="shared" si="38"/>
-        <v>98084.85297010449</v>
+        <v>110031.73596691569</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.3">
@@ -13626,7 +13626,7 @@
       </c>
       <c r="N153">
         <f t="shared" si="38"/>
-        <v>99615.843646158362</v>
+        <v>111766.51297923342</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.3">
@@ -13681,7 +13681,7 @@
       </c>
       <c r="N154">
         <f t="shared" si="38"/>
-        <v>101160.25043579798</v>
+        <v>113516.7620416218</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.3">
@@ -13736,7 +13736,7 @@
       </c>
       <c r="N155">
         <f t="shared" si="38"/>
-        <v>102718.10028826201</v>
+        <v>115282.51661842002</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.3">
@@ -13791,7 +13791,7 @@
       </c>
       <c r="N156">
         <f t="shared" si="38"/>
-        <v>104289.42002731607</v>
+        <v>117063.81002326754</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.3">
@@ -13846,7 +13846,7 @@
       </c>
       <c r="N157">
         <f t="shared" si="38"/>
-        <v>105874.23635266184</v>
+        <v>118860.67542077569</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.3">
@@ -13901,7 +13901,7 @@
       </c>
       <c r="N158">
         <f t="shared" si="38"/>
-        <v>107472.57584132279</v>
+        <v>120673.14582816768</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.3">
@@ -13956,7 +13956,7 @@
       </c>
       <c r="N159">
         <f t="shared" si="38"/>
-        <v>109084.46494900217</v>
+        <v>122501.25411688969</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.3">
@@ -14011,7 +14011,7 @@
       </c>
       <c r="N160">
         <f t="shared" si="38"/>
-        <v>110709.93001142096</v>
+        <v>124345.03301419674</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.3">
@@ -14066,7 +14066,7 @@
       </c>
       <c r="N161">
         <f t="shared" si="38"/>
-        <v>112348.99724563042</v>
+        <v>126204.51510470772</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.3">
@@ -14121,7 +14121,7 @@
       </c>
       <c r="N162">
         <f t="shared" si="38"/>
-        <v>114001.69275130187</v>
+        <v>128079.73283193677</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.3">
@@ -14176,7 +14176,7 @@
       </c>
       <c r="N163">
         <f t="shared" si="38"/>
-        <v>115668.04251199565</v>
+        <v>129970.71849979584</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.3">
@@ -14231,7 +14231,7 @@
       </c>
       <c r="N164">
         <f t="shared" si="38"/>
-        <v>117348.07239640701</v>
+        <v>131877.50427407434</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.3">
@@ -14286,7 +14286,7 @@
       </c>
       <c r="N165">
         <f t="shared" si="38"/>
-        <v>119041.8081595924</v>
+        <v>133800.12218389334</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.3">
@@ -14341,7 +14341,7 @@
       </c>
       <c r="N166">
         <f t="shared" si="38"/>
-        <v>120749.27544417309</v>
+        <v>135738.60412313321</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.3">
@@ -14396,7 +14396,7 @@
       </c>
       <c r="N167">
         <f t="shared" si="38"/>
-        <v>122470.4997815214</v>
+        <v>137692.98185184173</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.3">
@@ -14451,7 +14451,7 @@
       </c>
       <c r="N168">
         <f t="shared" si="38"/>
-        <v>124205.50659292417</v>
+        <v>139663.2869976144</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.3">
@@ -14506,7 +14506,7 @@
       </c>
       <c r="N169">
         <f t="shared" si="38"/>
-        <v>125954.32119072901</v>
+        <v>141649.55105695577</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.3">
@@ -14561,7 +14561,7 @@
       </c>
       <c r="N170">
         <f t="shared" si="38"/>
-        <v>127716.96877947185</v>
+        <v>143651.80539661771</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.3">
@@ -14616,7 +14616,7 @@
       </c>
       <c r="N171">
         <f t="shared" si="38"/>
-        <v>129493.47445698403</v>
+        <v>145670.08125491321</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.3">
@@ -14671,7 +14671,7 @@
       </c>
       <c r="N172">
         <f t="shared" si="38"/>
-        <v>131283.86321548402</v>
+        <v>147704.40974301344</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.3">
@@ -14726,7 +14726,7 @@
       </c>
       <c r="N173">
         <f t="shared" si="38"/>
-        <v>133088.15994264992</v>
+        <v>149754.82184622166</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.3">
@@ -14781,7 +14781,7 @@
       </c>
       <c r="N174">
         <f t="shared" si="38"/>
-        <v>134906.38942267487</v>
+        <v>151821.34842522649</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.3">
@@ -14836,7 +14836,7 @@
       </c>
       <c r="N175">
         <f t="shared" si="38"/>
-        <v>136738.57633730577</v>
+        <v>153904.02021733596</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.3">
@@ -14891,7 +14891,7 @@
       </c>
       <c r="N176">
         <f t="shared" si="38"/>
-        <v>138584.74526686646</v>
+        <v>156002.86783769261</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.3">
@@ -14946,7 +14946,7 @@
       </c>
       <c r="N177">
         <f t="shared" si="38"/>
-        <v>140444.9206912636</v>
+        <v>158117.92178047</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.3">
@@ -15001,7 +15001,7 @@
       </c>
       <c r="N178">
         <f t="shared" si="38"/>
-        <v>142319.12699097604</v>
+        <v>160249.21242004808</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.3">
@@ -15056,7 +15056,7 @@
       </c>
       <c r="N179">
         <f t="shared" si="38"/>
-        <v>144207.38844803252</v>
+        <v>162396.77001217374</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.3">
@@ -15111,7 +15111,7 @@
       </c>
       <c r="N180">
         <f t="shared" si="38"/>
-        <v>146109.72924696823</v>
+        <v>164560.62469510085</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.3">
@@ -15166,7 +15166,7 @@
       </c>
       <c r="N181">
         <f t="shared" si="38"/>
-        <v>148026.17347577412</v>
+        <v>166740.80649071606</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.3">
@@ -15221,7 +15221,7 @@
       </c>
       <c r="N182">
         <f t="shared" si="38"/>
-        <v>149956.74512682288</v>
+        <v>168937.34530564255</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.3">
@@ -15276,7 +15276,7 @@
       </c>
       <c r="N183">
         <f t="shared" si="38"/>
-        <v>151901.46809778994</v>
+        <v>171150.27093233177</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.3">
@@ -15331,7 +15331,7 @@
       </c>
       <c r="N184">
         <f t="shared" si="38"/>
-        <v>153860.3661925529</v>
+        <v>173379.61305013759</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.3">
@@ -15386,7 +15386,7 @@
       </c>
       <c r="N185">
         <f t="shared" si="38"/>
-        <v>155833.46312208218</v>
+        <v>175625.40122637275</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.3">
@@ -15441,7 +15441,7 @@
       </c>
       <c r="N186">
         <f t="shared" si="38"/>
-        <v>157820.78250531675</v>
+        <v>177887.66491735043</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.3">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="N187">
         <f t="shared" si="38"/>
-        <v>159822.34787002689</v>
+        <v>180166.43346941331</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.3">
@@ -15551,7 +15551,7 @@
       </c>
       <c r="N188">
         <f t="shared" si="38"/>
-        <v>161838.18265366266</v>
+        <v>182461.73611994152</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.3">
@@ -15606,7 +15606,7 @@
       </c>
       <c r="N189">
         <f t="shared" si="38"/>
-        <v>163868.31020419396</v>
+        <v>184773.60199835183</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.3">
@@ -15661,7 +15661,7 @@
       </c>
       <c r="N190">
         <f t="shared" si="38"/>
-        <v>165912.75378093374</v>
+        <v>187102.0601270796</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.3">
@@ -15716,7 +15716,7 @@
       </c>
       <c r="N191">
         <f t="shared" si="38"/>
-        <v>167971.53655535154</v>
+        <v>189447.13942254533</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.3">
@@ -15771,7 +15771,7 @@
       </c>
       <c r="N192">
         <f t="shared" si="38"/>
-        <v>170044.68161187496</v>
+        <v>191808.86869610971</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.3">
@@ -15826,7 +15826,7 @@
       </c>
       <c r="N193">
         <f t="shared" si="38"/>
-        <v>172132.21194868017</v>
+        <v>194187.27665501539</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.3">
@@ -15881,7 +15881,7 @@
       </c>
       <c r="N194">
         <f t="shared" si="38"/>
-        <v>174234.15047846915</v>
+        <v>196582.39190331142</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.3">
@@ -15936,7 +15936,7 @@
       </c>
       <c r="N195">
         <f t="shared" si="38"/>
-        <v>176350.52002923857</v>
+        <v>198994.24294276995</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.3">
@@ -15991,7 +15991,7 @@
       </c>
       <c r="N196">
         <f t="shared" si="38"/>
-        <v>178481.34334503472</v>
+        <v>201422.85817378489</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.3">
@@ -16045,8 +16045,8 @@
         <v>2851</v>
       </c>
       <c r="N197">
-        <f t="shared" ref="N197:N260" si="49">A197^2.3</f>
-        <v>180626.64308670099</v>
+        <f t="shared" ref="N197:N260" si="49">A197^2.323</f>
+        <v>203868.26589626307</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.3">
@@ -16101,7 +16101,7 @@
       </c>
       <c r="N198">
         <f t="shared" si="49"/>
-        <v>182786.44183261122</v>
+        <v>206330.49431049728</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.3">
@@ -16156,7 +16156,7 @@
       </c>
       <c r="N199">
         <f t="shared" si="49"/>
-        <v>184960.76207939698</v>
+        <v>208809.57151803395</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.3">
@@ -16211,7 +16211,7 @@
       </c>
       <c r="N200">
         <f t="shared" si="49"/>
-        <v>187149.62624266159</v>
+        <v>211305.52552252213</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.3">
@@ -16266,7 +16266,7 @@
       </c>
       <c r="N201">
         <f t="shared" si="49"/>
-        <v>189353.0566576845</v>
+        <v>213818.38423055594</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.3">
@@ -16321,7 +16321,7 @@
       </c>
       <c r="N202">
         <f t="shared" si="49"/>
-        <v>191571.07558011837</v>
+        <v>216348.17545250189</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.3">
@@ -16376,7 +16376,7 @@
       </c>
       <c r="N203">
         <f t="shared" si="49"/>
-        <v>193803.7051866735</v>
+        <v>218894.92690331896</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.3">
@@ -16431,7 +16431,7 @@
       </c>
       <c r="N204">
         <f t="shared" si="49"/>
-        <v>196050.96757579557</v>
+        <v>221458.66620336301</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.3">
@@ -16486,7 +16486,7 @@
       </c>
       <c r="N205">
         <f t="shared" si="49"/>
-        <v>198312.8847683327</v>
+        <v>224039.42087918453</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.3">
@@ -16541,7 +16541,7 @@
       </c>
       <c r="N206">
         <f t="shared" si="49"/>
-        <v>200589.4787081934</v>
+        <v>226637.21836431159</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.3">
@@ -16596,7 +16596,7 @@
       </c>
       <c r="N207">
         <f t="shared" si="49"/>
-        <v>202880.77126299593</v>
+        <v>229252.08600002655</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.3">
@@ -16651,7 +16651,7 @@
       </c>
       <c r="N208">
         <f t="shared" si="49"/>
-        <v>205186.78422471115</v>
+        <v>231884.0510361316</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.3">
@@ -16706,7 +16706,7 @@
       </c>
       <c r="N209">
         <f t="shared" si="49"/>
-        <v>207507.53931029388</v>
+        <v>234533.14063170063</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.3">
@@ -16761,7 +16761,7 @@
       </c>
       <c r="N210">
         <f t="shared" si="49"/>
-        <v>209843.05816230504</v>
+        <v>237199.38185582403</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.3">
@@ -16816,7 +16816,7 @@
       </c>
       <c r="N211">
         <f t="shared" si="49"/>
-        <v>212193.36234953071</v>
+        <v>239882.80168834556</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.3">
@@ -16871,7 +16871,7 @@
       </c>
       <c r="N212">
         <f t="shared" si="49"/>
-        <v>214558.47336758795</v>
+        <v>242583.42702058743</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.3">
@@ -16926,7 +16926,7 @@
       </c>
       <c r="N213">
         <f t="shared" si="49"/>
-        <v>216938.41263952543</v>
+        <v>245301.28465606444</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.3">
@@ -16981,7 +16981,7 @@
       </c>
       <c r="N214">
         <f t="shared" si="49"/>
-        <v>219333.20151641537</v>
+        <v>248036.40131119228</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.3">
@@ -17036,7 +17036,7 @@
       </c>
       <c r="N215">
         <f t="shared" si="49"/>
-        <v>221742.86127793801</v>
+        <v>250788.8036159848</v>
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.3">
@@ -17091,7 +17091,7 @@
       </c>
       <c r="N216">
         <f t="shared" si="49"/>
-        <v>224167.41313295782</v>
+        <v>253558.51811474311</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.3">
@@ -17146,7 +17146,7 @@
       </c>
       <c r="N217">
         <f t="shared" si="49"/>
-        <v>226606.87822009539</v>
+        <v>256345.57126673579</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.3">
@@ -17201,7 +17201,7 @@
       </c>
       <c r="N218">
         <f t="shared" si="49"/>
-        <v>229061.27760828673</v>
+        <v>259149.98944686979</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.3">
@@ -17256,7 +17256,7 @@
       </c>
       <c r="N219">
         <f t="shared" si="49"/>
-        <v>231530.63229734157</v>
+        <v>261971.79894635541</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.3">
@@ -17311,7 +17311,7 @@
       </c>
       <c r="N220">
         <f t="shared" si="49"/>
-        <v>234014.96321848931</v>
+        <v>264811.02597335831</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.3">
@@ -17366,7 +17366,7 @@
       </c>
       <c r="N221">
         <f t="shared" si="49"/>
-        <v>236514.29123492076</v>
+        <v>267667.69665364822</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.3">
@@ -17421,7 +17421,7 @@
       </c>
       <c r="N222">
         <f t="shared" si="49"/>
-        <v>239028.63714232398</v>
+        <v>270541.83703123807</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.3">
@@ -17476,7 +17476,7 @@
       </c>
       <c r="N223">
         <f t="shared" si="49"/>
-        <v>241558.02166941194</v>
+        <v>273433.47306901333</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.3">
@@ -17531,7 +17531,7 @@
       </c>
       <c r="N224">
         <f t="shared" si="49"/>
-        <v>244102.46547844275</v>
+        <v>276342.6306493553</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.3">
@@ -17586,7 +17586,7 @@
       </c>
       <c r="N225">
         <f t="shared" si="49"/>
-        <v>246661.98916573459</v>
+        <v>279269.33557475841</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.3">
@@ -17641,7 +17641,7 @@
       </c>
       <c r="N226">
         <f t="shared" si="49"/>
-        <v>249236.61326217835</v>
+        <v>282213.61356843612</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.3">
@@ -17696,7 +17696,7 @@
       </c>
       <c r="N227">
         <f t="shared" si="49"/>
-        <v>251826.35823373467</v>
+        <v>285175.49027492345</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.3">
@@ -17751,7 +17751,7 @@
       </c>
       <c r="N228">
         <f t="shared" si="49"/>
-        <v>254431.24448193255</v>
+        <v>288154.99126066727</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.3">
@@ -17806,7 +17806,7 @@
       </c>
       <c r="N229">
         <f t="shared" si="49"/>
-        <v>257051.29234436239</v>
+        <v>291152.14201461786</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.3">
@@ -17861,7 +17861,7 @@
       </c>
       <c r="N230">
         <f t="shared" si="49"/>
-        <v>259686.52209515605</v>
+        <v>294166.96794880333</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.3">
@@ -17916,7 +17916,7 @@
       </c>
       <c r="N231">
         <f t="shared" si="49"/>
-        <v>262336.95394546847</v>
+        <v>297199.49439890357</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.3">
@@ -17971,7 +17971,7 @@
       </c>
       <c r="N232">
         <f t="shared" si="49"/>
-        <v>265002.60804394988</v>
+        <v>300249.74662481743</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.3">
@@ -18026,7 +18026,7 @@
       </c>
       <c r="N233">
         <f t="shared" si="49"/>
-        <v>267683.50447721384</v>
+        <v>303317.74981122091</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.3">
@@ -18081,7 +18081,7 @@
       </c>
       <c r="N234">
         <f t="shared" si="49"/>
-        <v>270379.66327029699</v>
+        <v>306403.52906811831</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.3">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="N235">
         <f t="shared" si="49"/>
-        <v>273091.10438711772</v>
+        <v>309507.10943139007</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.3">
@@ -18191,7 +18191,7 @@
       </c>
       <c r="N236">
         <f t="shared" si="49"/>
-        <v>275817.84773092705</v>
+        <v>312628.51586333197</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.3">
@@ -18246,7 +18246,7 @@
       </c>
       <c r="N237">
         <f t="shared" si="49"/>
-        <v>278559.91314475308</v>
+        <v>315767.77325318678</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.3">
@@ -18301,7 +18301,7 @@
       </c>
       <c r="N238">
         <f t="shared" si="49"/>
-        <v>281317.32041184313</v>
+        <v>318924.90641767537</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.3">
@@ -18356,7 +18356,7 @@
       </c>
       <c r="N239">
         <f t="shared" si="49"/>
-        <v>284090.08925609681</v>
+        <v>322099.94010151358</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.3">
@@ -18411,7 +18411,7 @@
       </c>
       <c r="N240">
         <f t="shared" si="49"/>
-        <v>286878.2393425004</v>
+        <v>325292.89897793089</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.3">
@@ -18466,7 +18466,7 @@
       </c>
       <c r="N241">
         <f t="shared" si="49"/>
-        <v>289681.79027754813</v>
+        <v>328503.80764917738</v>
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.3">
@@ -18521,7 +18521,7 @@
       </c>
       <c r="N242">
         <f t="shared" si="49"/>
-        <v>292500.76160966698</v>
+        <v>331732.69064702984</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.3">
@@ -18576,7 +18576,7 @@
       </c>
       <c r="N243">
         <f t="shared" si="49"/>
-        <v>295335.17282962968</v>
+        <v>334979.57243328763</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.3">
@@ -18631,7 +18631,7 @@
       </c>
       <c r="N244">
         <f t="shared" si="49"/>
-        <v>298185.04337096616</v>
+        <v>338244.47740026552</v>
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.3">
@@ -18686,7 +18686,7 @@
       </c>
       <c r="N245">
         <f t="shared" si="49"/>
-        <v>301050.39261037199</v>
+        <v>341527.42987128237</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.3">
@@ -18741,7 +18741,7 @@
       </c>
       <c r="N246">
         <f t="shared" si="49"/>
-        <v>303931.2398681097</v>
+        <v>344828.45410113985</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.3">
@@ -18796,7 +18796,7 @@
       </c>
       <c r="N247">
         <f t="shared" si="49"/>
-        <v>306827.60440840322</v>
+        <v>348147.5742765984</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.3">
@@ -18851,7 +18851,7 @@
       </c>
       <c r="N248">
         <f t="shared" si="49"/>
-        <v>309739.5054398374</v>
+        <v>351484.81451685331</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.3">
@@ -18906,7 +18906,7 @@
       </c>
       <c r="N249">
         <f t="shared" si="49"/>
-        <v>312666.96211573889</v>
+        <v>354840.19887399394</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.3">
@@ -18961,7 +18961,7 @@
       </c>
       <c r="N250">
         <f t="shared" si="49"/>
-        <v>315609.9935345659</v>
+        <v>358213.75133346551</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.3">
@@ -19016,7 +19016,7 @@
       </c>
       <c r="N251">
         <f t="shared" si="49"/>
-        <v>318568.61874029005</v>
+        <v>361605.49581453012</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.3">
@@ -19071,7 +19071,7 @@
       </c>
       <c r="N252">
         <f t="shared" si="49"/>
-        <v>321542.85672276479</v>
+        <v>365015.45617071027</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.3">
@@ -19126,7 +19126,7 @@
       </c>
       <c r="N253">
         <f t="shared" si="49"/>
-        <v>324532.72641810396</v>
+        <v>368443.65619023674</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.3">
@@ -19181,7 +19181,7 @@
       </c>
       <c r="N254">
         <f t="shared" si="49"/>
-        <v>327538.24670904857</v>
+        <v>371890.11959649331</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.3">
@@ -19236,7 +19236,7 @@
       </c>
       <c r="N255">
         <f t="shared" si="49"/>
-        <v>330559.43642532837</v>
+        <v>375354.87004844821</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.3">
@@ -19291,7 +19291,7 @@
       </c>
       <c r="N256">
         <f t="shared" si="49"/>
-        <v>333596.31434402353</v>
+        <v>378837.93114108773</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.3">
@@ -19346,7 +19346,7 @@
       </c>
       <c r="N257">
         <f t="shared" si="49"/>
-        <v>336648.89918992063</v>
+        <v>382339.32640584133</v>
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.3">
@@ -19401,7 +19401,7 @@
       </c>
       <c r="N258">
         <f t="shared" si="49"/>
-        <v>339717.20963586355</v>
+        <v>385859.07931100769</v>
       </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.3">
@@ -19456,7 +19456,7 @@
       </c>
       <c r="N259">
         <f t="shared" si="49"/>
-        <v>342801.26430310495</v>
+        <v>389397.21326216852</v>
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.3">
@@ -19511,7 +19511,7 @@
       </c>
       <c r="N260">
         <f t="shared" si="49"/>
-        <v>345901.08176164894</v>
+        <v>392953.75160260574</v>
       </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.3">
@@ -19565,8 +19565,8 @@
         <v>2851</v>
       </c>
       <c r="N261">
-        <f t="shared" ref="N261:N293" si="60">A261^2.3</f>
-        <v>349016.68053059222</v>
+        <f t="shared" ref="N261:N293" si="60">A261^2.323</f>
+        <v>396528.71761370794</v>
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.3">
@@ -19621,7 +19621,7 @@
       </c>
       <c r="N262">
         <f t="shared" si="60"/>
-        <v>352148.07907846017</v>
+        <v>400122.13451537438</v>
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.3">
@@ -19676,7 +19676,7 @@
       </c>
       <c r="N263">
         <f t="shared" si="60"/>
-        <v>355295.295823547</v>
+        <v>403734.0254664204</v>
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.3">
@@ -19731,7 +19731,7 @@
       </c>
       <c r="N264">
         <f t="shared" si="60"/>
-        <v>358458.34913423873</v>
+        <v>407364.41356497019</v>
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.3">
@@ -19786,7 +19786,7 @@
       </c>
       <c r="N265">
         <f t="shared" si="60"/>
-        <v>361637.25732934661</v>
+        <v>411013.3218488507</v>
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.3">
@@ -19841,7 +19841,7 @@
       </c>
       <c r="N266">
         <f t="shared" si="60"/>
-        <v>364832.03867842362</v>
+        <v>414680.77329597605</v>
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.3">
@@ -19896,7 +19896,7 @@
       </c>
       <c r="N267">
         <f t="shared" si="60"/>
-        <v>368042.71140209428</v>
+        <v>418366.79082474136</v>
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.3">
@@ -19951,7 +19951,7 @@
       </c>
       <c r="N268">
         <f t="shared" si="60"/>
-        <v>371269.29367236298</v>
+        <v>422071.3972943913</v>
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.3">
@@ -20006,7 +20006,7 @@
       </c>
       <c r="N269">
         <f t="shared" si="60"/>
-        <v>374511.80361293349</v>
+        <v>425794.61550540791</v>
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.3">
@@ -20061,7 +20061,7 @@
       </c>
       <c r="N270">
         <f t="shared" si="60"/>
-        <v>377770.25929951732</v>
+        <v>429536.46819987474</v>
       </c>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.3">
@@ -20116,7 +20116,7 @@
       </c>
       <c r="N271">
         <f t="shared" si="60"/>
-        <v>381044.67876014038</v>
+        <v>433296.97806185111</v>
       </c>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.3">
@@ -20171,7 +20171,7 @@
       </c>
       <c r="N272">
         <f t="shared" si="60"/>
-        <v>384335.07997544913</v>
+        <v>437076.16771773482</v>
       </c>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.3">
@@ -20226,7 +20226,7 @@
       </c>
       <c r="N273">
         <f t="shared" si="60"/>
-        <v>387641.48087901168</v>
+        <v>440874.05973662593</v>
       </c>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.3">
@@ -20281,7 +20281,7 @@
       </c>
       <c r="N274">
         <f t="shared" si="60"/>
-        <v>390963.89935761545</v>
+        <v>444690.67663068406</v>
       </c>
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.3">
@@ -20336,7 +20336,7 @@
       </c>
       <c r="N275">
         <f t="shared" si="60"/>
-        <v>394302.35325156088</v>
+        <v>448526.04085548117</v>
       </c>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.3">
@@ -20391,7 +20391,7 @@
       </c>
       <c r="N276">
         <f t="shared" si="60"/>
-        <v>397656.86035495787</v>
+        <v>452380.17481035594</v>
       </c>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.3">
@@ -20446,7 +20446,7 @@
       </c>
       <c r="N277">
         <f t="shared" si="60"/>
-        <v>401027.43841601018</v>
+        <v>456253.10083875625</v>
       </c>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.3">
@@ -20501,7 +20501,7 @@
       </c>
       <c r="N278">
         <f t="shared" si="60"/>
-        <v>404414.10513730726</v>
+        <v>460144.8412285918</v>
       </c>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.3">
@@ -20556,7 +20556,7 @@
       </c>
       <c r="N279">
         <f t="shared" si="60"/>
-        <v>407816.87817610218</v>
+        <v>464055.41821256437</v>
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.3">
@@ -20611,7 +20611,7 @@
       </c>
       <c r="N280">
         <f t="shared" si="60"/>
-        <v>411235.77514459653</v>
+        <v>467984.8539685132</v>
       </c>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.3">
@@ -20666,7 +20666,7 @@
       </c>
       <c r="N281">
         <f t="shared" si="60"/>
-        <v>414670.8136102194</v>
+        <v>471933.17061974824</v>
       </c>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.3">
@@ -20721,7 +20721,7 @@
       </c>
       <c r="N282">
         <f t="shared" si="60"/>
-        <v>418122.01109589828</v>
+        <v>475900.39023537457</v>
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.3">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="N283">
         <f t="shared" si="60"/>
-        <v>421589.38508033677</v>
+        <v>479886.53483062889</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.3">
@@ -20831,7 +20831,7 @@
       </c>
       <c r="N284">
         <f t="shared" si="60"/>
-        <v>425072.95299828</v>
+        <v>483891.62636719929</v>
       </c>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.3">
@@ -20886,7 +20886,7 @@
       </c>
       <c r="N285">
         <f t="shared" si="60"/>
-        <v>428572.73224078683</v>
+        <v>487915.68675354647</v>
       </c>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.3">
@@ -20941,7 +20941,7 @@
       </c>
       <c r="N286">
         <f t="shared" si="60"/>
-        <v>432088.74015549204</v>
+        <v>491958.73784522427</v>
       </c>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.3">
@@ -20996,7 +20996,7 @@
       </c>
       <c r="N287">
         <f t="shared" si="60"/>
-        <v>435620.99404686736</v>
+        <v>496020.80144519254</v>
       </c>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.3">
@@ -21051,7 +21051,7 @@
       </c>
       <c r="N288">
         <f t="shared" si="60"/>
-        <v>439169.51117648475</v>
+        <v>500101.89930413454</v>
       </c>
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.3">
@@ -21106,7 +21106,7 @@
       </c>
       <c r="N289">
         <f t="shared" si="60"/>
-        <v>442734.308763273</v>
+        <v>504202.05312075757</v>
       </c>
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.3">
@@ -21161,7 +21161,7 @@
       </c>
       <c r="N290">
         <f t="shared" si="60"/>
-        <v>446315.40398376866</v>
+        <v>508321.28454210883</v>
       </c>
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.3">
@@ -21216,7 +21216,7 @@
       </c>
       <c r="N291">
         <f t="shared" si="60"/>
-        <v>449912.81397237629</v>
+        <v>512459.61516387598</v>
       </c>
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.3">
@@ -21271,7 +21271,7 @@
       </c>
       <c r="N292">
         <f t="shared" si="60"/>
-        <v>453526.55582161061</v>
+        <v>516617.06653068127</v>
       </c>
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.3">
@@ -21326,7 +21326,7 @@
       </c>
       <c r="N293">
         <f t="shared" si="60"/>
-        <v>457156.64658234856</v>
+        <v>520793.66013639153</v>
       </c>
     </row>
   </sheetData>
